--- a/Finanzas/Febrero_2017.xlsx
+++ b/Finanzas/Febrero_2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Tesis_AdrianaFelCha\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="121">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -373,6 +373,21 @@
   <si>
     <t>='</t>
   </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Yogurth; Copias</t>
+  </si>
+  <si>
+    <t>Ver a Pedro en la Vasconcelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOMINGO :D :D :D </t>
+  </si>
+  <si>
+    <t>Mamá coopero para mi yogurth :D</t>
+  </si>
 </sst>
 </file>
 
@@ -662,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -782,6 +797,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1078,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ598"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,6 +1115,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A1" s="40"/>
       <c r="B1" s="55" t="s">
         <v>80</v>
       </c>
@@ -1382,7 +1399,7 @@
       </c>
       <c r="N4" s="5">
         <f>SUM(L3,L9)</f>
-        <v>27855.86</v>
+        <v>27995.86</v>
       </c>
       <c r="S4" s="49">
         <v>42783</v>
@@ -1477,7 +1494,7 @@
       </c>
       <c r="AY4" s="64">
         <f>(SUM((AO3:AO520)))-(SUM((AR3:AR520)))</f>
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="AZ4" s="64"/>
     </row>
@@ -1596,6 +1613,7 @@
       <c r="AZ5" s="64"/>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
       <c r="I6" s="32"/>
       <c r="J6" s="32"/>
       <c r="K6" s="54" t="s">
@@ -1603,7 +1621,7 @@
       </c>
       <c r="L6" s="54">
         <f>(SUM((Q11:Q500),(V3:V520)))-(SUM(E11:E500))</f>
-        <v>630.5</v>
+        <v>692.5</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -1634,6 +1652,9 @@
       <c r="AA6">
         <v>0</v>
       </c>
+      <c r="AB6" s="40" t="s">
+        <v>119</v>
+      </c>
       <c r="AD6">
         <v>0</v>
       </c>
@@ -1691,7 +1712,7 @@
       <c r="AU6">
         <v>0</v>
       </c>
-      <c r="AW6" s="64"/>
+      <c r="AW6" s="79"/>
       <c r="AX6" s="64"/>
       <c r="AY6" s="64"/>
       <c r="AZ6" s="64"/>
@@ -1794,26 +1815,41 @@
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="40"/>
+      <c r="K8" s="40"/>
       <c r="S8" s="49">
         <v>42787</v>
       </c>
-      <c r="T8" s="50"/>
-      <c r="U8" s="51"/>
+      <c r="T8" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="U8" s="51" t="s">
+        <v>118</v>
+      </c>
       <c r="V8" s="43">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="52"/>
-      <c r="X8" s="76"/>
+        <v>62</v>
+      </c>
+      <c r="W8" s="52">
+        <v>75</v>
+      </c>
+      <c r="X8" s="76">
+        <v>9</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>120</v>
+      </c>
       <c r="Z8" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>117</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1841,15 +1877,30 @@
       </c>
       <c r="AN8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>2</v>
+      </c>
+      <c r="AQ8">
+        <v>2</v>
       </c>
       <c r="AR8">
         <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="AS8">
         <v>0</v>
       </c>
       <c r="AT8">
         <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
@@ -1871,7 +1922,7 @@
       </c>
       <c r="L9" s="15">
         <f>SUM(L11:L500)</f>
-        <v>23684</v>
+        <v>23824</v>
       </c>
       <c r="N9" s="35" t="s">
         <v>56</v>
@@ -1936,6 +1987,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AV9" s="40"/>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2444,7 +2496,7 @@
         <v>42794</v>
       </c>
       <c r="T15" s="50"/>
-      <c r="U15" s="51"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2523,7 +2575,9 @@
       <c r="O16" s="59"/>
       <c r="P16" s="59"/>
       <c r="Q16" s="39"/>
-      <c r="S16" s="50"/>
+      <c r="S16" s="49">
+        <v>42795</v>
+      </c>
       <c r="T16" s="50"/>
       <c r="U16" s="51"/>
       <c r="V16" s="43">
@@ -2604,7 +2658,9 @@
       <c r="O17" s="59"/>
       <c r="P17" s="59"/>
       <c r="Q17" s="39"/>
-      <c r="S17" s="50"/>
+      <c r="S17" s="49">
+        <v>42796</v>
+      </c>
       <c r="T17" s="50"/>
       <c r="U17" s="51"/>
       <c r="V17" s="43">
@@ -2685,7 +2741,9 @@
       <c r="O18" s="59"/>
       <c r="P18" s="59"/>
       <c r="Q18" s="39"/>
-      <c r="S18" s="50"/>
+      <c r="S18" s="49">
+        <v>42797</v>
+      </c>
       <c r="T18" s="50"/>
       <c r="U18" s="51"/>
       <c r="V18" s="43">
@@ -2766,7 +2824,9 @@
       <c r="O19" s="59"/>
       <c r="P19" s="59"/>
       <c r="Q19" s="39"/>
-      <c r="S19" s="50"/>
+      <c r="S19" s="49">
+        <v>42798</v>
+      </c>
       <c r="T19" s="50"/>
       <c r="U19" s="51"/>
       <c r="V19" s="43">
@@ -2847,7 +2907,9 @@
       <c r="O20" s="59"/>
       <c r="P20" s="59"/>
       <c r="Q20" s="39"/>
-      <c r="S20" s="50"/>
+      <c r="S20" s="49">
+        <v>42799</v>
+      </c>
       <c r="T20" s="50"/>
       <c r="U20" s="51"/>
       <c r="V20" s="43">
@@ -2928,7 +2990,9 @@
       <c r="O21" s="59"/>
       <c r="P21" s="59"/>
       <c r="Q21" s="39"/>
-      <c r="S21" s="50"/>
+      <c r="S21" s="49">
+        <v>42800</v>
+      </c>
       <c r="T21" s="50"/>
       <c r="U21" s="51"/>
       <c r="V21" s="43">
@@ -3011,7 +3075,9 @@
       <c r="O22" s="59"/>
       <c r="P22" s="59"/>
       <c r="Q22" s="39"/>
-      <c r="S22" s="50"/>
+      <c r="S22" s="49">
+        <v>42801</v>
+      </c>
       <c r="T22" s="50"/>
       <c r="U22" s="51"/>
       <c r="V22" s="43">
@@ -3246,14 +3312,14 @@
         <v>52</v>
       </c>
       <c r="J25" s="24">
-        <v>560</v>
+        <v>700</v>
       </c>
       <c r="K25" s="23">
         <v>0</v>
       </c>
       <c r="L25" s="21">
         <f t="shared" si="5"/>
-        <v>560</v>
+        <v>700</v>
       </c>
       <c r="N25" s="59"/>
       <c r="O25" s="59"/>

--- a/Finanzas/Febrero_2017.xlsx
+++ b/Finanzas/Febrero_2017.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Tesis_AdrianaFelCha\Finanzas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="147">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -466,6 +461,18 @@
   <si>
     <t>Papà,  Ubers en Patzcuaro</t>
   </si>
+  <si>
+    <t>Pasta</t>
+  </si>
+  <si>
+    <t>No ingles</t>
+  </si>
+  <si>
+    <t>Agua</t>
+  </si>
+  <si>
+    <t>Casa</t>
+  </si>
 </sst>
 </file>
 
@@ -597,7 +604,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -742,6 +749,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -755,7 +768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -877,6 +890,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1163,7 +1177,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1173,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ598"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,7 +1714,7 @@
       </c>
       <c r="L6" s="54">
         <f>(SUM((Q11:Q500),(V3:V520)))-(SUM(E11:E500))</f>
-        <v>891</v>
+        <v>996</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -2175,6 +2189,9 @@
       <c r="AA10">
         <v>0</v>
       </c>
+      <c r="AB10" t="s">
+        <v>143</v>
+      </c>
       <c r="AC10" t="s">
         <v>131</v>
       </c>
@@ -2526,7 +2543,7 @@
       </c>
       <c r="V13" s="43">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="W13" s="52"/>
       <c r="X13" s="52">
@@ -2537,10 +2554,19 @@
       </c>
       <c r="Z13" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>145</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -2573,12 +2599,27 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
       <c r="AR13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AS13" s="81">
+        <v>0</v>
+      </c>
       <c r="AT13">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AU13">
         <v>0</v>
       </c>
     </row>
@@ -2618,13 +2659,19 @@
       <c r="S14" s="49">
         <v>42793</v>
       </c>
-      <c r="T14" s="50"/>
-      <c r="U14" s="51"/>
+      <c r="T14" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="U14" s="51" t="s">
+        <v>144</v>
+      </c>
       <c r="V14" s="43">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="52"/>
+        <v>125</v>
+      </c>
+      <c r="W14" s="52">
+        <v>125</v>
+      </c>
       <c r="X14" s="52"/>
       <c r="Z14" s="53">
         <f t="shared" si="0"/>

--- a/Finanzas/Febrero_2017.xlsx
+++ b/Finanzas/Febrero_2017.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="151">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -473,12 +478,24 @@
   <si>
     <t>Casa</t>
   </si>
+  <si>
+    <t xml:space="preserve">Deposito! </t>
+  </si>
+  <si>
+    <t>Cambio</t>
+  </si>
+  <si>
+    <t>Garnachas</t>
+  </si>
+  <si>
+    <t>Chocolate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,6 +616,21 @@
       <u/>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -768,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -891,6 +923,13 @@
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -899,13 +938,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF00FF"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FF99FF99"/>
       <color rgb="FFFF9797"/>
       <color rgb="FFCFCFCF"/>
       <color rgb="FFF6F7C9"/>
       <color rgb="FFFFFF66"/>
-      <color rgb="FFFF00FF"/>
       <color rgb="FF86F577"/>
       <color rgb="FF33CC33"/>
       <color rgb="FF99FF66"/>
@@ -1177,7 +1216,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1187,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ598"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,7 +1254,9 @@
       <c r="C1" s="56">
         <v>42782</v>
       </c>
-      <c r="D1" s="55"/>
+      <c r="D1" s="83" t="s">
+        <v>148</v>
+      </c>
       <c r="S1" s="46"/>
       <c r="T1" s="46"/>
       <c r="U1" s="46"/>
@@ -1255,7 +1296,10 @@
       <c r="C2" s="58">
         <v>9702</v>
       </c>
-      <c r="D2" s="55"/>
+      <c r="D2" s="84">
+        <f>L3-C2</f>
+        <v>-5087.0600000000004</v>
+      </c>
       <c r="I2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1378,7 +1422,7 @@
       </c>
       <c r="L3" s="27">
         <f>(SUM(C2,(E11:E500),(K11:K500)))-(SUM((D11:D500),(C11:C500)))</f>
-        <v>3764.9399999999996</v>
+        <v>4614.9399999999996</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -1492,7 +1536,7 @@
       </c>
       <c r="N4" s="5">
         <f>SUM(L3,L9)</f>
-        <v>27688.94</v>
+        <v>28433.94</v>
       </c>
       <c r="S4" s="49">
         <v>42783</v>
@@ -1714,7 +1758,7 @@
       </c>
       <c r="L6" s="54">
         <f>(SUM((Q11:Q500),(V3:V520)))-(SUM(E11:E500))</f>
-        <v>996</v>
+        <v>88.5</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -2021,7 +2065,7 @@
       </c>
       <c r="L9" s="15">
         <f>SUM(L11:L500)</f>
-        <v>23924</v>
+        <v>23819</v>
       </c>
       <c r="N9" s="35" t="s">
         <v>56</v>
@@ -2667,7 +2711,7 @@
       </c>
       <c r="V14" s="43">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>67.5</v>
       </c>
       <c r="W14" s="52">
         <v>125</v>
@@ -2675,10 +2719,19 @@
       <c r="X14" s="52"/>
       <c r="Z14" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57.5</v>
+      </c>
+      <c r="AA14">
+        <v>40</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>150</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -2709,15 +2762,30 @@
       </c>
       <c r="AN14">
         <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
         <v>0</v>
       </c>
       <c r="AR14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
       <c r="AT14">
         <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>9.5</v>
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
@@ -2822,7 +2890,7 @@
       <c r="D16" s="80">
         <v>169.93</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="82"/>
       <c r="G16" s="59"/>
       <c r="H16" s="59" t="s">
         <v>24</v>
@@ -3085,9 +3153,17 @@
       </c>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A19" s="34">
+        <v>42793</v>
+      </c>
+      <c r="B19" t="s">
+        <v>147</v>
+      </c>
       <c r="C19" s="13"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="14"/>
+      <c r="E19" s="14">
+        <v>850</v>
+      </c>
       <c r="G19" s="59"/>
       <c r="H19" s="59" t="s">
         <v>24</v>
@@ -3445,7 +3521,9 @@
       <c r="O23" s="59"/>
       <c r="P23" s="59"/>
       <c r="Q23" s="39"/>
-      <c r="S23" s="50"/>
+      <c r="S23" s="49">
+        <v>42802</v>
+      </c>
       <c r="T23" s="50"/>
       <c r="U23" s="51"/>
       <c r="V23" s="43">
@@ -3527,7 +3605,9 @@
       <c r="O24" s="59"/>
       <c r="P24" s="59"/>
       <c r="Q24" s="39"/>
-      <c r="S24" s="50"/>
+      <c r="S24" s="49">
+        <v>42803</v>
+      </c>
       <c r="T24" s="50"/>
       <c r="U24" s="51"/>
       <c r="V24" s="43">
@@ -3597,20 +3677,23 @@
         <v>52</v>
       </c>
       <c r="J25" s="24">
-        <v>700</v>
+        <f>85*7</f>
+        <v>595</v>
       </c>
       <c r="K25" s="23">
         <v>0</v>
       </c>
       <c r="L25" s="21">
         <f t="shared" si="5"/>
-        <v>700</v>
+        <v>595</v>
       </c>
       <c r="N25" s="59"/>
       <c r="O25" s="59"/>
       <c r="P25" s="59"/>
       <c r="Q25" s="39"/>
-      <c r="S25" s="50"/>
+      <c r="S25" s="49">
+        <v>42804</v>
+      </c>
       <c r="T25" s="50"/>
       <c r="U25" s="51"/>
       <c r="V25" s="43">
@@ -3693,7 +3776,9 @@
       <c r="O26" s="59"/>
       <c r="P26" s="59"/>
       <c r="Q26" s="39"/>
-      <c r="S26" s="50"/>
+      <c r="S26" s="49">
+        <v>42805</v>
+      </c>
       <c r="T26" s="50"/>
       <c r="U26" s="51"/>
       <c r="V26" s="43">
@@ -3775,7 +3860,9 @@
       <c r="O27" s="59"/>
       <c r="P27" s="59"/>
       <c r="Q27" s="39"/>
-      <c r="S27" s="50"/>
+      <c r="S27" s="49">
+        <v>42806</v>
+      </c>
       <c r="T27" s="50"/>
       <c r="U27" s="51"/>
       <c r="V27" s="43">
@@ -3856,7 +3943,9 @@
       <c r="O28" s="59"/>
       <c r="P28" s="59"/>
       <c r="Q28" s="39"/>
-      <c r="S28" s="50"/>
+      <c r="S28" s="49">
+        <v>42807</v>
+      </c>
       <c r="T28" s="50"/>
       <c r="U28" s="51"/>
       <c r="V28" s="43">
@@ -3929,7 +4018,9 @@
       <c r="O29" s="59"/>
       <c r="P29" s="59"/>
       <c r="Q29" s="39"/>
-      <c r="S29" s="50"/>
+      <c r="S29" s="49">
+        <v>42808</v>
+      </c>
       <c r="T29" s="50"/>
       <c r="U29" s="51"/>
       <c r="V29" s="43">
@@ -4002,7 +4093,9 @@
       <c r="O30" s="59"/>
       <c r="P30" s="59"/>
       <c r="Q30" s="39"/>
-      <c r="S30" s="50"/>
+      <c r="S30" s="49">
+        <v>42809</v>
+      </c>
       <c r="T30" s="50"/>
       <c r="U30" s="51"/>
       <c r="V30" s="43">
@@ -4075,7 +4168,9 @@
       <c r="O31" s="59"/>
       <c r="P31" s="59"/>
       <c r="Q31" s="39"/>
-      <c r="S31" s="50"/>
+      <c r="S31" s="49">
+        <v>42810</v>
+      </c>
       <c r="T31" s="50"/>
       <c r="U31" s="51"/>
       <c r="V31" s="43">
@@ -4148,7 +4243,9 @@
       <c r="O32" s="59"/>
       <c r="P32" s="59"/>
       <c r="Q32" s="39"/>
-      <c r="S32" s="50"/>
+      <c r="S32" s="49">
+        <v>42811</v>
+      </c>
       <c r="T32" s="50"/>
       <c r="U32" s="51"/>
       <c r="V32" s="43">
@@ -4218,7 +4315,9 @@
       <c r="O33" s="59"/>
       <c r="P33" s="59"/>
       <c r="Q33" s="39"/>
-      <c r="S33" s="50"/>
+      <c r="S33" s="49">
+        <v>42812</v>
+      </c>
       <c r="T33" s="50"/>
       <c r="U33" s="51"/>
       <c r="V33" s="43">
@@ -4288,7 +4387,9 @@
       <c r="O34" s="59"/>
       <c r="P34" s="59"/>
       <c r="Q34" s="39"/>
-      <c r="S34" s="50"/>
+      <c r="S34" s="49">
+        <v>42813</v>
+      </c>
       <c r="T34" s="50"/>
       <c r="U34" s="51"/>
       <c r="V34" s="43">
@@ -4358,7 +4459,9 @@
       <c r="O35" s="59"/>
       <c r="P35" s="59"/>
       <c r="Q35" s="39"/>
-      <c r="S35" s="50"/>
+      <c r="S35" s="49">
+        <v>42814</v>
+      </c>
       <c r="T35" s="50"/>
       <c r="U35" s="51"/>
       <c r="V35" s="43">
@@ -4428,7 +4531,9 @@
       <c r="O36" s="59"/>
       <c r="P36" s="59"/>
       <c r="Q36" s="39"/>
-      <c r="S36" s="50"/>
+      <c r="S36" s="49">
+        <v>42815</v>
+      </c>
       <c r="T36" s="50"/>
       <c r="U36" s="51"/>
       <c r="V36" s="43">
@@ -4498,7 +4603,9 @@
       <c r="O37" s="59"/>
       <c r="P37" s="59"/>
       <c r="Q37" s="39"/>
-      <c r="S37" s="50"/>
+      <c r="S37" s="49">
+        <v>42816</v>
+      </c>
       <c r="T37" s="50"/>
       <c r="U37" s="51"/>
       <c r="V37" s="43">
@@ -4568,7 +4675,9 @@
       <c r="O38" s="59"/>
       <c r="P38" s="59"/>
       <c r="Q38" s="39"/>
-      <c r="S38" s="50"/>
+      <c r="S38" s="49">
+        <v>42817</v>
+      </c>
       <c r="T38" s="50"/>
       <c r="U38" s="51"/>
       <c r="V38" s="43">
@@ -4638,7 +4747,9 @@
       <c r="O39" s="59"/>
       <c r="P39" s="59"/>
       <c r="Q39" s="39"/>
-      <c r="S39" s="50"/>
+      <c r="S39" s="49">
+        <v>42818</v>
+      </c>
       <c r="T39" s="50"/>
       <c r="U39" s="51"/>
       <c r="V39" s="43">
@@ -4708,7 +4819,9 @@
       <c r="O40" s="59"/>
       <c r="P40" s="59"/>
       <c r="Q40" s="39"/>
-      <c r="S40" s="50"/>
+      <c r="S40" s="49">
+        <v>42819</v>
+      </c>
       <c r="T40" s="50"/>
       <c r="U40" s="51"/>
       <c r="V40" s="43">
@@ -4778,7 +4891,9 @@
       <c r="O41" s="59"/>
       <c r="P41" s="59"/>
       <c r="Q41" s="39"/>
-      <c r="S41" s="50"/>
+      <c r="S41" s="49">
+        <v>42820</v>
+      </c>
       <c r="T41" s="50"/>
       <c r="U41" s="51"/>
       <c r="V41" s="43">
@@ -4848,7 +4963,9 @@
       <c r="O42" s="59"/>
       <c r="P42" s="59"/>
       <c r="Q42" s="39"/>
-      <c r="S42" s="50"/>
+      <c r="S42" s="49">
+        <v>42821</v>
+      </c>
       <c r="T42" s="50"/>
       <c r="U42" s="51"/>
       <c r="V42" s="43">
@@ -4918,7 +5035,9 @@
       <c r="O43" s="59"/>
       <c r="P43" s="59"/>
       <c r="Q43" s="39"/>
-      <c r="S43" s="50"/>
+      <c r="S43" s="49">
+        <v>42822</v>
+      </c>
       <c r="T43" s="50"/>
       <c r="U43" s="51"/>
       <c r="V43" s="43">
@@ -4988,7 +5107,9 @@
       <c r="O44" s="59"/>
       <c r="P44" s="59"/>
       <c r="Q44" s="39"/>
-      <c r="S44" s="50"/>
+      <c r="S44" s="49">
+        <v>42823</v>
+      </c>
       <c r="T44" s="50"/>
       <c r="U44" s="51"/>
       <c r="V44" s="43">
@@ -5058,7 +5179,9 @@
       <c r="O45" s="59"/>
       <c r="P45" s="59"/>
       <c r="Q45" s="39"/>
-      <c r="S45" s="50"/>
+      <c r="S45" s="49">
+        <v>42824</v>
+      </c>
       <c r="T45" s="50"/>
       <c r="U45" s="51"/>
       <c r="V45" s="43">
@@ -5128,7 +5251,9 @@
       <c r="O46" s="59"/>
       <c r="P46" s="59"/>
       <c r="Q46" s="39"/>
-      <c r="S46" s="50"/>
+      <c r="S46" s="49">
+        <v>42825</v>
+      </c>
       <c r="T46" s="50"/>
       <c r="U46" s="51"/>
       <c r="V46" s="43">

--- a/Finanzas/Febrero_2017.xlsx
+++ b/Finanzas/Febrero_2017.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="157">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -490,6 +490,24 @@
   <si>
     <t>Chocolate</t>
   </si>
+  <si>
+    <t>Netflix - Marzo</t>
+  </si>
+  <si>
+    <t>?????</t>
+  </si>
+  <si>
+    <t>Casa Javs Llaves</t>
+  </si>
+  <si>
+    <t>Mamá -</t>
+  </si>
+  <si>
+    <t>Uriel</t>
+  </si>
+  <si>
+    <t>Olvide mi dinero en el coche'</t>
+  </si>
 </sst>
 </file>
 
@@ -800,7 +818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -930,6 +948,7 @@
     <xf numFmtId="3" fontId="17" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1227,7 +1246,7 @@
   <dimension ref="A1:AZ598"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,7 +1317,7 @@
       </c>
       <c r="D2" s="84">
         <f>L3-C2</f>
-        <v>-5087.0600000000004</v>
+        <v>-5274.2800000000007</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>2</v>
@@ -1422,7 +1441,7 @@
       </c>
       <c r="L3" s="27">
         <f>(SUM(C2,(E11:E500),(K11:K500)))-(SUM((D11:D500),(C11:C500)))</f>
-        <v>4614.9399999999996</v>
+        <v>4427.7199999999993</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -1536,7 +1555,7 @@
       </c>
       <c r="N4" s="5">
         <f>SUM(L3,L9)</f>
-        <v>28433.94</v>
+        <v>28256.720000000001</v>
       </c>
       <c r="S4" s="49">
         <v>42783</v>
@@ -1631,7 +1650,7 @@
       </c>
       <c r="AY4" s="64">
         <f>(SUM((AO3:AO520)))-(SUM((AR3:AR520)))</f>
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="AZ4" s="64"/>
     </row>
@@ -1758,7 +1777,7 @@
       </c>
       <c r="L6" s="54">
         <f>(SUM((Q11:Q500),(V3:V520)))-(SUM(E11:E500))</f>
-        <v>88.5</v>
+        <v>73.5</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -2065,7 +2084,7 @@
       </c>
       <c r="L9" s="15">
         <f>SUM(L11:L500)</f>
-        <v>23819</v>
+        <v>23829</v>
       </c>
       <c r="N9" s="35" t="s">
         <v>56</v>
@@ -2824,20 +2843,40 @@
       <c r="S15" s="49">
         <v>42794</v>
       </c>
-      <c r="T15" s="50"/>
-      <c r="U15" s="74"/>
+      <c r="T15" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="U15" s="74" t="s">
+        <v>153</v>
+      </c>
       <c r="V15" s="43">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
+        <v>-15</v>
+      </c>
+      <c r="W15" s="52">
+        <v>75</v>
+      </c>
+      <c r="X15" s="52">
+        <v>40</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>154</v>
+      </c>
       <c r="Z15" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="AA15">
+        <v>60</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>150</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -2868,14 +2907,29 @@
       </c>
       <c r="AN15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="AO15">
+        <v>60</v>
+      </c>
+      <c r="AP15">
+        <v>3</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
       </c>
       <c r="AR15">
         <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="AS15">
         <v>0</v>
       </c>
       <c r="AT15">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AU15">
         <v>0</v>
       </c>
     </row>
@@ -3244,8 +3298,16 @@
       </c>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A20" s="34">
+        <v>42794</v>
+      </c>
+      <c r="B20" t="s">
+        <v>151</v>
+      </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="12">
+        <v>170</v>
+      </c>
       <c r="E20" s="14"/>
       <c r="G20" s="59"/>
       <c r="H20" s="59" t="s">
@@ -3327,8 +3389,16 @@
       </c>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A21" s="34">
+        <v>42794</v>
+      </c>
+      <c r="B21" t="s">
+        <v>152</v>
+      </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="12">
+        <v>17.22</v>
+      </c>
       <c r="E21" s="14"/>
       <c r="G21" s="59"/>
       <c r="H21" s="59" t="s">
@@ -4005,14 +4075,22 @@
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
       <c r="E29" s="14"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="24"/>
+      <c r="G29" s="60">
+        <v>42794</v>
+      </c>
+      <c r="H29" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="I29" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="J29" s="24">
+        <v>10</v>
+      </c>
       <c r="K29" s="23"/>
       <c r="L29" s="21">
         <f t="shared" ref="L29:L32" si="6">J29-K29</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N29" s="59"/>
       <c r="O29" s="59"/>

--- a/Finanzas/Febrero_2017.xlsx
+++ b/Finanzas/Febrero_2017.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="163">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -508,6 +503,24 @@
   <si>
     <t>Olvide mi dinero en el coche'</t>
   </si>
+  <si>
+    <t>Niño me llamó Retrograda y cancele la clase de ingles</t>
+  </si>
+  <si>
+    <t>Mamá Prestado</t>
+  </si>
+  <si>
+    <t>Prestamo a Jaime;</t>
+  </si>
+  <si>
+    <t>Jaime</t>
+  </si>
+  <si>
+    <t>Necesitaba dinero para prestarle a Liz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edgar! </t>
+  </si>
 </sst>
 </file>
 
@@ -818,7 +831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -949,6 +962,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1235,7 +1251,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1243,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ598"/>
+  <dimension ref="A1:BD598"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="BD17" sqref="BD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,7 +1571,7 @@
       </c>
       <c r="N4" s="5">
         <f>SUM(L3,L9)</f>
-        <v>28256.720000000001</v>
+        <v>28276.720000000001</v>
       </c>
       <c r="S4" s="49">
         <v>42783</v>
@@ -1650,7 +1666,7 @@
       </c>
       <c r="AY4" s="64">
         <f>(SUM((AO3:AO520)))-(SUM((AR3:AR520)))</f>
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AZ4" s="64"/>
     </row>
@@ -1777,7 +1793,7 @@
       </c>
       <c r="L6" s="54">
         <f>(SUM((Q11:Q500),(V3:V520)))-(SUM(E11:E500))</f>
-        <v>73.5</v>
+        <v>143</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -2084,7 +2100,7 @@
       </c>
       <c r="L9" s="15">
         <f>SUM(L11:L500)</f>
-        <v>23829</v>
+        <v>23849</v>
       </c>
       <c r="N9" s="35" t="s">
         <v>56</v>
@@ -2851,7 +2867,7 @@
       </c>
       <c r="V15" s="43">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="W15" s="52">
         <v>75</v>
@@ -2864,7 +2880,7 @@
       </c>
       <c r="Z15" s="53">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AA15">
         <v>60</v>
@@ -2907,20 +2923,20 @@
       </c>
       <c r="AN15">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AO15">
         <v>60</v>
       </c>
       <c r="AP15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR15">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AS15">
         <v>0</v>
@@ -2930,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="AU15">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
@@ -2969,20 +2985,40 @@
       <c r="S16" s="49">
         <v>42795</v>
       </c>
-      <c r="T16" s="50"/>
-      <c r="U16" s="51"/>
+      <c r="T16" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="U16" s="51" t="s">
+        <v>157</v>
+      </c>
       <c r="V16" s="43">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-      <c r="Z16" s="53">
+        <v>-0.5</v>
+      </c>
+      <c r="W16" s="52">
+        <v>75</v>
+      </c>
+      <c r="X16" s="52">
+        <v>50</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z16" s="86">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
+        <v>125.5</v>
+      </c>
+      <c r="AA16">
+        <v>70</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD16" s="19">
+        <v>20</v>
       </c>
       <c r="AE16">
         <v>0</v>
@@ -3013,18 +3049,34 @@
       </c>
       <c r="AN16">
         <f t="shared" si="2"/>
+        <v>35.5</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
         <v>0</v>
       </c>
       <c r="AR16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AS16">
+        <v>2</v>
+      </c>
       <c r="AT16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="AU16">
+        <f>9.5+16</f>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>42790</v>
       </c>
@@ -3060,18 +3112,25 @@
       <c r="S17" s="49">
         <v>42796</v>
       </c>
-      <c r="T17" s="50"/>
-      <c r="U17" s="51"/>
+      <c r="T17" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="U17" s="51" t="s">
+        <v>162</v>
+      </c>
       <c r="V17" s="43">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W17" s="52"/>
+        <v>75</v>
+      </c>
+      <c r="W17" s="52">
+        <v>75</v>
+      </c>
       <c r="X17" s="52"/>
       <c r="Z17" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AC17" s="40"/>
       <c r="AD17">
         <v>0</v>
       </c>
@@ -3114,8 +3173,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="BC17" s="40"/>
+      <c r="BD17" s="40"/>
+    </row>
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -3206,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <v>42793</v>
       </c>
@@ -3297,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A20" s="34">
         <v>42794</v>
       </c>
@@ -3388,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
         <v>42794</v>
       </c>
@@ -3479,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="C22" s="13"/>
       <c r="D22" s="12"/>
       <c r="E22" s="14"/>
@@ -3564,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
       <c r="C23" s="13"/>
       <c r="D23" s="73"/>
       <c r="E23" s="14"/>
@@ -3649,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
       <c r="C24" s="13"/>
       <c r="D24" s="12"/>
       <c r="E24" s="14"/>
@@ -3733,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
       <c r="C25" s="13"/>
       <c r="D25" s="12"/>
       <c r="E25" s="14"/>
@@ -3819,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
       <c r="C26" s="13"/>
       <c r="D26" s="12"/>
       <c r="E26" s="14"/>
@@ -3904,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
       <c r="C27" s="13"/>
       <c r="D27" s="12"/>
       <c r="E27" s="14"/>
@@ -3988,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
       <c r="E28" s="14"/>
@@ -4071,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
       <c r="E29" s="14"/>
@@ -4154,18 +4215,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
       <c r="C30" s="13"/>
       <c r="D30" s="12"/>
       <c r="E30" s="14"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="23"/>
+      <c r="G30" s="60">
+        <v>42795</v>
+      </c>
+      <c r="H30" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="I30" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="J30" s="24">
+        <v>20</v>
+      </c>
+      <c r="K30" s="75"/>
       <c r="L30" s="21">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N30" s="59"/>
       <c r="O30" s="59"/>
@@ -4229,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
       <c r="C31" s="13"/>
       <c r="D31" s="12"/>
       <c r="E31" s="14"/>
@@ -4304,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
       <c r="C32" s="13"/>
       <c r="D32" s="12"/>
       <c r="E32" s="14"/>

--- a/Finanzas/Febrero_2017.xlsx
+++ b/Finanzas/Febrero_2017.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Tesis_AdrianaFelCha\Finanzas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="166">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -519,7 +524,16 @@
     <t>Necesitaba dinero para prestarle a Liz</t>
   </si>
   <si>
-    <t xml:space="preserve">Edgar! </t>
+    <t>Ingles (Pre-Patz y semana trunca)</t>
+  </si>
+  <si>
+    <t>Edgar cancelado</t>
+  </si>
+  <si>
+    <t>Copias</t>
+  </si>
+  <si>
+    <t>Chocolate; Prestamo a Uriel</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1265,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1261,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD598"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="BD17" sqref="BD17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,7 +1680,7 @@
       </c>
       <c r="AY4" s="64">
         <f>(SUM((AO3:AO520)))-(SUM((AR3:AR520)))</f>
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AZ4" s="64"/>
     </row>
@@ -1793,7 +1807,7 @@
       </c>
       <c r="L6" s="54">
         <f>(SUM((Q11:Q500),(V3:V520)))-(SUM(E11:E500))</f>
-        <v>143</v>
+        <v>592</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -2489,10 +2503,18 @@
         <f t="shared" si="5"/>
         <v>2500</v>
       </c>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="39"/>
+      <c r="N12" s="60">
+        <v>42796</v>
+      </c>
+      <c r="O12" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q12" s="39">
+        <v>465</v>
+      </c>
       <c r="S12" s="49">
         <v>42791</v>
       </c>
@@ -2867,7 +2889,7 @@
       </c>
       <c r="V15" s="43">
         <f t="shared" si="1"/>
-        <v>-20</v>
+        <v>-30</v>
       </c>
       <c r="W15" s="52">
         <v>75</v>
@@ -2880,7 +2902,7 @@
       </c>
       <c r="Z15" s="53">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="AA15">
         <v>60</v>
@@ -2889,13 +2911,13 @@
         <v>98</v>
       </c>
       <c r="AC15" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="AD15">
         <v>10</v>
       </c>
-      <c r="AE15">
-        <v>0</v>
+      <c r="AE15" s="19">
+        <v>10</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2929,14 +2951,14 @@
         <v>60</v>
       </c>
       <c r="AP15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ15">
         <v>2</v>
       </c>
       <c r="AR15">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AS15">
         <v>0</v>
@@ -3116,11 +3138,11 @@
         <v>63</v>
       </c>
       <c r="U17" s="51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="V17" s="43">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="W17" s="52">
         <v>75</v>
@@ -3128,11 +3150,13 @@
       <c r="X17" s="52"/>
       <c r="Z17" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC17" s="40"/>
+        <v>8</v>
+      </c>
+      <c r="AC17" s="40" t="s">
+        <v>164</v>
+      </c>
       <c r="AD17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -3163,15 +3187,27 @@
       </c>
       <c r="AN17">
         <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>2</v>
+      </c>
+      <c r="AQ17">
         <v>0</v>
       </c>
       <c r="AR17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AS17">
+        <v>1</v>
       </c>
       <c r="AT17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC17" s="40"/>
       <c r="BD17" s="40"/>
@@ -3307,10 +3343,12 @@
       <c r="U19" s="51"/>
       <c r="V19" s="43">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W19" s="52"/>
-      <c r="X19" s="52"/>
+      <c r="X19" s="52">
+        <v>2</v>
+      </c>
       <c r="Z19" s="53">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Finanzas/Febrero_2017.xlsx
+++ b/Finanzas/Febrero_2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Tesis_AdrianaFelCha\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="167">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -535,6 +535,9 @@
   <si>
     <t>Chocolate; Prestamo a Uriel</t>
   </si>
+  <si>
+    <t>Logan</t>
+  </si>
 </sst>
 </file>
 
@@ -845,7 +848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -977,6 +980,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1275,9 +1281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD598"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1337,6 +1341,7 @@
       <c r="AS1" s="61"/>
       <c r="AT1" s="61"/>
       <c r="AU1" s="61"/>
+      <c r="AX1" s="40"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B2" s="57" t="s">
@@ -1680,7 +1685,7 @@
       </c>
       <c r="AY4" s="64">
         <f>(SUM((AO3:AO520)))-(SUM((AR3:AR520)))</f>
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AZ4" s="64"/>
     </row>
@@ -1807,7 +1812,7 @@
       </c>
       <c r="L6" s="54">
         <f>(SUM((Q11:Q500),(V3:V520)))-(SUM(E11:E500))</f>
-        <v>592</v>
+        <v>550</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -3142,15 +3147,21 @@
       </c>
       <c r="V17" s="43">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="W17" s="52">
         <v>75</v>
       </c>
-      <c r="X17" s="52"/>
+      <c r="X17" s="76"/>
       <c r="Z17" s="53">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>48</v>
+      </c>
+      <c r="AA17">
+        <v>40</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>121</v>
       </c>
       <c r="AC17" s="40" t="s">
         <v>164</v>
@@ -3176,7 +3187,7 @@
       <c r="AJ17">
         <v>0</v>
       </c>
-      <c r="AK17">
+      <c r="AK17" s="40">
         <v>0</v>
       </c>
       <c r="AL17">
@@ -3196,17 +3207,20 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AS17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT17">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AU17">
         <v>5</v>
       </c>
       <c r="BC17" s="40"/>
@@ -3248,9 +3262,13 @@
       <c r="S18" s="49">
         <v>42797</v>
       </c>
-      <c r="T18" s="50"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="43">
+      <c r="T18" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="U18" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="V18" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3343,12 +3361,10 @@
       <c r="U19" s="51"/>
       <c r="V19" s="43">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W19" s="52"/>
-      <c r="X19" s="52">
-        <v>2</v>
-      </c>
+      <c r="X19" s="52"/>
       <c r="Z19" s="53">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Finanzas/Febrero_2017.xlsx
+++ b/Finanzas/Febrero_2017.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="166">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -534,9 +534,6 @@
   </si>
   <si>
     <t>Chocolate; Prestamo a Uriel</t>
-  </si>
-  <si>
-    <t>Logan</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1278,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD598"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AU3" sqref="AU3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1564,7 +1563,7 @@
         <f>AS3*5</f>
         <v>0</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" s="40">
         <v>0</v>
       </c>
       <c r="AW3" s="64"/>
@@ -1812,7 +1811,7 @@
       </c>
       <c r="L6" s="54">
         <f>(SUM((Q11:Q500),(V3:V520)))-(SUM(E11:E500))</f>
-        <v>550</v>
+        <v>613.5</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -2773,7 +2772,7 @@
       </c>
       <c r="V14" s="43">
         <f t="shared" si="1"/>
-        <v>67.5</v>
+        <v>66.5</v>
       </c>
       <c r="W14" s="52">
         <v>125</v>
@@ -2781,7 +2780,7 @@
       <c r="X14" s="52"/>
       <c r="Z14" s="53">
         <f t="shared" si="0"/>
-        <v>57.5</v>
+        <v>58.5</v>
       </c>
       <c r="AA14">
         <v>40</v>
@@ -2824,7 +2823,7 @@
       </c>
       <c r="AN14">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -2847,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="AU14">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
@@ -3265,18 +3264,18 @@
       <c r="T18" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="U18" s="51" t="s">
-        <v>166</v>
-      </c>
+      <c r="U18" s="51"/>
       <c r="V18" s="87">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="52"/>
+        <v>64.5</v>
+      </c>
+      <c r="W18" s="52">
+        <v>75</v>
+      </c>
       <c r="X18" s="52"/>
       <c r="Z18" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -3310,7 +3309,7 @@
       </c>
       <c r="AN18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AR18">
         <f t="shared" si="4"/>
@@ -3319,6 +3318,9 @@
       <c r="AT18">
         <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>10.5</v>
       </c>
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.25">

--- a/Finanzas/Febrero_2017.xlsx
+++ b/Finanzas/Febrero_2017.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="181">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -572,6 +577,9 @@
   <si>
     <t>Dulceria Cine</t>
   </si>
+  <si>
+    <t>Pre cumple!</t>
+  </si>
 </sst>
 </file>
 
@@ -703,6 +711,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="Calibri"/>
@@ -710,9 +719,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="2" tint="-0.249977111117893"/>
+      <color theme="8" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -882,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1006,10 +1015,7 @@
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
@@ -1019,6 +1025,10 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="12" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1305,7 +1315,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1315,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD598"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ2" workbookViewId="0">
-      <selection activeCell="AR19" sqref="AR19"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,9 +1396,9 @@
       <c r="C2" s="58">
         <v>9702</v>
       </c>
-      <c r="D2" s="84">
+      <c r="D2" s="87">
         <f>L3-C2</f>
-        <v>-5358.4500000000007</v>
+        <v>-4458.4500000000007</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>2</v>
@@ -1512,7 +1522,7 @@
       </c>
       <c r="L3" s="27">
         <f>(SUM(C2,(E11:E500),(K11:K500)))-(SUM((D11:D500),(C11:C500)))</f>
-        <v>4343.5499999999993</v>
+        <v>5243.5499999999993</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -1626,7 +1636,7 @@
       </c>
       <c r="N4" s="5">
         <f>SUM(L3,L9)</f>
-        <v>28192.55</v>
+        <v>29092.55</v>
       </c>
       <c r="S4" s="49">
         <v>42783</v>
@@ -1821,7 +1831,7 @@
         <v>3</v>
       </c>
       <c r="AR5">
-        <f t="shared" ref="AR5:AR68" si="4">(AP5*6)+(AQ5*5)</f>
+        <f t="shared" ref="AR5:AR16" si="4">(AP5*6)+(AQ5*5)</f>
         <v>27</v>
       </c>
       <c r="AS5">
@@ -1848,7 +1858,7 @@
       </c>
       <c r="L6" s="54">
         <f>(SUM((Q11:Q500),(V3:V520)))-(SUM(E11:E500))</f>
-        <v>975</v>
+        <v>129.5</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -3075,7 +3085,7 @@
       <c r="Y16" t="s">
         <v>158</v>
       </c>
-      <c r="Z16" s="86">
+      <c r="Z16" s="85">
         <f t="shared" si="0"/>
         <v>125.5</v>
       </c>
@@ -3282,6 +3292,7 @@
         <v>17.11</v>
       </c>
       <c r="E18" s="14"/>
+      <c r="F18" s="40"/>
       <c r="G18" s="59"/>
       <c r="H18" s="59" t="s">
         <v>24</v>
@@ -3312,7 +3323,7 @@
       <c r="U18" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="V18" s="87">
+      <c r="V18" s="86">
         <f t="shared" si="1"/>
         <v>-15.5</v>
       </c>
@@ -3629,7 +3640,7 @@
         <v>4</v>
       </c>
       <c r="AR20">
-        <f t="shared" ref="AR18:AR81" si="6">(AP20*8)+(AQ20*5)</f>
+        <f t="shared" ref="AR20:AR81" si="6">(AP20*8)+(AQ20*5)</f>
         <v>20</v>
       </c>
       <c r="AS20">
@@ -3650,7 +3661,7 @@
       <c r="B21" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="12">
         <v>17.22</v>
       </c>
@@ -3679,17 +3690,29 @@
       <c r="S21" s="49">
         <v>42800</v>
       </c>
-      <c r="T21" s="50"/>
-      <c r="U21" s="51"/>
+      <c r="T21" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="U21" s="51" t="s">
+        <v>180</v>
+      </c>
       <c r="V21" s="43">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W21" s="52"/>
+        <v>54.5</v>
+      </c>
+      <c r="W21" s="52">
+        <v>125</v>
+      </c>
       <c r="X21" s="52"/>
       <c r="Z21" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70.5</v>
+      </c>
+      <c r="AA21">
+        <v>60</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>98</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -3723,7 +3746,7 @@
       </c>
       <c r="AN21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AQ21" s="40"/>
       <c r="AR21">
@@ -3733,6 +3756,9 @@
       <c r="AT21">
         <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>10.5</v>
       </c>
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.25">
@@ -3922,9 +3948,17 @@
       </c>
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A24" s="34">
+        <v>42800</v>
+      </c>
+      <c r="B24" t="s">
+        <v>147</v>
+      </c>
       <c r="C24" s="13"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="14"/>
+      <c r="E24" s="14">
+        <v>900</v>
+      </c>
       <c r="G24" s="69" t="s">
         <v>33</v>
       </c>
@@ -3992,7 +4026,7 @@
       <c r="AM24">
         <v>0</v>
       </c>
-      <c r="AN24">
+      <c r="AN24" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4353,7 +4387,7 @@
       <c r="H29" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="I29" s="85" t="s">
+      <c r="I29" s="84" t="s">
         <v>156</v>
       </c>
       <c r="J29" s="24">

--- a/Finanzas/Febrero_2017.xlsx
+++ b/Finanzas/Febrero_2017.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="188">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -594,6 +594,12 @@
   </si>
   <si>
     <t>AdriFest</t>
+  </si>
+  <si>
+    <t>Chabelambre</t>
+  </si>
+  <si>
+    <t>Jaime para Chabelambre</t>
   </si>
 </sst>
 </file>
@@ -1341,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE598"/>
+  <dimension ref="A1:BE964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AR22" sqref="AR22"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1759,7 +1765,7 @@
       </c>
       <c r="AZ4" s="64">
         <f>(SUM((AO3:AO520)))-(SUM((AS3:AS520)))</f>
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="BA4" s="64"/>
     </row>
@@ -1889,7 +1895,7 @@
       </c>
       <c r="L6" s="54">
         <f>(SUM((Q11:Q500),(V3:V520)))-(SUM(E11:E500))</f>
-        <v>579.5</v>
+        <v>565.5</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -3845,7 +3851,7 @@
         <v>2</v>
       </c>
       <c r="AS21">
-        <f>(AP21*6)+(AQ1*8)+(AR21*5)</f>
+        <f>(AP21*6)+(AQ21*8)+(AR21*5)</f>
         <v>22</v>
       </c>
       <c r="AT21">
@@ -3905,7 +3911,7 @@
       </c>
       <c r="V22" s="43">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="W22" s="52">
         <v>75</v>
@@ -3913,7 +3919,7 @@
       <c r="X22" s="89"/>
       <c r="Z22" s="53">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60.5</v>
       </c>
       <c r="AA22">
         <v>0</v>
@@ -3953,7 +3959,7 @@
       </c>
       <c r="AN22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AO22">
         <v>0</v>
@@ -3965,11 +3971,11 @@
         <v>0</v>
       </c>
       <c r="AR22" s="40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS22">
-        <f t="shared" ref="AS22:AS85" si="7">(AP22*8)+(AR22*5)</f>
-        <v>15</v>
+        <f t="shared" ref="AS22:AS85" si="7">(AP22*6)+(AQ22*8)+(AR22*5)</f>
+        <v>25</v>
       </c>
       <c r="AT22">
         <v>0</v>
@@ -3979,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="AV22">
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.25">
@@ -4020,20 +4026,40 @@
       <c r="S23" s="49">
         <v>42802</v>
       </c>
-      <c r="T23" s="50"/>
-      <c r="U23" s="51"/>
+      <c r="T23" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="U23" s="51" t="s">
+        <v>186</v>
+      </c>
       <c r="V23" s="43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
+        <v>-3.5</v>
+      </c>
+      <c r="W23" s="52">
+        <v>75</v>
+      </c>
+      <c r="X23" s="76">
+        <v>50</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>187</v>
+      </c>
       <c r="Z23" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>128.5</v>
+      </c>
+      <c r="AA23">
+        <v>110</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>149</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AE23">
         <v>0</v>
@@ -4064,7 +4090,7 @@
       </c>
       <c r="AN23">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AS23">
         <f t="shared" si="7"/>
@@ -4073,6 +4099,9 @@
       <c r="AU23">
         <f t="shared" si="4"/>
         <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.25">
@@ -8623,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="AS86">
-        <f t="shared" ref="AS86:AS149" si="13">(AP86*8)+(AR86*5)</f>
+        <f t="shared" ref="AS86:AS149" si="13">(AP86*6)+(AQ86*8)+(AR86*5)</f>
         <v>0</v>
       </c>
       <c r="AU86">
@@ -13103,7 +13132,7 @@
         <v>0</v>
       </c>
       <c r="AS150">
-        <f t="shared" ref="AS150:AS213" si="18">(AP150*8)+(AR150*5)</f>
+        <f t="shared" ref="AS150:AS213" si="18">(AP150*6)+(AQ150*8)+(AR150*5)</f>
         <v>0</v>
       </c>
       <c r="AU150">
@@ -17583,7 +17612,7 @@
         <v>0</v>
       </c>
       <c r="AS214">
-        <f t="shared" ref="AS214:AS277" si="23">(AP214*8)+(AR214*5)</f>
+        <f t="shared" ref="AS214:AS277" si="23">(AP214*6)+(AQ214*8)+(AR214*5)</f>
         <v>0</v>
       </c>
       <c r="AU214">
@@ -22063,7 +22092,7 @@
         <v>0</v>
       </c>
       <c r="AS278">
-        <f t="shared" ref="AS278:AS341" si="28">(AP278*8)+(AR278*5)</f>
+        <f t="shared" ref="AS278:AS341" si="28">(AP278*6)+(AQ278*8)+(AR278*5)</f>
         <v>0</v>
       </c>
       <c r="AU278">
@@ -26518,7 +26547,7 @@
         <v>0</v>
       </c>
       <c r="AS342">
-        <f t="shared" ref="AS342:AS405" si="33">(AP342*8)+(AR342*5)</f>
+        <f t="shared" ref="AS342:AS405" si="33">(AP342*6)+(AQ342*8)+(AR342*5)</f>
         <v>0</v>
       </c>
       <c r="AU342">
@@ -30846,7 +30875,7 @@
         <v>0</v>
       </c>
       <c r="AS406">
-        <f t="shared" ref="AS406:AS469" si="38">(AP406*8)+(AR406*5)</f>
+        <f t="shared" ref="AS406:AS469" si="38">(AP406*6)+(AQ406*8)+(AR406*5)</f>
         <v>0</v>
       </c>
       <c r="AU406">
@@ -34901,7 +34930,7 @@
         <v>0</v>
       </c>
       <c r="AS470">
-        <f t="shared" ref="AS470:AS533" si="43">(AP470*8)+(AR470*5)</f>
+        <f t="shared" ref="AS470:AS533" si="43">(AP470*6)+(AQ470*8)+(AR470*5)</f>
         <v>0</v>
       </c>
       <c r="AU470">
@@ -38504,7 +38533,7 @@
         <v>0</v>
       </c>
       <c r="AS534">
-        <f t="shared" ref="AS534:AS597" si="48">(AP534*8)+(AR534*5)</f>
+        <f t="shared" ref="AS534:AS597" si="48">(AP534*6)+(AQ534*8)+(AR534*5)</f>
         <v>0</v>
       </c>
       <c r="AU534">
@@ -40880,7 +40909,2203 @@
         <v>0</v>
       </c>
       <c r="AS598">
-        <f t="shared" ref="AS598" si="51">(AP598*8)+(AR598*5)</f>
+        <f t="shared" ref="AS598:AS661" si="51">(AP598*6)+(AQ598*8)+(AR598*5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="40:47" x14ac:dyDescent="0.25">
+      <c r="AS599">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="40:47" x14ac:dyDescent="0.25">
+      <c r="AS600">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="40:47" x14ac:dyDescent="0.25">
+      <c r="AS601">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="40:47" x14ac:dyDescent="0.25">
+      <c r="AS602">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="40:47" x14ac:dyDescent="0.25">
+      <c r="AS603">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="40:47" x14ac:dyDescent="0.25">
+      <c r="AS604">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="40:47" x14ac:dyDescent="0.25">
+      <c r="AS605">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="40:47" x14ac:dyDescent="0.25">
+      <c r="AS606">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="40:47" x14ac:dyDescent="0.25">
+      <c r="AS607">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="40:47" x14ac:dyDescent="0.25">
+      <c r="AS608">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS609">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS610">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS611">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS612">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS613">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS614">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS615">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS616">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS617">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS618">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS619">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS620">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS621">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS622">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS623">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS624">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS625">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS626">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS627">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS628">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS629">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS630">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS631">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS632">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS633">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS634">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS635">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS636">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS637">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS638">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS639">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS640">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS641">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS642">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS643">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS644">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS645">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS646">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS647">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS648">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS649">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS650">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS651">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS652">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS653">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS654">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS655">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS656">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS657">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS658">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS659">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS660">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS661">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS662">
+        <f t="shared" ref="AS662:AS725" si="52">(AP662*6)+(AQ662*8)+(AR662*5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS663">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS664">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS665">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS666">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS667">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS668">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS669">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS670">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS671">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS672">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS673">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS674">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS675">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS676">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS677">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS678">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS679">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS680">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS681">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS682">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS683">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS684">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS685">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS686">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS687">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS688">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS689">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS690">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS691">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS692">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS693">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS694">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS695">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS696">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS697">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS698">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS699">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS700">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS701">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS702">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS703">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS704">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS705">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS706">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS707">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS708">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS709">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS710">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS711">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS712">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS713">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS714">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS715">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS716">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS717">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS718">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS719">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS720">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS721">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS722">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS723">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS724">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS725">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS726">
+        <f t="shared" ref="AS726:AS789" si="53">(AP726*6)+(AQ726*8)+(AR726*5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS727">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS728">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS729">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS730">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS731">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS732">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS733">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS734">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS735">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS736">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS737">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS738">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS739">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS740">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS741">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS742">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS743">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS744">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS745">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS746">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS747">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS748">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS749">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS750">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS751">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS752">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS753">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS754">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS755">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS756">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS757">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS758">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS759">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS760">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS761">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS762">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS763">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS764">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS765">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS766">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS767">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS768">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS769">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS770">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS771">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS772">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS773">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS774">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS775">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS776">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS777">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS778">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS779">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS780">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS781">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS782">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS783">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS784">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS785">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS786">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS787">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS788">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS789">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS790">
+        <f t="shared" ref="AS790:AS853" si="54">(AP790*6)+(AQ790*8)+(AR790*5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS791">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS792">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS793">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS794">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS795">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS796">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS797">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS798">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS799">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS800">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS801">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS802">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS803">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS804">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS805">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS806">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS807">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS808">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS809">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS810">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS811">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS812">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS813">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS814">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS815">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS816">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS817">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS818">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS819">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS820">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS821">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS822">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS823">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS824">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS825">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS826">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS827">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS828">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS829">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS830">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS831">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS832">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS833">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS834">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS835">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS836">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS837">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS838">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS839">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS840">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS841">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS842">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS843">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS844">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS845">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS846">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS847">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS848">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS849">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS850">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS851">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS852">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS853">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS854">
+        <f t="shared" ref="AS854:AS917" si="55">(AP854*6)+(AQ854*8)+(AR854*5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS855">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS856">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS857">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS858">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS859">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS860">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS861">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS862">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS863">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS864">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS865">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS866">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS867">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS868">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS869">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS870">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS871">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS872">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS873">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS874">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS875">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS876">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS877">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS878">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS879">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS880">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS881">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS882">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS883">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS884">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS885">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS886">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS887">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS888">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS889">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS890">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS891">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS892">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS893">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS894">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS895">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS896">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS897">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS898">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS899">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS900">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS901">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS902">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS903">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS904">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS905">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS906">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS907">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS908">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS909">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS910">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS911">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS912">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS913">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS914">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS915">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS916">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS917">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS918">
+        <f t="shared" ref="AS918:AS964" si="56">(AP918*6)+(AQ918*8)+(AR918*5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS919">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS920">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS921">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS922">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS923">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS924">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS925">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS926">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS927">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS928">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS929">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS930">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS931">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS932">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS933">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS934">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS935">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS936">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS937">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS938">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS939">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS940">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS941">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS942">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS943">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS944">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS945">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS946">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="947" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS947">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS948">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS949">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS950">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS951">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS952">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS953">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS954">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="955" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS955">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS956">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="957" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS957">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS958">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="959" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS959">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="960" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS960">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="961" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS961">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS962">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="963" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS963">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="964" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS964">
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
     </row>

--- a/Finanzas/Febrero_2017.xlsx
+++ b/Finanzas/Febrero_2017.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="190">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -601,6 +601,12 @@
   <si>
     <t>Jaime para Chabelambre</t>
   </si>
+  <si>
+    <t>Ingles (6-9 mar)</t>
+  </si>
+  <si>
+    <t>Uber Javs aeropuerto</t>
+  </si>
 </sst>
 </file>
 
@@ -912,7 +918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1035,7 +1041,6 @@
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1349,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,7 +1382,7 @@
       <c r="C1" s="56">
         <v>42782</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="82" t="s">
         <v>147</v>
       </c>
       <c r="S1" s="46"/>
@@ -1421,9 +1426,9 @@
       <c r="C2" s="58">
         <v>9702</v>
       </c>
-      <c r="D2" s="87">
+      <c r="D2" s="86">
         <f>L3-C2</f>
-        <v>-4458.4500000000007</v>
+        <v>-4891.0200000000013</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>2</v>
@@ -1550,7 +1555,7 @@
       </c>
       <c r="L3" s="27">
         <f>(SUM(C2,(E11:E500),(K11:K500)))-(SUM((D11:D500),(C11:C500)))</f>
-        <v>5243.5499999999993</v>
+        <v>4810.9799999999987</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -1667,7 +1672,7 @@
       </c>
       <c r="N4" s="5">
         <f>SUM(L3,L9)</f>
-        <v>29072.55</v>
+        <v>28639.98</v>
       </c>
       <c r="S4" s="49">
         <v>42783</v>
@@ -1765,7 +1770,7 @@
       </c>
       <c r="AZ4" s="64">
         <f>(SUM((AO3:AO520)))-(SUM((AS3:AS520)))</f>
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="BA4" s="64"/>
     </row>
@@ -1895,7 +1900,7 @@
       </c>
       <c r="L6" s="54">
         <f>(SUM((Q11:Q500),(V3:V520)))-(SUM(E11:E500))</f>
-        <v>565.5</v>
+        <v>1000.5</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -3005,10 +3010,18 @@
         <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="39"/>
+      <c r="N15" s="60">
+        <v>42803</v>
+      </c>
+      <c r="O15" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="P15" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q15" s="39">
+        <v>400</v>
+      </c>
       <c r="S15" s="49">
         <v>42794</v>
       </c>
@@ -3116,7 +3129,7 @@
       <c r="D16" s="80">
         <v>169.93</v>
       </c>
-      <c r="E16" s="82"/>
+      <c r="E16" s="14"/>
       <c r="G16" s="59"/>
       <c r="H16" s="59" t="s">
         <v>24</v>
@@ -3160,7 +3173,7 @@
       <c r="Y16" t="s">
         <v>157</v>
       </c>
-      <c r="Z16" s="85">
+      <c r="Z16" s="84">
         <f t="shared" si="0"/>
         <v>125.5</v>
       </c>
@@ -3404,7 +3417,7 @@
       <c r="U18" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="V18" s="86">
+      <c r="V18" s="85">
         <f t="shared" si="3"/>
         <v>-15.5</v>
       </c>
@@ -3751,7 +3764,7 @@
       <c r="B21" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="88"/>
+      <c r="C21" s="87"/>
       <c r="D21" s="12">
         <v>17.22</v>
       </c>
@@ -3916,7 +3929,7 @@
       <c r="W22" s="52">
         <v>75</v>
       </c>
-      <c r="X22" s="89"/>
+      <c r="X22" s="88"/>
       <c r="Z22" s="53">
         <f t="shared" si="0"/>
         <v>60.5</v>
@@ -4034,9 +4047,9 @@
       </c>
       <c r="V23" s="43">
         <f t="shared" si="3"/>
-        <v>-3.5</v>
-      </c>
-      <c r="W23" s="52">
+        <v>-8.5</v>
+      </c>
+      <c r="W23" s="76">
         <v>75</v>
       </c>
       <c r="X23" s="76">
@@ -4047,7 +4060,7 @@
       </c>
       <c r="Z23" s="53">
         <f t="shared" si="0"/>
-        <v>128.5</v>
+        <v>133.5</v>
       </c>
       <c r="AA23">
         <v>110</v>
@@ -4090,10 +4103,25 @@
       </c>
       <c r="AN23">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>2</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>2</v>
       </c>
       <c r="AS23">
         <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="AT23">
         <v>0</v>
       </c>
       <c r="AU23">
@@ -4101,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="AV23">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.25">
@@ -4141,17 +4169,21 @@
       <c r="S24" s="49">
         <v>42803</v>
       </c>
-      <c r="T24" s="50"/>
+      <c r="T24" s="50" t="s">
+        <v>63</v>
+      </c>
       <c r="U24" s="51"/>
       <c r="V24" s="43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="52"/>
+        <v>40</v>
+      </c>
+      <c r="W24" s="52">
+        <v>75</v>
+      </c>
       <c r="X24" s="52"/>
       <c r="Z24" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -4185,20 +4217,46 @@
       </c>
       <c r="AN24" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AO24">
+        <v>30</v>
+      </c>
+      <c r="AP24">
+        <v>2</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>2</v>
       </c>
       <c r="AS24">
         <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="AT24">
         <v>0</v>
       </c>
       <c r="AU24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AV24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A25" s="34">
+        <v>42802</v>
+      </c>
+      <c r="B25" t="s">
+        <v>189</v>
+      </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="12">
+        <v>142.35</v>
+      </c>
       <c r="E25" s="14"/>
       <c r="G25" s="59" t="s">
         <v>30</v>
@@ -4283,8 +4341,16 @@
       </c>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A26" s="34">
+        <v>42802</v>
+      </c>
+      <c r="B26" t="s">
+        <v>151</v>
+      </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="12"/>
+      <c r="D26" s="12">
+        <v>160.88</v>
+      </c>
       <c r="E26" s="14"/>
       <c r="G26" s="59" t="s">
         <v>34</v>
@@ -4368,8 +4434,16 @@
       </c>
     </row>
     <row r="27" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A27" s="34">
+        <v>42802</v>
+      </c>
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="12">
+        <v>129.34</v>
+      </c>
       <c r="E27" s="14"/>
       <c r="G27" s="59" t="s">
         <v>93</v>
@@ -4544,7 +4618,7 @@
       <c r="H29" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="I29" s="84" t="s">
+      <c r="I29" s="83" t="s">
         <v>155</v>
       </c>
       <c r="J29" s="24">

--- a/Finanzas/Febrero_2017.xlsx
+++ b/Finanzas/Febrero_2017.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="193">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -607,6 +607,15 @@
   <si>
     <t>Uber Javs aeropuerto</t>
   </si>
+  <si>
+    <t>Perro Negro</t>
+  </si>
+  <si>
+    <t>Marco café</t>
+  </si>
+  <si>
+    <t>Maíz</t>
+  </si>
 </sst>
 </file>
 
@@ -918,7 +927,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1058,6 +1067,7 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1355,7 +1365,7 @@
   <dimension ref="A1:BE964"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,7 +1780,7 @@
       </c>
       <c r="AZ4" s="64">
         <f>(SUM((AO3:AO520)))-(SUM((AS3:AS520)))</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BA4" s="64"/>
     </row>
@@ -1900,7 +1910,7 @@
       </c>
       <c r="L6" s="54">
         <f>(SUM((Q11:Q500),(V3:V520)))-(SUM(E11:E500))</f>
-        <v>1000.5</v>
+        <v>985</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -4172,10 +4182,12 @@
       <c r="T24" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="U24" s="51"/>
+      <c r="U24" s="51" t="s">
+        <v>191</v>
+      </c>
       <c r="V24" s="43">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>-30</v>
       </c>
       <c r="W24" s="52">
         <v>75</v>
@@ -4183,12 +4195,18 @@
       <c r="X24" s="52"/>
       <c r="Z24" s="53">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>105</v>
+      </c>
+      <c r="AA24">
+        <v>70</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>120</v>
       </c>
       <c r="AD24">
         <v>0</v>
       </c>
-      <c r="AE24">
+      <c r="AE24" s="40">
         <v>0</v>
       </c>
       <c r="AF24">
@@ -4229,11 +4247,11 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS24">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AT24">
         <v>0</v>
@@ -4258,7 +4276,7 @@
         <v>142.35</v>
       </c>
       <c r="E25" s="14"/>
-      <c r="G25" s="59" t="s">
+      <c r="G25" s="89" t="s">
         <v>30</v>
       </c>
       <c r="H25" s="59" t="s">
@@ -4285,20 +4303,29 @@
       <c r="S25" s="49">
         <v>42804</v>
       </c>
-      <c r="T25" s="50"/>
-      <c r="U25" s="51"/>
+      <c r="T25" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="U25" s="51" t="s">
+        <v>190</v>
+      </c>
       <c r="V25" s="43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="52"/>
+        <v>54.5</v>
+      </c>
+      <c r="W25" s="52">
+        <v>75</v>
+      </c>
       <c r="X25" s="52"/>
       <c r="Z25" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20.5</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>192</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE25">
         <v>0</v>
@@ -4329,6 +4356,15 @@
       </c>
       <c r="AN25">
         <f t="shared" si="6"/>
+        <v>10.5</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="40">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
         <v>0</v>
       </c>
       <c r="AS25">
@@ -4338,6 +4374,9 @@
       <c r="AU25">
         <f t="shared" si="4"/>
         <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>10.5</v>
       </c>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.25">

--- a/Finanzas/Febrero_2017.xlsx
+++ b/Finanzas/Febrero_2017.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="209">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -615,6 +610,54 @@
   </si>
   <si>
     <t>Maíz</t>
+  </si>
+  <si>
+    <t>ADRI FEST</t>
+  </si>
+  <si>
+    <t>Enana y papá cooperaron</t>
+  </si>
+  <si>
+    <t>Perro negro</t>
+  </si>
+  <si>
+    <t>Enigma Enana; Karaoke x2 +30 enana; Alambre noche; Coca enana; Karaoke Brandon</t>
+  </si>
+  <si>
+    <t>??????</t>
+  </si>
+  <si>
+    <t>Helados Nutrisa</t>
+  </si>
+  <si>
+    <t>Uber Fallido</t>
+  </si>
+  <si>
+    <t>Descanso</t>
+  </si>
+  <si>
+    <t>Papá Uber</t>
+  </si>
+  <si>
+    <t>Mike Herrera</t>
+  </si>
+  <si>
+    <t>Pastel Carlos</t>
+  </si>
+  <si>
+    <t>Niño</t>
+  </si>
+  <si>
+    <t>Pastel Carlos cooperacha</t>
+  </si>
+  <si>
+    <t>Cine Pedro Ale</t>
+  </si>
+  <si>
+    <t>Copias; Chocolate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ,</t>
   </si>
 </sst>
 </file>
@@ -1354,7 +1397,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1364,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE964"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,6 +1438,7 @@
       <c r="D1" s="82" t="s">
         <v>147</v>
       </c>
+      <c r="P1" s="78"/>
       <c r="S1" s="46"/>
       <c r="T1" s="46"/>
       <c r="U1" s="46"/>
@@ -1438,7 +1482,7 @@
       </c>
       <c r="D2" s="86">
         <f>L3-C2</f>
-        <v>-4891.0200000000013</v>
+        <v>-5802.6900000000005</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>2</v>
@@ -1565,7 +1609,7 @@
       </c>
       <c r="L3" s="27">
         <f>(SUM(C2,(E11:E500),(K11:K500)))-(SUM((D11:D500),(C11:C500)))</f>
-        <v>4810.9799999999987</v>
+        <v>3899.3099999999995</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -1682,7 +1726,7 @@
       </c>
       <c r="N4" s="5">
         <f>SUM(L3,L9)</f>
-        <v>28639.98</v>
+        <v>27728.309999999998</v>
       </c>
       <c r="S4" s="49">
         <v>42783</v>
@@ -1780,7 +1824,7 @@
       </c>
       <c r="AZ4" s="64">
         <f>(SUM((AO3:AO520)))-(SUM((AS3:AS520)))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA4" s="64"/>
     </row>
@@ -1910,7 +1954,7 @@
       </c>
       <c r="L6" s="54">
         <f>(SUM((Q11:Q500),(V3:V520)))-(SUM(E11:E500))</f>
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -2471,6 +2515,7 @@
       <c r="B11" t="s">
         <v>53</v>
       </c>
+      <c r="C11" s="40"/>
       <c r="D11" s="12">
         <v>4390</v>
       </c>
@@ -4311,7 +4356,7 @@
       </c>
       <c r="V25" s="43">
         <f t="shared" si="3"/>
-        <v>54.5</v>
+        <v>-245.5</v>
       </c>
       <c r="W25" s="52">
         <v>75</v>
@@ -4319,7 +4364,13 @@
       <c r="X25" s="52"/>
       <c r="Z25" s="53">
         <f t="shared" si="0"/>
-        <v>20.5</v>
+        <v>320.5</v>
+      </c>
+      <c r="AA25">
+        <v>250</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>190</v>
       </c>
       <c r="AC25" t="s">
         <v>192</v>
@@ -4356,19 +4407,25 @@
       </c>
       <c r="AN25">
         <f t="shared" si="6"/>
-        <v>10.5</v>
+        <v>60.5</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AP25" s="40">
         <v>0</v>
       </c>
       <c r="AQ25">
         <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>2</v>
       </c>
       <c r="AS25">
         <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AT25">
         <v>0</v>
       </c>
       <c r="AU25">
@@ -4376,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="AV25">
-        <v>10.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.25">
@@ -4417,32 +4474,52 @@
       <c r="S26" s="49">
         <v>42805</v>
       </c>
-      <c r="T26" s="50"/>
-      <c r="U26" s="51"/>
+      <c r="T26" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="U26" s="51" t="s">
+        <v>193</v>
+      </c>
       <c r="V26" s="43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
+        <v>-190</v>
+      </c>
+      <c r="W26" s="52">
+        <v>300</v>
+      </c>
+      <c r="X26" s="52">
+        <v>500</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>194</v>
+      </c>
       <c r="Z26" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>990</v>
+      </c>
+      <c r="AA26">
+        <v>200</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>196</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AI26">
         <v>0</v>
@@ -4463,12 +4540,30 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>4</v>
+      </c>
       <c r="AS26">
         <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="AT26">
         <v>0</v>
       </c>
       <c r="AU26">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AV26">
         <v>0</v>
       </c>
     </row>
@@ -4509,18 +4604,33 @@
       <c r="S27" s="49">
         <v>42806</v>
       </c>
-      <c r="T27" s="50"/>
-      <c r="U27" s="51"/>
+      <c r="T27" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="U27" s="51" t="s">
+        <v>200</v>
+      </c>
       <c r="V27" s="43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W27" s="52"/>
+        <v>50</v>
+      </c>
+      <c r="W27" s="52">
+        <v>50</v>
+      </c>
       <c r="X27" s="52"/>
+      <c r="Y27" t="s">
+        <v>201</v>
+      </c>
       <c r="Z27" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>145</v>
+      </c>
       <c r="AD27">
         <v>0</v>
       </c>
@@ -4555,18 +4665,41 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
       <c r="AS27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
       <c r="AU27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A28" s="34">
+        <v>42804</v>
+      </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="12">
+        <v>161.15</v>
+      </c>
       <c r="E28" s="14"/>
       <c r="G28" s="60">
         <v>42789</v>
@@ -4587,28 +4720,47 @@
       </c>
       <c r="N28" s="59"/>
       <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
+      <c r="P28" s="59" t="s">
+        <v>208</v>
+      </c>
       <c r="Q28" s="39"/>
       <c r="S28" s="49">
         <v>42807</v>
       </c>
-      <c r="T28" s="50"/>
-      <c r="U28" s="51"/>
+      <c r="T28" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="U28" s="51" t="s">
+        <v>202</v>
+      </c>
       <c r="V28" s="43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
+        <v>347.5</v>
+      </c>
+      <c r="W28" s="52">
+        <v>175</v>
+      </c>
+      <c r="X28" s="52">
+        <v>220</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>205</v>
+      </c>
       <c r="Z28" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>47.5</v>
+      </c>
+      <c r="AA28" s="40">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>207</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -4636,20 +4788,46 @@
       </c>
       <c r="AN28">
         <f t="shared" si="6"/>
+        <v>35.5</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>2</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
         <v>0</v>
       </c>
       <c r="AS28">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AT28">
+        <v>4</v>
       </c>
       <c r="AU28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="AV28">
+        <v>15.5</v>
       </c>
     </row>
     <row r="29" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A29" s="34">
+        <v>42804</v>
+      </c>
+      <c r="B29" t="s">
+        <v>197</v>
+      </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="12"/>
+      <c r="D29" s="12">
+        <v>142.72999999999999</v>
+      </c>
       <c r="E29" s="14"/>
       <c r="G29" s="60">
         <v>42794</v>
@@ -4675,17 +4853,28 @@
       <c r="S29" s="49">
         <v>42808</v>
       </c>
-      <c r="T29" s="50"/>
-      <c r="U29" s="51"/>
+      <c r="T29" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="U29" s="51" t="s">
+        <v>206</v>
+      </c>
       <c r="V29" s="43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
+        <v>84.5</v>
+      </c>
+      <c r="W29" s="52">
+        <v>75</v>
+      </c>
+      <c r="X29" s="52">
+        <v>20</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>204</v>
+      </c>
       <c r="Z29" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -4719,7 +4908,7 @@
       </c>
       <c r="AN29">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AS29">
         <f t="shared" si="7"/>
@@ -4729,10 +4918,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AV29">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="30" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A30" s="34">
+        <v>42805</v>
+      </c>
+      <c r="B30" t="s">
+        <v>198</v>
+      </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="12">
+        <v>201</v>
+      </c>
       <c r="E30" s="14"/>
       <c r="G30" s="60">
         <v>42795</v>
@@ -4761,7 +4961,7 @@
       </c>
       <c r="T30" s="50"/>
       <c r="U30" s="51"/>
-      <c r="V30" s="43">
+      <c r="V30" s="85">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4816,8 +5016,16 @@
       </c>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A31" s="34">
+        <v>42805</v>
+      </c>
+      <c r="B31" t="s">
+        <v>199</v>
+      </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="12">
+        <v>52.79</v>
+      </c>
       <c r="E31" s="14"/>
       <c r="G31" s="59"/>
       <c r="H31" s="59"/>
@@ -4891,8 +5099,16 @@
       </c>
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A32" s="34">
+        <v>42807</v>
+      </c>
+      <c r="B32" t="s">
+        <v>203</v>
+      </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="12">
+        <v>354</v>
+      </c>
       <c r="E32" s="14"/>
       <c r="G32" s="59"/>
       <c r="H32" s="59"/>

--- a/Finanzas/Febrero_2017.xlsx
+++ b/Finanzas/Febrero_2017.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="213">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -658,6 +663,18 @@
   </si>
   <si>
     <t xml:space="preserve"> ,</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Palomitas; Boleto</t>
+  </si>
+  <si>
+    <t>Examen Manu</t>
+  </si>
+  <si>
+    <t>Yogurt; Granos</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1414,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1407,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AR30" sqref="AR30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1824,7 +1841,7 @@
       </c>
       <c r="AZ4" s="64">
         <f>(SUM((AO3:AO520)))-(SUM((AS3:AS520)))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="64"/>
     </row>
@@ -1954,7 +1971,7 @@
       </c>
       <c r="L6" s="54">
         <f>(SUM((Q11:Q500),(V3:V520)))-(SUM(E11:E500))</f>
-        <v>977</v>
+        <v>773.5</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -4861,7 +4878,7 @@
       </c>
       <c r="V29" s="43">
         <f t="shared" si="3"/>
-        <v>84.5</v>
+        <v>-93.5</v>
       </c>
       <c r="W29" s="52">
         <v>75</v>
@@ -4874,13 +4891,22 @@
       </c>
       <c r="Z29" s="53">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>188.5</v>
+      </c>
+      <c r="AA29">
+        <v>50</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>210</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -4908,10 +4934,25 @@
       </c>
       <c r="AN29">
         <f t="shared" si="6"/>
-        <v>10.5</v>
+        <v>15.5</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>1</v>
       </c>
       <c r="AS29">
         <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AT29">
         <v>0</v>
       </c>
       <c r="AU29">
@@ -4919,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AV29">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="30" spans="1:57" x14ac:dyDescent="0.25">
@@ -4959,23 +5000,38 @@
       <c r="S30" s="49">
         <v>42809</v>
       </c>
-      <c r="T30" s="50"/>
-      <c r="U30" s="51"/>
+      <c r="T30" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="U30" s="51" t="s">
+        <v>211</v>
+      </c>
       <c r="V30" s="85">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W30" s="52"/>
+        <v>-25.5</v>
+      </c>
+      <c r="W30" s="52">
+        <v>75</v>
+      </c>
       <c r="X30" s="52"/>
       <c r="Z30" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100.5</v>
+      </c>
+      <c r="AA30">
+        <v>70</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>212</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -5003,16 +5059,33 @@
       </c>
       <c r="AN30">
         <f t="shared" si="6"/>
+        <v>10.5</v>
+      </c>
+      <c r="AO30" s="40">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="40">
         <v>0</v>
       </c>
       <c r="AS30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT30" s="40"/>
+      <c r="AT30" s="40">
+        <v>0</v>
+      </c>
       <c r="AU30">
         <f t="shared" si="4"/>
         <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>10.5</v>
       </c>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.25">

--- a/Finanzas/Febrero_2017.xlsx
+++ b/Finanzas/Febrero_2017.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="215">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -676,6 +676,12 @@
   <si>
     <t>Yogurt; Granos</t>
   </si>
+  <si>
+    <t>Juev</t>
+  </si>
+  <si>
+    <t>Edgar Zapata</t>
+  </si>
 </sst>
 </file>
 
@@ -987,7 +993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1128,6 +1134,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1424,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AR30" sqref="AR30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1971,7 +1978,7 @@
       </c>
       <c r="L6" s="54">
         <f>(SUM((Q11:Q500),(V3:V520)))-(SUM(E11:E500))</f>
-        <v>773.5</v>
+        <v>838</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -5089,7 +5096,7 @@
       </c>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A31" s="34">
+      <c r="A31" s="90">
         <v>42805</v>
       </c>
       <c r="B31" t="s">
@@ -5116,17 +5123,23 @@
       <c r="S31" s="49">
         <v>42810</v>
       </c>
-      <c r="T31" s="50"/>
-      <c r="U31" s="51"/>
+      <c r="T31" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="U31" s="51" t="s">
+        <v>214</v>
+      </c>
       <c r="V31" s="43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W31" s="52"/>
+        <v>64.5</v>
+      </c>
+      <c r="W31" s="52">
+        <v>75</v>
+      </c>
       <c r="X31" s="52"/>
       <c r="Z31" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -5160,7 +5173,7 @@
       </c>
       <c r="AN31">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AS31">
         <f t="shared" si="7"/>
@@ -5169,6 +5182,9 @@
       <c r="AU31">
         <f t="shared" si="4"/>
         <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>10.5</v>
       </c>
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.25">

--- a/Finanzas/Febrero_2017.xlsx
+++ b/Finanzas/Febrero_2017.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="227">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -614,9 +614,6 @@
     <t>Marco café</t>
   </si>
   <si>
-    <t>Maíz</t>
-  </si>
-  <si>
     <t>ADRI FEST</t>
   </si>
   <si>
@@ -624,9 +621,6 @@
   </si>
   <si>
     <t>Perro negro</t>
-  </si>
-  <si>
-    <t>Enigma Enana; Karaoke x2 +30 enana; Alambre noche; Coca enana; Karaoke Brandon</t>
   </si>
   <si>
     <t>??????</t>
@@ -682,12 +676,54 @@
   <si>
     <t>Edgar Zapata</t>
   </si>
+  <si>
+    <t>Jaime pago China</t>
+  </si>
+  <si>
+    <t>Fiesta Manu</t>
+  </si>
+  <si>
+    <t>Puente</t>
+  </si>
+  <si>
+    <t>Mariscos</t>
+  </si>
+  <si>
+    <t>CARNES :$</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>Hooters Juancho</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yogurth </t>
+  </si>
+  <si>
+    <t>Coca</t>
+  </si>
+  <si>
+    <t>Mariscos (62)</t>
+  </si>
+  <si>
+    <t>Taxi; Starbucks (128)</t>
+  </si>
+  <si>
+    <t>Enigma Enana; Karaoke x2 +30 enana; Alambre noche; Coca enana (25); Karaoke Brandon</t>
+  </si>
+  <si>
+    <t>Maíz; Coca (No registrada)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -824,6 +860,14 @@
       <u/>
       <sz val="11"/>
       <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -993,7 +1037,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1135,6 +1179,8 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1432,7 +1478,7 @@
   <dimension ref="A1:BE964"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,7 +1894,7 @@
       </c>
       <c r="AZ4" s="64">
         <f>(SUM((AO3:AO520)))-(SUM((AS3:AS520)))</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BA4" s="64"/>
     </row>
@@ -1978,7 +2024,7 @@
       </c>
       <c r="L6" s="54">
         <f>(SUM((Q11:Q500),(V3:V520)))-(SUM(E11:E500))</f>
-        <v>838</v>
+        <v>319.5</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -4380,7 +4426,7 @@
       </c>
       <c r="V25" s="43">
         <f t="shared" si="3"/>
-        <v>-245.5</v>
+        <v>-257.5</v>
       </c>
       <c r="W25" s="52">
         <v>75</v>
@@ -4388,7 +4434,7 @@
       <c r="X25" s="52"/>
       <c r="Z25" s="53">
         <f t="shared" si="0"/>
-        <v>320.5</v>
+        <v>332.5</v>
       </c>
       <c r="AA25">
         <v>250</v>
@@ -4397,13 +4443,13 @@
         <v>190</v>
       </c>
       <c r="AC25" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="AD25">
         <v>10</v>
       </c>
-      <c r="AE25">
-        <v>0</v>
+      <c r="AE25" s="91">
+        <v>12</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -4502,11 +4548,11 @@
         <v>100</v>
       </c>
       <c r="U26" s="51" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V26" s="43">
         <f t="shared" si="3"/>
-        <v>-190</v>
+        <v>-200</v>
       </c>
       <c r="W26" s="52">
         <v>300</v>
@@ -4515,20 +4561,20 @@
         <v>500</v>
       </c>
       <c r="Y26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Z26" s="53">
         <f t="shared" si="0"/>
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AA26">
         <v>200</v>
       </c>
       <c r="AB26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AC26" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="AD26">
         <v>250</v>
@@ -4539,8 +4585,8 @@
       <c r="AF26">
         <v>100</v>
       </c>
-      <c r="AG26">
-        <v>20</v>
+      <c r="AG26" s="12">
+        <v>30</v>
       </c>
       <c r="AH26">
         <v>130</v>
@@ -4632,7 +4678,7 @@
         <v>108</v>
       </c>
       <c r="U27" s="51" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V27" s="43">
         <f t="shared" si="3"/>
@@ -4643,7 +4689,7 @@
       </c>
       <c r="X27" s="52"/>
       <c r="Y27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Z27" s="53">
         <f t="shared" si="0"/>
@@ -4745,7 +4791,7 @@
       <c r="N28" s="59"/>
       <c r="O28" s="59"/>
       <c r="P28" s="59" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q28" s="39"/>
       <c r="S28" s="49">
@@ -4755,7 +4801,7 @@
         <v>109</v>
       </c>
       <c r="U28" s="51" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="V28" s="43">
         <f t="shared" si="3"/>
@@ -4768,7 +4814,7 @@
         <v>220</v>
       </c>
       <c r="Y28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Z28" s="53">
         <f t="shared" si="0"/>
@@ -4778,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="AC28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AD28">
         <v>6</v>
@@ -4846,7 +4892,7 @@
         <v>42804</v>
       </c>
       <c r="B29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="12">
@@ -4881,7 +4927,7 @@
         <v>115</v>
       </c>
       <c r="U29" s="51" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="V29" s="43">
         <f t="shared" si="3"/>
@@ -4894,7 +4940,7 @@
         <v>20</v>
       </c>
       <c r="Y29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Z29" s="53">
         <f t="shared" si="0"/>
@@ -4904,10 +4950,10 @@
         <v>50</v>
       </c>
       <c r="AB29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AC29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AD29">
         <v>43</v>
@@ -4975,7 +5021,7 @@
         <v>42805</v>
       </c>
       <c r="B30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="12">
@@ -5011,7 +5057,7 @@
         <v>122</v>
       </c>
       <c r="U30" s="51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="V30" s="85">
         <f t="shared" si="3"/>
@@ -5032,7 +5078,7 @@
         <v>120</v>
       </c>
       <c r="AC30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AD30">
         <v>10</v>
@@ -5100,7 +5146,7 @@
         <v>42805</v>
       </c>
       <c r="B31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="12">
@@ -5124,14 +5170,14 @@
         <v>42810</v>
       </c>
       <c r="T31" s="50" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="U31" s="51" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="V31" s="43">
         <f t="shared" si="3"/>
-        <v>64.5</v>
+        <v>-149.5</v>
       </c>
       <c r="W31" s="52">
         <v>75</v>
@@ -5139,13 +5185,22 @@
       <c r="X31" s="52"/>
       <c r="Z31" s="53">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>224.5</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>224</v>
       </c>
       <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="AE31" s="12">
+        <v>130</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -5173,10 +5228,25 @@
       </c>
       <c r="AN31">
         <f t="shared" si="6"/>
-        <v>10.5</v>
+        <v>34.5</v>
+      </c>
+      <c r="AO31" s="92">
+        <v>20</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>1</v>
       </c>
       <c r="AS31">
         <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AT31">
         <v>0</v>
       </c>
       <c r="AU31">
@@ -5184,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="AV31">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.25">
@@ -5192,7 +5262,7 @@
         <v>42807</v>
       </c>
       <c r="B32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="12">
@@ -5215,17 +5285,29 @@
       <c r="S32" s="49">
         <v>42811</v>
       </c>
-      <c r="T32" s="50"/>
-      <c r="U32" s="51"/>
+      <c r="T32" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="U32" s="51" t="s">
+        <v>214</v>
+      </c>
       <c r="V32" s="43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W32" s="52"/>
+        <v>-410.5</v>
+      </c>
+      <c r="W32" s="52">
+        <v>75</v>
+      </c>
       <c r="X32" s="52"/>
       <c r="Z32" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>485.5</v>
+      </c>
+      <c r="AA32">
+        <v>450</v>
+      </c>
+      <c r="AB32" s="40" t="s">
+        <v>217</v>
       </c>
       <c r="AD32">
         <v>0</v>
@@ -5259,18 +5341,36 @@
       </c>
       <c r="AN32">
         <f t="shared" si="6"/>
+        <v>35.5</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>2</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
         <v>0</v>
       </c>
       <c r="AS32">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AT32" s="12">
+        <v>1</v>
       </c>
       <c r="AU32">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:47" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="AV32">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C33" s="13"/>
       <c r="D33" s="12"/>
       <c r="E33" s="14"/>
@@ -5287,20 +5387,35 @@
       <c r="S33" s="49">
         <v>42812</v>
       </c>
-      <c r="T33" s="50"/>
-      <c r="U33" s="51"/>
+      <c r="T33" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="U33" s="51" t="s">
+        <v>216</v>
+      </c>
       <c r="V33" s="43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W33" s="52"/>
+        <v>6</v>
+      </c>
+      <c r="W33" s="52">
+        <v>120</v>
+      </c>
       <c r="X33" s="52"/>
       <c r="Z33" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>114</v>
+      </c>
+      <c r="AA33" s="91">
+        <v>82</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>222</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE33">
         <v>0</v>
@@ -5331,18 +5446,36 @@
       </c>
       <c r="AN33">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="AO33">
+        <v>20</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>3</v>
       </c>
       <c r="AS33">
         <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="AT33">
         <v>0</v>
       </c>
       <c r="AU33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="AV33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C34" s="13"/>
       <c r="D34" s="12"/>
       <c r="E34" s="14"/>
@@ -5359,18 +5492,30 @@
       <c r="S34" s="49">
         <v>42813</v>
       </c>
-      <c r="T34" s="50"/>
-      <c r="U34" s="51"/>
+      <c r="T34" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="U34" s="51" t="s">
+        <v>198</v>
+      </c>
       <c r="V34" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W34" s="52"/>
+      <c r="W34" s="52">
+        <v>0</v>
+      </c>
       <c r="X34" s="52"/>
       <c r="Z34" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>145</v>
+      </c>
       <c r="AD34">
         <v>0</v>
       </c>
@@ -5405,16 +5550,34 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
       <c r="AS34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
       <c r="AU34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="AV34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C35" s="13"/>
       <c r="D35" s="12"/>
       <c r="E35" s="14"/>
@@ -5431,20 +5594,35 @@
       <c r="S35" s="49">
         <v>42814</v>
       </c>
-      <c r="T35" s="50"/>
-      <c r="U35" s="51"/>
+      <c r="T35" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="U35" s="51" t="s">
+        <v>215</v>
+      </c>
       <c r="V35" s="43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W35" s="52"/>
+        <v>39</v>
+      </c>
+      <c r="W35" s="52">
+        <v>100</v>
+      </c>
       <c r="X35" s="52"/>
       <c r="Z35" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>220</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE35">
         <v>0</v>
@@ -5475,18 +5653,36 @@
       </c>
       <c r="AN35">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="AO35">
+        <v>40</v>
+      </c>
+      <c r="AP35">
+        <v>2</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>2</v>
       </c>
       <c r="AS35">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="AT35">
+        <v>2</v>
       </c>
       <c r="AU35">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:47" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C36" s="13"/>
       <c r="D36" s="12"/>
       <c r="E36" s="14"/>
@@ -5503,20 +5699,37 @@
       <c r="S36" s="49">
         <v>42815</v>
       </c>
-      <c r="T36" s="50"/>
-      <c r="U36" s="51"/>
+      <c r="T36" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="U36" s="51" t="s">
+        <v>219</v>
+      </c>
       <c r="V36" s="43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W36" s="52"/>
-      <c r="X36" s="52"/>
+        <v>83</v>
+      </c>
+      <c r="W36" s="52">
+        <v>75</v>
+      </c>
+      <c r="X36" s="52">
+        <v>80</v>
+      </c>
       <c r="Z36" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="AA36">
+        <v>60</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>221</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE36">
         <v>0</v>
@@ -5558,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C37" s="13"/>
       <c r="D37" s="12"/>
       <c r="E37" s="14"/>
@@ -5630,7 +5843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C38" s="13"/>
       <c r="D38" s="12"/>
       <c r="E38" s="14"/>
@@ -5702,7 +5915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
       <c r="E39" s="14"/>
@@ -5774,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
       <c r="E40" s="14"/>
@@ -5846,7 +6059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
       <c r="E41" s="14"/>
@@ -5918,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
       <c r="E42" s="14"/>
@@ -5990,7 +6203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
       <c r="E43" s="14"/>
@@ -6062,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
       <c r="E44" s="14"/>
@@ -6134,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C45" s="13"/>
       <c r="D45" s="12"/>
       <c r="E45" s="14"/>
@@ -6206,7 +6419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C46" s="13"/>
       <c r="D46" s="12"/>
       <c r="E46" s="14"/>
@@ -6278,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C47" s="13"/>
       <c r="D47" s="12"/>
       <c r="E47" s="14"/>
@@ -6348,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:48" x14ac:dyDescent="0.25">
       <c r="C48" s="13"/>
       <c r="D48" s="12"/>
       <c r="E48" s="14"/>

--- a/Finanzas/Febrero_2017.xlsx
+++ b/Finanzas/Febrero_2017.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="230">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -339,9 +339,6 @@
   </si>
   <si>
     <t>Efectivo 50</t>
-  </si>
-  <si>
-    <t>Ajuste de dinero no contado para que coincida con el efectivo en mi cartera</t>
   </si>
   <si>
     <t>Fui con Jaime a comer bistecates y a jugar videojuegos</t>
@@ -689,9 +686,6 @@
     <t>Mariscos</t>
   </si>
   <si>
-    <t>CARNES :$</t>
-  </si>
-  <si>
     <t>Martes</t>
   </si>
   <si>
@@ -701,29 +695,44 @@
     <t>Arizona</t>
   </si>
   <si>
-    <t xml:space="preserve">Yogurth </t>
-  </si>
-  <si>
     <t>Coca</t>
   </si>
   <si>
-    <t>Mariscos (62)</t>
+    <t>Maíz; Coca (No registrada)</t>
   </si>
   <si>
-    <t>Taxi; Starbucks (128)</t>
+    <t>Yogurth ; Prestamo Enana</t>
   </si>
   <si>
-    <t>Enigma Enana; Karaoke x2 +30 enana; Alambre noche; Coca enana (25); Karaoke Brandon</t>
+    <t>PAPIIT termino</t>
   </si>
   <si>
-    <t>Maíz; Coca (No registrada)</t>
+    <t xml:space="preserve">Mariscos </t>
+  </si>
+  <si>
+    <t>Enigma Enana; Karaoke x2 +30 enana; Alambre noche; Coca enana; Karaoke Brandon</t>
+  </si>
+  <si>
+    <t>Taxi; Starbucks</t>
+  </si>
+  <si>
+    <t>CARNES :3</t>
+  </si>
+  <si>
+    <t>Cooperacha café</t>
+  </si>
+  <si>
+    <t>Mamá para cortar cabello</t>
+  </si>
+  <si>
+    <t>Javs Invita Cumple</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -860,14 +869,6 @@
       <u/>
       <sz val="11"/>
       <color theme="8" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1037,7 +1038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1179,7 +1180,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1506,7 +1506,7 @@
         <v>42782</v>
       </c>
       <c r="D1" s="82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P1" s="78"/>
       <c r="S1" s="46"/>
@@ -1641,10 +1641,10 @@
         <v>84</v>
       </c>
       <c r="AP2" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ2" s="62" t="s">
         <v>181</v>
-      </c>
-      <c r="AQ2" s="62" t="s">
-        <v>182</v>
       </c>
       <c r="AR2" s="62" t="s">
         <v>92</v>
@@ -1656,7 +1656,7 @@
         <v>86</v>
       </c>
       <c r="AU2" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AV2" s="62" t="s">
         <v>87</v>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="N4" s="5">
         <f>SUM(L3,L9)</f>
-        <v>27728.309999999998</v>
+        <v>27878.309999999998</v>
       </c>
       <c r="S4" s="49">
         <v>42783</v>
@@ -1805,7 +1805,7 @@
         <v>83</v>
       </c>
       <c r="U4" s="51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V4" s="43">
         <f t="shared" ref="V4:V67" si="3">(SUM(W4,X4))-Z4</f>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="AZ4" s="64">
         <f>(SUM((AO3:AO520)))-(SUM((AS3:AS520)))</f>
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="BA4" s="64"/>
     </row>
@@ -1922,11 +1922,11 @@
         <v>100</v>
       </c>
       <c r="U5" s="51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V5" s="43">
         <f t="shared" si="3"/>
-        <v>332.5</v>
+        <v>300</v>
       </c>
       <c r="W5" s="52">
         <v>120</v>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="Z5" s="53">
         <f t="shared" si="0"/>
-        <v>-12.5</v>
+        <v>20</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1947,12 +1947,8 @@
       <c r="AB5" t="s">
         <v>101</v>
       </c>
-      <c r="AC5" s="69" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD5" s="69">
-        <v>-32.5</v>
-      </c>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59"/>
       <c r="AE5">
         <v>0</v>
       </c>
@@ -2024,7 +2020,7 @@
       </c>
       <c r="L6" s="54">
         <f>(SUM((Q11:Q500),(V3:V520)))-(SUM(E11:E500))</f>
-        <v>319.5</v>
+        <v>234</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -2032,10 +2028,10 @@
         <v>42785</v>
       </c>
       <c r="T6" s="50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U6" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V6" s="43">
         <f t="shared" si="3"/>
@@ -2046,7 +2042,7 @@
       </c>
       <c r="X6" s="52"/>
       <c r="Y6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z6" s="53">
         <f t="shared" si="0"/>
@@ -2056,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -2135,10 +2131,10 @@
         <v>42786</v>
       </c>
       <c r="T7" s="50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U7" s="51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V7" s="43">
         <f t="shared" si="3"/>
@@ -2159,7 +2155,7 @@
         <v>97</v>
       </c>
       <c r="AC7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD7">
         <v>10</v>
@@ -2229,10 +2225,10 @@
         <v>42787</v>
       </c>
       <c r="T8" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U8" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V8" s="43">
         <f t="shared" si="3"/>
@@ -2245,7 +2241,7 @@
         <v>9</v>
       </c>
       <c r="Y8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z8" s="53">
         <f t="shared" si="0"/>
@@ -2255,10 +2251,10 @@
         <v>70</v>
       </c>
       <c r="AB8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AC8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AD8">
         <v>9</v>
@@ -2340,7 +2336,7 @@
       </c>
       <c r="L9" s="15">
         <f>SUM(L11:L500)</f>
-        <v>23829</v>
+        <v>23979</v>
       </c>
       <c r="N9" s="35" t="s">
         <v>56</v>
@@ -2352,10 +2348,10 @@
         <v>42788</v>
       </c>
       <c r="T9" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="U9" s="51" t="s">
         <v>122</v>
-      </c>
-      <c r="U9" s="51" t="s">
-        <v>123</v>
       </c>
       <c r="V9" s="43">
         <f t="shared" si="3"/>
@@ -2366,7 +2362,7 @@
         <v>500</v>
       </c>
       <c r="Y9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Z9" s="53">
         <f t="shared" si="0"/>
@@ -2376,10 +2372,10 @@
         <v>100</v>
       </c>
       <c r="AB9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC9" t="s">
         <v>125</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>126</v>
       </c>
       <c r="AD9">
         <v>50</v>
@@ -2496,7 +2492,7 @@
         <v>63</v>
       </c>
       <c r="U10" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V10" s="43">
         <f t="shared" si="3"/>
@@ -2512,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="AB10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AD10">
         <v>25</v>
@@ -2628,7 +2624,7 @@
         <v>83</v>
       </c>
       <c r="U11" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V11" s="43">
         <f t="shared" si="3"/>
@@ -2644,10 +2640,10 @@
         <v>24</v>
       </c>
       <c r="AB11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AD11">
         <v>10</v>
@@ -2746,7 +2742,7 @@
         <v>57</v>
       </c>
       <c r="P12" s="59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q12" s="39">
         <v>465</v>
@@ -2758,7 +2754,7 @@
         <v>100</v>
       </c>
       <c r="U12" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V12" s="43">
         <f t="shared" si="3"/>
@@ -2776,7 +2772,7 @@
         <v>70</v>
       </c>
       <c r="AB12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -2872,10 +2868,10 @@
         <v>42798</v>
       </c>
       <c r="O13" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="P13" s="59" t="s">
         <v>171</v>
-      </c>
-      <c r="P13" s="59" t="s">
-        <v>172</v>
       </c>
       <c r="Q13" s="39">
         <v>600</v>
@@ -2884,10 +2880,10 @@
         <v>42792</v>
       </c>
       <c r="T13" s="50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U13" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V13" s="43">
         <f t="shared" si="3"/>
@@ -2898,7 +2894,7 @@
         <v>350</v>
       </c>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z13" s="53">
         <f t="shared" si="0"/>
@@ -2908,10 +2904,10 @@
         <v>0</v>
       </c>
       <c r="AB13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AC13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AD13">
         <v>20</v>
@@ -3010,7 +3006,7 @@
         <v>29</v>
       </c>
       <c r="P14" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q14" s="39">
         <v>500</v>
@@ -3019,10 +3015,10 @@
         <v>42793</v>
       </c>
       <c r="T14" s="50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U14" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V14" s="43">
         <f t="shared" si="3"/>
@@ -3040,10 +3036,10 @@
         <v>40</v>
       </c>
       <c r="AB14" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC14" t="s">
         <v>148</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>149</v>
       </c>
       <c r="AD14">
         <v>8</v>
@@ -3111,7 +3107,7 @@
         <v>42787</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="80">
@@ -3142,7 +3138,7 @@
         <v>57</v>
       </c>
       <c r="P15" s="59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q15" s="39">
         <v>400</v>
@@ -3151,10 +3147,10 @@
         <v>42794</v>
       </c>
       <c r="T15" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U15" s="74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="V15" s="43">
         <f t="shared" si="3"/>
@@ -3167,7 +3163,7 @@
         <v>40</v>
       </c>
       <c r="Y15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z15" s="53">
         <f t="shared" si="0"/>
@@ -3180,7 +3176,7 @@
         <v>97</v>
       </c>
       <c r="AC15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AD15">
         <v>10</v>
@@ -3248,7 +3244,7 @@
         <v>42790</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="80">
@@ -3280,10 +3276,10 @@
         <v>42795</v>
       </c>
       <c r="T16" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U16" s="51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V16" s="43">
         <f t="shared" si="3"/>
@@ -3296,7 +3292,7 @@
         <v>50</v>
       </c>
       <c r="Y16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z16" s="84">
         <f t="shared" si="0"/>
@@ -3306,10 +3302,10 @@
         <v>70</v>
       </c>
       <c r="AB16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AC16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AD16" s="19">
         <v>20</v>
@@ -3378,7 +3374,7 @@
         <v>42790</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="12">
@@ -3413,7 +3409,7 @@
         <v>63</v>
       </c>
       <c r="U17" s="51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V17" s="43">
         <f t="shared" si="3"/>
@@ -3431,10 +3427,10 @@
         <v>40</v>
       </c>
       <c r="AB17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AC17" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AD17">
         <v>3</v>
@@ -3501,10 +3497,10 @@
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="12">
@@ -3540,7 +3536,7 @@
         <v>83</v>
       </c>
       <c r="U18" s="51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V18" s="85">
         <f t="shared" si="3"/>
@@ -3558,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="AB18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC18" t="s">
         <v>166</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>167</v>
       </c>
       <c r="AD18">
         <v>80</v>
@@ -3629,7 +3625,7 @@
         <v>42793</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="12"/>
@@ -3664,7 +3660,7 @@
         <v>100</v>
       </c>
       <c r="U19" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="V19" s="43">
         <f t="shared" si="3"/>
@@ -3677,7 +3673,7 @@
         <v>40</v>
       </c>
       <c r="Y19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z19" s="53">
         <f t="shared" si="0"/>
@@ -3687,10 +3683,10 @@
         <v>30</v>
       </c>
       <c r="AB19" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC19" t="s">
         <v>169</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>170</v>
       </c>
       <c r="AD19">
         <v>6</v>
@@ -3759,7 +3755,7 @@
         <v>42794</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="73">
@@ -3791,10 +3787,10 @@
         <v>42799</v>
       </c>
       <c r="T20" s="50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U20" s="51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V20" s="43">
         <f t="shared" si="3"/>
@@ -3807,7 +3803,7 @@
         <v>15</v>
       </c>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z20" s="53">
         <f t="shared" si="0"/>
@@ -3817,10 +3813,10 @@
         <v>100</v>
       </c>
       <c r="AB20" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC20" t="s">
         <v>177</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>178</v>
       </c>
       <c r="AD20">
         <v>150</v>
@@ -3887,7 +3883,7 @@
         <v>42794</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" s="87"/>
       <c r="D21" s="12">
@@ -3919,10 +3915,10 @@
         <v>42800</v>
       </c>
       <c r="T21" s="50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U21" s="51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V21" s="43">
         <f t="shared" si="3"/>
@@ -4008,7 +4004,7 @@
         <v>42798</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="12">
@@ -4042,10 +4038,10 @@
         <v>42801</v>
       </c>
       <c r="T22" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U22" s="51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V22" s="43">
         <f t="shared" si="3"/>
@@ -4063,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="AC22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD22" s="40">
         <v>50</v>
@@ -4131,7 +4127,7 @@
         <v>42798</v>
       </c>
       <c r="B23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="73">
@@ -4165,10 +4161,10 @@
         <v>42802</v>
       </c>
       <c r="T23" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U23" s="51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V23" s="43">
         <f t="shared" si="3"/>
@@ -4181,7 +4177,7 @@
         <v>50</v>
       </c>
       <c r="Y23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z23" s="53">
         <f t="shared" si="0"/>
@@ -4191,10 +4187,10 @@
         <v>110</v>
       </c>
       <c r="AB23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AC23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AD23">
         <v>7.5</v>
@@ -4262,7 +4258,7 @@
         <v>42800</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="12"/>
@@ -4298,7 +4294,7 @@
         <v>63</v>
       </c>
       <c r="U24" s="51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V24" s="43">
         <f t="shared" si="3"/>
@@ -4316,7 +4312,7 @@
         <v>70</v>
       </c>
       <c r="AB24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -4384,7 +4380,7 @@
         <v>42802</v>
       </c>
       <c r="B25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="12">
@@ -4422,7 +4418,7 @@
         <v>83</v>
       </c>
       <c r="U25" s="51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V25" s="43">
         <f t="shared" si="3"/>
@@ -4440,10 +4436,10 @@
         <v>250</v>
       </c>
       <c r="AB25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AC25" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AD25">
         <v>10</v>
@@ -4511,7 +4507,7 @@
         <v>42802</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="12">
@@ -4548,11 +4544,11 @@
         <v>100</v>
       </c>
       <c r="U26" s="51" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V26" s="43">
         <f t="shared" si="3"/>
-        <v>-200</v>
+        <v>-190</v>
       </c>
       <c r="W26" s="52">
         <v>300</v>
@@ -4561,20 +4557,20 @@
         <v>500</v>
       </c>
       <c r="Y26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Z26" s="53">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AA26">
         <v>200</v>
       </c>
       <c r="AB26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AD26">
         <v>250</v>
@@ -4585,8 +4581,8 @@
       <c r="AF26">
         <v>100</v>
       </c>
-      <c r="AG26" s="12">
-        <v>30</v>
+      <c r="AG26" s="91">
+        <v>20</v>
       </c>
       <c r="AH26">
         <v>130</v>
@@ -4642,7 +4638,7 @@
         <v>42802</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="12">
@@ -4675,10 +4671,10 @@
         <v>42806</v>
       </c>
       <c r="T27" s="50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U27" s="51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V27" s="43">
         <f t="shared" si="3"/>
@@ -4689,7 +4685,7 @@
       </c>
       <c r="X27" s="52"/>
       <c r="Y27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Z27" s="53">
         <f t="shared" si="0"/>
@@ -4699,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="AB27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -4775,10 +4771,10 @@
         <v>42789</v>
       </c>
       <c r="H28" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="I28" s="59" t="s">
         <v>128</v>
-      </c>
-      <c r="I28" s="59" t="s">
-        <v>129</v>
       </c>
       <c r="J28" s="24">
         <v>100</v>
@@ -4791,17 +4787,17 @@
       <c r="N28" s="59"/>
       <c r="O28" s="59"/>
       <c r="P28" s="59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q28" s="39"/>
       <c r="S28" s="49">
         <v>42807</v>
       </c>
       <c r="T28" s="50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U28" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V28" s="43">
         <f t="shared" si="3"/>
@@ -4814,7 +4810,7 @@
         <v>220</v>
       </c>
       <c r="Y28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Z28" s="53">
         <f t="shared" si="0"/>
@@ -4824,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="AC28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AD28">
         <v>6</v>
@@ -4892,7 +4888,7 @@
         <v>42804</v>
       </c>
       <c r="B29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="12">
@@ -4903,10 +4899,10 @@
         <v>42794</v>
       </c>
       <c r="H29" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="I29" s="83" t="s">
         <v>154</v>
-      </c>
-      <c r="I29" s="83" t="s">
-        <v>155</v>
       </c>
       <c r="J29" s="24">
         <v>10</v>
@@ -4924,10 +4920,10 @@
         <v>42808</v>
       </c>
       <c r="T29" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U29" s="51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="V29" s="43">
         <f t="shared" si="3"/>
@@ -4940,7 +4936,7 @@
         <v>20</v>
       </c>
       <c r="Y29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Z29" s="53">
         <f t="shared" si="0"/>
@@ -4950,10 +4946,10 @@
         <v>50</v>
       </c>
       <c r="AB29" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC29" t="s">
         <v>207</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>208</v>
       </c>
       <c r="AD29">
         <v>43</v>
@@ -5021,7 +5017,7 @@
         <v>42805</v>
       </c>
       <c r="B30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="12">
@@ -5032,16 +5028,16 @@
         <v>42795</v>
       </c>
       <c r="H30" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="I30" s="59" t="s">
         <v>159</v>
-      </c>
-      <c r="I30" s="59" t="s">
-        <v>160</v>
       </c>
       <c r="J30" s="24">
         <v>20</v>
       </c>
       <c r="K30" s="75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L30" s="21">
         <v>0</v>
@@ -5054,10 +5050,10 @@
         <v>42809</v>
       </c>
       <c r="T30" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U30" s="51" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="V30" s="85">
         <f t="shared" si="3"/>
@@ -5075,10 +5071,10 @@
         <v>70</v>
       </c>
       <c r="AB30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AC30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AD30">
         <v>10</v>
@@ -5146,21 +5142,29 @@
         <v>42805</v>
       </c>
       <c r="B31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="12">
         <v>52.79</v>
       </c>
       <c r="E31" s="14"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="24"/>
+      <c r="G31" s="60">
+        <v>42816</v>
+      </c>
+      <c r="H31" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="J31" s="24">
+        <v>150</v>
+      </c>
       <c r="K31" s="23"/>
       <c r="L31" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="N31" s="59"/>
       <c r="O31" s="59"/>
@@ -5170,14 +5174,14 @@
         <v>42810</v>
       </c>
       <c r="T31" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="U31" s="51" t="s">
         <v>211</v>
-      </c>
-      <c r="U31" s="51" t="s">
-        <v>212</v>
       </c>
       <c r="V31" s="43">
         <f t="shared" si="3"/>
-        <v>-149.5</v>
+        <v>-147.5</v>
       </c>
       <c r="W31" s="52">
         <v>75</v>
@@ -5185,22 +5189,22 @@
       <c r="X31" s="52"/>
       <c r="Z31" s="53">
         <f t="shared" si="0"/>
-        <v>224.5</v>
+        <v>222.5</v>
       </c>
       <c r="AA31">
         <v>0</v>
       </c>
       <c r="AB31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AC31" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AD31">
         <v>60</v>
       </c>
-      <c r="AE31" s="12">
-        <v>130</v>
+      <c r="AE31" s="91">
+        <v>128</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -5230,7 +5234,7 @@
         <f t="shared" si="6"/>
         <v>34.5</v>
       </c>
-      <c r="AO31" s="92">
+      <c r="AO31" s="91">
         <v>20</v>
       </c>
       <c r="AP31">
@@ -5262,7 +5266,7 @@
         <v>42807</v>
       </c>
       <c r="B32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="12">
@@ -5289,7 +5293,7 @@
         <v>83</v>
       </c>
       <c r="U32" s="51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="V32" s="43">
         <f t="shared" si="3"/>
@@ -5307,7 +5311,7 @@
         <v>450</v>
       </c>
       <c r="AB32" s="40" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AD32">
         <v>0</v>
@@ -5391,11 +5395,11 @@
         <v>100</v>
       </c>
       <c r="U33" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V33" s="43">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="W33" s="52">
         <v>120</v>
@@ -5403,16 +5407,16 @@
       <c r="X33" s="52"/>
       <c r="Z33" s="53">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="AA33" s="91">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="AB33" t="s">
         <v>223</v>
       </c>
       <c r="AC33" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AD33">
         <v>12</v>
@@ -5493,10 +5497,10 @@
         <v>42813</v>
       </c>
       <c r="T34" s="50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U34" s="51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V34" s="43">
         <f t="shared" si="3"/>
@@ -5514,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="AB34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD34">
         <v>0</v>
@@ -5595,14 +5599,14 @@
         <v>42814</v>
       </c>
       <c r="T35" s="50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U35" s="51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="V35" s="43">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W35" s="52">
         <v>100</v>
@@ -5610,16 +5614,16 @@
       <c r="X35" s="52"/>
       <c r="Z35" s="53">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="AA35">
         <v>0</v>
       </c>
       <c r="AB35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AC35" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AD35">
         <v>11</v>
@@ -5653,23 +5657,23 @@
       </c>
       <c r="AN35">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AO35">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ35">
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS35">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AT35">
         <v>2</v>
@@ -5700,14 +5704,14 @@
         <v>42815</v>
       </c>
       <c r="T36" s="50" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="U36" s="51" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="V36" s="43">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>-122.5</v>
       </c>
       <c r="W36" s="52">
         <v>75</v>
@@ -5717,13 +5721,13 @@
       </c>
       <c r="Z36" s="53">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>277.5</v>
       </c>
       <c r="AA36">
         <v>60</v>
       </c>
       <c r="AB36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AC36" t="s">
         <v>221</v>
@@ -5731,8 +5735,8 @@
       <c r="AD36">
         <v>12</v>
       </c>
-      <c r="AE36">
-        <v>0</v>
+      <c r="AE36" s="19">
+        <v>150</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -5760,15 +5764,33 @@
       </c>
       <c r="AN36">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>55.5</v>
+      </c>
+      <c r="AO36">
+        <v>40</v>
+      </c>
+      <c r="AP36">
+        <v>2</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>2</v>
       </c>
       <c r="AS36">
         <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="AT36">
         <v>0</v>
       </c>
       <c r="AU36">
         <f t="shared" si="4"/>
         <v>0</v>
+      </c>
+      <c r="AV36">
+        <v>15.5</v>
       </c>
     </row>
     <row r="37" spans="3:48" x14ac:dyDescent="0.25">
@@ -5788,20 +5810,40 @@
       <c r="S37" s="49">
         <v>42816</v>
       </c>
-      <c r="T37" s="50"/>
-      <c r="U37" s="51"/>
+      <c r="T37" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="U37" s="51" t="s">
+        <v>222</v>
+      </c>
       <c r="V37" s="43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W37" s="52"/>
-      <c r="X37" s="52"/>
+        <v>80.5</v>
+      </c>
+      <c r="W37" s="52">
+        <v>105</v>
+      </c>
+      <c r="X37" s="52">
+        <v>75</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>228</v>
+      </c>
       <c r="Z37" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99.5</v>
+      </c>
+      <c r="AA37">
+        <v>70</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>227</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE37">
         <v>0</v>
@@ -5832,15 +5874,33 @@
       </c>
       <c r="AN37">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9.5</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>0</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>2</v>
       </c>
       <c r="AS37">
         <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AT37">
         <v>0</v>
       </c>
       <c r="AU37">
         <f t="shared" si="4"/>
         <v>0</v>
+      </c>
+      <c r="AV37">
+        <v>9.5</v>
       </c>
     </row>
     <row r="38" spans="3:48" x14ac:dyDescent="0.25">
@@ -5860,14 +5920,20 @@
       <c r="S38" s="49">
         <v>42817</v>
       </c>
-      <c r="T38" s="50"/>
-      <c r="U38" s="51"/>
+      <c r="T38" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="U38" s="51" t="s">
+        <v>229</v>
+      </c>
       <c r="V38" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W38" s="52"/>
-      <c r="X38" s="52"/>
+      <c r="X38" s="52">
+        <v>0</v>
+      </c>
       <c r="Z38" s="53">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Finanzas/Febrero_2017.xlsx
+++ b/Finanzas/Febrero_2017.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="233">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -726,6 +721,15 @@
   </si>
   <si>
     <t>Javs Invita Cumple</t>
+  </si>
+  <si>
+    <t>Ingles (13-23 mar)</t>
+  </si>
+  <si>
+    <t>Buffette Sushi</t>
+  </si>
+  <si>
+    <t>Agua mineral</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1471,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1477,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE964"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1894,7 +1898,7 @@
       </c>
       <c r="AZ4" s="64">
         <f>(SUM((AO3:AO520)))-(SUM((AS3:AS520)))</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BA4" s="64"/>
     </row>
@@ -2020,7 +2024,7 @@
       </c>
       <c r="L6" s="54">
         <f>(SUM((Q11:Q500),(V3:V520)))-(SUM(E11:E500))</f>
-        <v>234</v>
+        <v>659</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -3268,10 +3272,18 @@
         <f t="shared" si="5"/>
         <v>500</v>
       </c>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="39"/>
+      <c r="N16" s="60">
+        <v>42817</v>
+      </c>
+      <c r="O16" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q16" s="39">
+        <v>400</v>
+      </c>
       <c r="S16" s="49">
         <v>42795</v>
       </c>
@@ -5928,18 +5940,29 @@
       </c>
       <c r="V38" s="43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W38" s="52"/>
+        <v>25</v>
+      </c>
+      <c r="W38" s="52">
+        <v>75</v>
+      </c>
       <c r="X38" s="52">
         <v>0</v>
       </c>
       <c r="Z38" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>232</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE38">
         <v>0</v>
@@ -5970,15 +5993,33 @@
       </c>
       <c r="AN38">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="AO38">
+        <v>30</v>
+      </c>
+      <c r="AP38">
+        <v>3</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>4</v>
       </c>
       <c r="AS38">
         <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="AT38">
         <v>0</v>
       </c>
       <c r="AU38">
         <f t="shared" si="4"/>
         <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="3:48" x14ac:dyDescent="0.25">

--- a/Finanzas/Febrero_2017.xlsx
+++ b/Finanzas/Febrero_2017.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="245">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -730,6 +730,42 @@
   </si>
   <si>
     <t>Agua mineral</t>
+  </si>
+  <si>
+    <t>Seminario</t>
+  </si>
+  <si>
+    <t>Jaime cooperó 110 para la comida y 14 en Tacos</t>
+  </si>
+  <si>
+    <t>El Gnomo</t>
+  </si>
+  <si>
+    <t>Tacos carnitas; Yogurt</t>
+  </si>
+  <si>
+    <t>Javs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uber </t>
+  </si>
+  <si>
+    <t>Gatos</t>
+  </si>
+  <si>
+    <t>ap.c</t>
+  </si>
+  <si>
+    <t>Reunion Veracruz</t>
+  </si>
+  <si>
+    <t>Papitas con la enana</t>
+  </si>
+  <si>
+    <t>Torta El secreto (A michas con Jaime)</t>
+  </si>
+  <si>
+    <t>Cooperacha alcohol</t>
   </si>
 </sst>
 </file>
@@ -1481,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,7 +1711,9 @@
       <c r="BA2" s="8"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
+      <c r="A3" s="40" t="s">
+        <v>240</v>
+      </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="18" t="s">
@@ -1800,7 +1838,7 @@
       </c>
       <c r="N4" s="5">
         <f>SUM(L3,L9)</f>
-        <v>27878.309999999998</v>
+        <v>28318.309999999998</v>
       </c>
       <c r="S4" s="49">
         <v>42783</v>
@@ -1898,7 +1936,7 @@
       </c>
       <c r="AZ4" s="64">
         <f>(SUM((AO3:AO520)))-(SUM((AS3:AS520)))</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BA4" s="64"/>
     </row>
@@ -2024,7 +2062,7 @@
       </c>
       <c r="L6" s="54">
         <f>(SUM((Q11:Q500),(V3:V520)))-(SUM(E11:E500))</f>
-        <v>659</v>
+        <v>713</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -2340,7 +2378,7 @@
       </c>
       <c r="L9" s="15">
         <f>SUM(L11:L500)</f>
-        <v>23979</v>
+        <v>24419</v>
       </c>
       <c r="N9" s="35" t="s">
         <v>56</v>
@@ -4921,7 +4959,7 @@
       </c>
       <c r="K29" s="23"/>
       <c r="L29" s="21">
-        <f t="shared" ref="L29:L32" si="8">J29-K29</f>
+        <f t="shared" ref="L29:L33" si="8">J29-K29</f>
         <v>10</v>
       </c>
       <c r="N29" s="59"/>
@@ -5285,14 +5323,22 @@
         <v>354</v>
       </c>
       <c r="E32" s="14"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="24"/>
+      <c r="G32" s="60">
+        <v>42802</v>
+      </c>
+      <c r="H32" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="I32" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="J32" s="24">
+        <v>140</v>
+      </c>
       <c r="K32" s="23"/>
       <c r="L32" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="N32" s="59"/>
       <c r="O32" s="59"/>
@@ -5390,12 +5436,23 @@
       <c r="C33" s="13"/>
       <c r="D33" s="12"/>
       <c r="E33" s="14"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="24"/>
+      <c r="G33" s="60">
+        <v>42802</v>
+      </c>
+      <c r="H33" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="I33" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="J33" s="24">
+        <v>300</v>
+      </c>
       <c r="K33" s="23"/>
-      <c r="L33" s="21"/>
+      <c r="L33" s="21">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
       <c r="N33" s="59"/>
       <c r="O33" s="59"/>
       <c r="P33" s="59"/>
@@ -5940,13 +5997,16 @@
       </c>
       <c r="V38" s="43">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="W38" s="52">
         <v>75</v>
       </c>
       <c r="X38" s="52">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>152</v>
       </c>
       <c r="Z38" s="53">
         <f t="shared" si="0"/>
@@ -5999,7 +6059,7 @@
         <v>30</v>
       </c>
       <c r="AP38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ38">
         <v>0</v>
@@ -6009,7 +6069,7 @@
       </c>
       <c r="AS38">
         <f t="shared" si="7"/>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AT38">
         <v>0</v>
@@ -6039,23 +6099,43 @@
       <c r="S39" s="49">
         <v>42818</v>
       </c>
-      <c r="T39" s="50"/>
-      <c r="U39" s="51"/>
+      <c r="T39" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="U39" s="51" t="s">
+        <v>233</v>
+      </c>
       <c r="V39" s="43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
+        <v>-126</v>
+      </c>
+      <c r="W39" s="52">
+        <v>75</v>
+      </c>
+      <c r="X39" s="52">
+        <v>127</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>234</v>
+      </c>
       <c r="Z39" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>328</v>
+      </c>
+      <c r="AA39">
+        <v>260</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>236</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -6083,15 +6163,33 @@
       </c>
       <c r="AN39">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="AO39">
+        <v>20</v>
+      </c>
+      <c r="AP39">
+        <v>0</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>3</v>
       </c>
       <c r="AS39">
         <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="AT39">
         <v>0</v>
       </c>
       <c r="AU39">
         <f t="shared" si="4"/>
         <v>0</v>
+      </c>
+      <c r="AV39">
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="3:48" x14ac:dyDescent="0.25">
@@ -6111,20 +6209,35 @@
       <c r="S40" s="49">
         <v>42819</v>
       </c>
-      <c r="T40" s="50"/>
-      <c r="U40" s="51"/>
+      <c r="T40" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="U40" s="51" t="s">
+        <v>241</v>
+      </c>
       <c r="V40" s="43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W40" s="52"/>
+        <v>25</v>
+      </c>
+      <c r="W40" s="52">
+        <v>120</v>
+      </c>
       <c r="X40" s="52"/>
       <c r="Z40" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="AA40">
+        <v>25</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>244</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AE40">
         <v>0</v>
@@ -6155,14 +6268,32 @@
       </c>
       <c r="AN40">
         <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AO40">
+        <v>20</v>
+      </c>
+      <c r="AP40">
+        <v>1</v>
+      </c>
+      <c r="AQ40">
+        <v>2</v>
+      </c>
+      <c r="AR40">
         <v>0</v>
       </c>
       <c r="AS40">
         <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="AT40">
         <v>0</v>
       </c>
       <c r="AU40">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AV40">
         <v>0</v>
       </c>
     </row>
@@ -6183,20 +6314,34 @@
       <c r="S41" s="49">
         <v>42820</v>
       </c>
-      <c r="T41" s="50"/>
-      <c r="U41" s="51"/>
+      <c r="T41" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="U41" s="51" t="s">
+        <v>197</v>
+      </c>
       <c r="V41" s="43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W41" s="52"/>
-      <c r="X41" s="52"/>
+        <v>-10</v>
+      </c>
+      <c r="W41" s="52">
+        <v>0</v>
+      </c>
+      <c r="X41" s="52">
+        <v>0</v>
+      </c>
       <c r="Z41" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>242</v>
       </c>
       <c r="AD41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE41">
         <v>0</v>
@@ -6227,6 +6372,9 @@
       </c>
       <c r="AN41">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AO41">
         <v>0</v>
       </c>
       <c r="AS41">
@@ -6255,13 +6403,17 @@
       <c r="S42" s="49">
         <v>42821</v>
       </c>
-      <c r="T42" s="50"/>
+      <c r="T42" s="50" t="s">
+        <v>108</v>
+      </c>
       <c r="U42" s="51"/>
       <c r="V42" s="43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W42" s="52"/>
+        <v>125</v>
+      </c>
+      <c r="W42" s="52">
+        <v>125</v>
+      </c>
       <c r="X42" s="52"/>
       <c r="Z42" s="53">
         <f t="shared" si="0"/>

--- a/Finanzas/Febrero_2017.xlsx
+++ b/Finanzas/Febrero_2017.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="250">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -753,9 +758,6 @@
     <t>Gatos</t>
   </si>
   <si>
-    <t>ap.c</t>
-  </si>
-  <si>
     <t>Reunion Veracruz</t>
   </si>
   <si>
@@ -767,12 +769,30 @@
   <si>
     <t>Cooperacha alcohol</t>
   </si>
+  <si>
+    <t>&lt;- Corte</t>
+  </si>
+  <si>
+    <t>(Consulta de Saldo)</t>
+  </si>
+  <si>
+    <t>Cancelado (Boletos Christian)</t>
+  </si>
+  <si>
+    <t>Trámites Jaime</t>
+  </si>
+  <si>
+    <t>Mie</t>
+  </si>
+  <si>
+    <t>Uber desde Casa de Manu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -909,6 +929,22 @@
       <u/>
       <sz val="11"/>
       <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1078,7 +1114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1221,6 +1257,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1507,7 +1552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1515,10 +1560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE964"/>
+  <dimension ref="A1:BE965"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1637,7 @@
       </c>
       <c r="D2" s="86">
         <f>L3-C2</f>
-        <v>-5802.6900000000005</v>
+        <v>-4788.6499999999996</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>2</v>
@@ -1711,17 +1756,15 @@
       <c r="BA2" s="8"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>240</v>
-      </c>
+      <c r="A3" s="40"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="27">
-        <f>(SUM(C2,(E11:E500),(K11:K500)))-(SUM((D11:D500),(C11:C500)))</f>
-        <v>3899.3099999999995</v>
+        <f>(SUM(C2,(E11:E501),(K11:K501)))-(SUM((D11:D501),(C11:C501)))</f>
+        <v>4913.3500000000004</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -1743,7 +1786,7 @@
         <v>100</v>
       </c>
       <c r="Z3" s="53">
-        <f t="shared" ref="Z3:Z66" si="0">SUM(AA3,AD3,AE3,AF3,AG3,AH3,AI3,AJ3,AK3,AL3,AM3,AN3)</f>
+        <f t="shared" ref="Z3:Z67" si="0">SUM(AA3,AD3,AE3,AF3,AG3,AH3,AI3,AJ3,AK3,AL3,AM3,AN3)</f>
         <v>262.5</v>
       </c>
       <c r="AA3">
@@ -1838,7 +1881,7 @@
       </c>
       <c r="N4" s="5">
         <f>SUM(L3,L9)</f>
-        <v>28318.309999999998</v>
+        <v>29082.35</v>
       </c>
       <c r="S4" s="49">
         <v>42783</v>
@@ -1850,7 +1893,7 @@
         <v>105</v>
       </c>
       <c r="V4" s="43">
-        <f t="shared" ref="V4:V67" si="3">(SUM(W4,X4))-Z4</f>
+        <f t="shared" ref="V4:V68" si="3">(SUM(W4,X4))-Z4</f>
         <v>-70</v>
       </c>
       <c r="W4" s="52">
@@ -1924,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <f t="shared" ref="AU4:AU67" si="4">AT4*5</f>
+        <f t="shared" ref="AU4:AU68" si="4">AT4*5</f>
         <v>0</v>
       </c>
       <c r="AV4">
@@ -1935,7 +1978,7 @@
         <v>91</v>
       </c>
       <c r="AZ4" s="64">
-        <f>(SUM((AO3:AO520)))-(SUM((AS3:AS520)))</f>
+        <f>(SUM((AO3:AO521)))-(SUM((AS3:AS521)))</f>
         <v>5</v>
       </c>
       <c r="BA4" s="64"/>
@@ -2061,8 +2104,8 @@
         <v>9</v>
       </c>
       <c r="L6" s="54">
-        <f>(SUM((Q11:Q500),(V3:V520)))-(SUM(E11:E500))</f>
-        <v>713</v>
+        <f>(SUM((Q11:Q501),(V3:V521)))-(SUM(E11:E501))</f>
+        <v>202.5</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -2377,8 +2420,8 @@
         <v>25</v>
       </c>
       <c r="L9" s="15">
-        <f>SUM(L11:L500)</f>
-        <v>24419</v>
+        <f>SUM(L11:L501)</f>
+        <v>24169</v>
       </c>
       <c r="N9" s="35" t="s">
         <v>56</v>
@@ -3153,9 +3196,12 @@
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="80">
-        <v>164.88</v>
+        <v>165.23</v>
       </c>
       <c r="E15" s="14"/>
+      <c r="F15" s="92" t="s">
+        <v>244</v>
+      </c>
       <c r="G15" s="59"/>
       <c r="H15" s="59" t="s">
         <v>24</v>
@@ -4019,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="AN21">
-        <f t="shared" ref="AN21:AN84" si="6">SUM(AO21,AV21,AU21)</f>
+        <f t="shared" ref="AN21:AN85" si="6">SUM(AO21,AV21,AU21)</f>
         <v>85.5</v>
       </c>
       <c r="AO21">
@@ -4158,7 +4204,7 @@
         <v>5</v>
       </c>
       <c r="AS22">
-        <f t="shared" ref="AS22:AS85" si="7">(AP22*6)+(AQ22*8)+(AR22*5)</f>
+        <f t="shared" ref="AS22:AS86" si="7">(AP22*6)+(AQ22*8)+(AR22*5)</f>
         <v>25</v>
       </c>
       <c r="AT22">
@@ -4433,7 +4479,7 @@
         <v>188</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="12">
+      <c r="D25" s="93">
         <v>142.35</v>
       </c>
       <c r="E25" s="14"/>
@@ -4959,7 +5005,7 @@
       </c>
       <c r="K29" s="23"/>
       <c r="L29" s="21">
-        <f t="shared" ref="L29:L33" si="8">J29-K29</f>
+        <f t="shared" ref="L29:L34" si="8">J29-K29</f>
         <v>10</v>
       </c>
       <c r="N29" s="59"/>
@@ -5199,22 +5245,23 @@
         <v>52.79</v>
       </c>
       <c r="E31" s="14"/>
-      <c r="G31" s="60">
+      <c r="G31" s="97">
         <v>42816</v>
       </c>
-      <c r="H31" s="59" t="s">
+      <c r="H31" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="I31" s="59" t="s">
+      <c r="I31" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="98">
         <v>150</v>
       </c>
-      <c r="K31" s="23"/>
-      <c r="L31" s="21">
-        <f t="shared" si="8"/>
-        <v>150</v>
+      <c r="K31" s="99" t="s">
+        <v>246</v>
+      </c>
+      <c r="L31" s="100">
+        <v>0</v>
       </c>
       <c r="N31" s="59"/>
       <c r="O31" s="59"/>
@@ -5432,165 +5479,103 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="33" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A33" s="34">
+        <v>42812</v>
+      </c>
+      <c r="B33" t="s">
+        <v>249</v>
+      </c>
       <c r="C33" s="13"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="12">
+        <v>127.61</v>
+      </c>
       <c r="E33" s="14"/>
-      <c r="G33" s="60">
-        <v>42802</v>
-      </c>
-      <c r="H33" s="59" t="s">
-        <v>237</v>
-      </c>
-      <c r="I33" s="59" t="s">
-        <v>239</v>
-      </c>
-      <c r="J33" s="24">
-        <v>300</v>
-      </c>
+      <c r="G33" s="60"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="24"/>
       <c r="K33" s="23"/>
-      <c r="L33" s="21">
-        <f t="shared" si="8"/>
-        <v>300</v>
-      </c>
+      <c r="L33" s="21"/>
       <c r="N33" s="59"/>
       <c r="O33" s="59"/>
       <c r="P33" s="59"/>
       <c r="Q33" s="39"/>
-      <c r="S33" s="49">
-        <v>42812</v>
-      </c>
-      <c r="T33" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="U33" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="V33" s="43">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="W33" s="52">
-        <v>120</v>
-      </c>
+      <c r="S33" s="49"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="52"/>
       <c r="X33" s="52"/>
-      <c r="Z33" s="53">
-        <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="AA33" s="91">
-        <v>62</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>223</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD33">
-        <v>12</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
-      <c r="AI33">
-        <v>0</v>
-      </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
-      <c r="AK33">
-        <v>0</v>
-      </c>
-      <c r="AL33">
-        <v>0</v>
-      </c>
-      <c r="AM33">
-        <v>0</v>
-      </c>
-      <c r="AN33">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="AO33">
-        <v>20</v>
-      </c>
-      <c r="AP33">
-        <v>0</v>
-      </c>
-      <c r="AQ33">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>3</v>
-      </c>
-      <c r="AS33">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="AT33">
-        <v>0</v>
-      </c>
-      <c r="AU33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AV33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="Z33" s="53"/>
+      <c r="AB33" s="40"/>
+      <c r="AT33" s="12"/>
+    </row>
+    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A34" s="34">
+        <v>42821</v>
+      </c>
+      <c r="B34" t="s">
+        <v>145</v>
+      </c>
       <c r="C34" s="13"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="14"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="24"/>
+      <c r="E34" s="14">
+        <v>500</v>
+      </c>
+      <c r="G34" s="60">
+        <v>42802</v>
+      </c>
+      <c r="H34" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="I34" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="J34" s="24">
+        <v>200</v>
+      </c>
       <c r="K34" s="23"/>
-      <c r="L34" s="21"/>
+      <c r="L34" s="21">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
       <c r="N34" s="59"/>
       <c r="O34" s="59"/>
       <c r="P34" s="59"/>
       <c r="Q34" s="39"/>
       <c r="S34" s="49">
-        <v>42813</v>
+        <v>42812</v>
       </c>
       <c r="T34" s="50" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U34" s="51" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="V34" s="43">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="W34" s="52">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="X34" s="52"/>
       <c r="Z34" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="AA34" s="91">
+        <v>62</v>
       </c>
       <c r="AB34" t="s">
-        <v>144</v>
+        <v>223</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>219</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE34">
         <v>0</v>
@@ -5621,10 +5606,10 @@
       </c>
       <c r="AN34">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO34">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP34">
         <v>0</v>
@@ -5633,11 +5618,11 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS34">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AT34">
         <v>0</v>
@@ -5650,10 +5635,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:48" x14ac:dyDescent="0.25">
-      <c r="C35" s="13"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="14"/>
+    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A35" s="96">
+        <v>42821</v>
+      </c>
+      <c r="B35" s="94" t="s">
+        <v>245</v>
+      </c>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94">
+        <v>-642</v>
+      </c>
+      <c r="E35" s="95"/>
       <c r="G35" s="59"/>
       <c r="H35" s="59"/>
       <c r="I35" s="59"/>
@@ -5665,25 +5658,25 @@
       <c r="P35" s="59"/>
       <c r="Q35" s="39"/>
       <c r="S35" s="49">
-        <v>42814</v>
+        <v>42813</v>
       </c>
       <c r="T35" s="50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U35" s="51" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="V35" s="43">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="W35" s="52">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X35" s="52"/>
       <c r="Z35" s="53">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA35">
         <v>0</v>
@@ -5691,11 +5684,8 @@
       <c r="AB35" t="s">
         <v>144</v>
       </c>
-      <c r="AC35" t="s">
-        <v>218</v>
-      </c>
       <c r="AD35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE35">
         <v>0</v>
@@ -5726,7 +5716,7 @@
       </c>
       <c r="AN35">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AO35">
         <v>0</v>
@@ -5745,17 +5735,17 @@
         <v>0</v>
       </c>
       <c r="AT35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU35">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AV35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C36" s="13"/>
       <c r="D36" s="12"/>
       <c r="E36" s="14"/>
@@ -5770,42 +5760,40 @@
       <c r="P36" s="59"/>
       <c r="Q36" s="39"/>
       <c r="S36" s="49">
-        <v>42815</v>
+        <v>0</v>
       </c>
       <c r="T36" s="50" t="s">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="U36" s="51" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="V36" s="43">
         <f t="shared" si="3"/>
-        <v>-122.5</v>
+        <v>79</v>
       </c>
       <c r="W36" s="52">
-        <v>75</v>
-      </c>
-      <c r="X36" s="52">
-        <v>80</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="X36" s="52"/>
       <c r="Z36" s="53">
         <f t="shared" si="0"/>
-        <v>277.5</v>
+        <v>21</v>
       </c>
       <c r="AA36">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="AC36" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AD36">
-        <v>12</v>
-      </c>
-      <c r="AE36" s="19">
-        <v>150</v>
+        <v>11</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -5833,36 +5821,36 @@
       </c>
       <c r="AN36">
         <f t="shared" si="6"/>
-        <v>55.5</v>
+        <v>10</v>
       </c>
       <c r="AO36">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ36">
         <v>0</v>
       </c>
       <c r="AR36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS36">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AT36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU36">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV36">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="37" spans="3:48" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C37" s="13"/>
       <c r="D37" s="12"/>
       <c r="E37" s="14"/>
@@ -5877,45 +5865,42 @@
       <c r="P37" s="59"/>
       <c r="Q37" s="39"/>
       <c r="S37" s="49">
-        <v>42816</v>
+        <v>42815</v>
       </c>
       <c r="T37" s="50" t="s">
-        <v>121</v>
+        <v>216</v>
       </c>
       <c r="U37" s="51" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="V37" s="43">
         <f t="shared" si="3"/>
-        <v>80.5</v>
+        <v>-122.5</v>
       </c>
       <c r="W37" s="52">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="X37" s="52">
-        <v>75</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="Z37" s="53">
         <f t="shared" si="0"/>
-        <v>99.5</v>
+        <v>277.5</v>
       </c>
       <c r="AA37">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB37" t="s">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="AC37" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AD37">
-        <v>20</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AE37" s="19">
+        <v>150</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -5943,13 +5928,13 @@
       </c>
       <c r="AN37">
         <f t="shared" si="6"/>
-        <v>9.5</v>
+        <v>55.5</v>
       </c>
       <c r="AO37">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AP37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>0</v>
@@ -5959,7 +5944,7 @@
       </c>
       <c r="AS37">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AT37">
         <v>0</v>
@@ -5969,10 +5954,10 @@
         <v>0</v>
       </c>
       <c r="AV37">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="38" spans="3:48" x14ac:dyDescent="0.25">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C38" s="13"/>
       <c r="D38" s="12"/>
       <c r="E38" s="14"/>
@@ -5987,42 +5972,42 @@
       <c r="P38" s="59"/>
       <c r="Q38" s="39"/>
       <c r="S38" s="49">
-        <v>42817</v>
+        <v>42816</v>
       </c>
       <c r="T38" s="50" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="U38" s="51" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="V38" s="43">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>80.5</v>
       </c>
       <c r="W38" s="52">
+        <v>105</v>
+      </c>
+      <c r="X38" s="52">
         <v>75</v>
       </c>
-      <c r="X38" s="52">
-        <v>40</v>
-      </c>
       <c r="Y38" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="Z38" s="53">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>99.5</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB38" t="s">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c r="AC38" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AD38">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE38">
         <v>0</v>
@@ -6053,23 +6038,23 @@
       </c>
       <c r="AN38">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>9.5</v>
       </c>
       <c r="AO38">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AP38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AQ38">
         <v>0</v>
       </c>
       <c r="AR38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS38">
         <f t="shared" si="7"/>
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="AT38">
         <v>0</v>
@@ -6079,10 +6064,10 @@
         <v>0</v>
       </c>
       <c r="AV38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="3:48" x14ac:dyDescent="0.25">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
       <c r="E39" s="14"/>
@@ -6097,45 +6082,45 @@
       <c r="P39" s="59"/>
       <c r="Q39" s="39"/>
       <c r="S39" s="49">
-        <v>42818</v>
+        <v>42817</v>
       </c>
       <c r="T39" s="50" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="U39" s="51" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="V39" s="43">
         <f t="shared" si="3"/>
-        <v>-126</v>
+        <v>65</v>
       </c>
       <c r="W39" s="52">
         <v>75</v>
       </c>
       <c r="X39" s="52">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="Y39" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="Z39" s="53">
         <f t="shared" si="0"/>
-        <v>328</v>
+        <v>50</v>
       </c>
       <c r="AA39">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="AB39" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AC39" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AD39">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="AE39">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -6163,23 +6148,23 @@
       </c>
       <c r="AN39">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AO39">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AP39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ39">
         <v>0</v>
       </c>
       <c r="AR39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS39">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="AT39">
         <v>0</v>
@@ -6189,10 +6174,10 @@
         <v>0</v>
       </c>
       <c r="AV39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="3:48" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
       <c r="E40" s="14"/>
@@ -6207,40 +6192,45 @@
       <c r="P40" s="59"/>
       <c r="Q40" s="39"/>
       <c r="S40" s="49">
-        <v>42819</v>
+        <v>42818</v>
       </c>
       <c r="T40" s="50" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="U40" s="51" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="V40" s="43">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>-126</v>
       </c>
       <c r="W40" s="52">
-        <v>120</v>
-      </c>
-      <c r="X40" s="52"/>
+        <v>75</v>
+      </c>
+      <c r="X40" s="52">
+        <v>127</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>234</v>
+      </c>
       <c r="Z40" s="53">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>328</v>
       </c>
       <c r="AA40">
-        <v>25</v>
+        <v>260</v>
       </c>
       <c r="AB40" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AC40" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="AD40">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -6268,23 +6258,23 @@
       </c>
       <c r="AN40">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AO40">
         <v>20</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS40">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AT40">
         <v>0</v>
@@ -6294,10 +6284,10 @@
         <v>0</v>
       </c>
       <c r="AV40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="3:48" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
       <c r="E41" s="14"/>
@@ -6312,36 +6302,37 @@
       <c r="P41" s="59"/>
       <c r="Q41" s="39"/>
       <c r="S41" s="49">
-        <v>42820</v>
+        <v>42819</v>
       </c>
       <c r="T41" s="50" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U41" s="51" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="V41" s="43">
         <f t="shared" si="3"/>
-        <v>-10</v>
+        <v>25</v>
       </c>
       <c r="W41" s="52">
-        <v>0</v>
-      </c>
-      <c r="X41" s="52">
-        <v>0</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="X41" s="52"/>
       <c r="Z41" s="53">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="AA41">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>242</v>
       </c>
       <c r="AC41" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AD41">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AE41">
         <v>0</v>
@@ -6372,21 +6363,36 @@
       </c>
       <c r="AN41">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO41">
+        <v>20</v>
+      </c>
+      <c r="AP41">
+        <v>1</v>
+      </c>
+      <c r="AQ41">
+        <v>2</v>
+      </c>
+      <c r="AR41">
         <v>0</v>
       </c>
       <c r="AS41">
         <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="AT41">
         <v>0</v>
       </c>
       <c r="AU41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AV41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
       <c r="E42" s="14"/>
@@ -6401,26 +6407,36 @@
       <c r="P42" s="59"/>
       <c r="Q42" s="39"/>
       <c r="S42" s="49">
-        <v>42821</v>
+        <v>42820</v>
       </c>
       <c r="T42" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="U42" s="51"/>
+        <v>107</v>
+      </c>
+      <c r="U42" s="51" t="s">
+        <v>197</v>
+      </c>
       <c r="V42" s="43">
         <f t="shared" si="3"/>
-        <v>125</v>
+        <v>-10</v>
       </c>
       <c r="W42" s="52">
-        <v>125</v>
-      </c>
-      <c r="X42" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="X42" s="52">
+        <v>0</v>
+      </c>
       <c r="Z42" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>241</v>
       </c>
       <c r="AD42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE42">
         <v>0</v>
@@ -6453,16 +6469,34 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <v>0</v>
+      </c>
       <c r="AS42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
       <c r="AU42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AV42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
       <c r="E43" s="14"/>
@@ -6477,19 +6511,25 @@
       <c r="P43" s="59"/>
       <c r="Q43" s="39"/>
       <c r="S43" s="49">
-        <v>42822</v>
-      </c>
-      <c r="T43" s="50"/>
-      <c r="U43" s="51"/>
+        <v>42821</v>
+      </c>
+      <c r="T43" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="U43" s="51" t="s">
+        <v>247</v>
+      </c>
       <c r="V43" s="43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W43" s="52"/>
+        <v>114.5</v>
+      </c>
+      <c r="W43" s="52">
+        <v>125</v>
+      </c>
       <c r="X43" s="52"/>
       <c r="Z43" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD43">
         <v>0</v>
@@ -6523,7 +6563,7 @@
       </c>
       <c r="AN43">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AS43">
         <f t="shared" si="7"/>
@@ -6533,8 +6573,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AV43">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
       <c r="E44" s="14"/>
@@ -6549,9 +6592,11 @@
       <c r="P44" s="59"/>
       <c r="Q44" s="39"/>
       <c r="S44" s="49">
-        <v>42823</v>
-      </c>
-      <c r="T44" s="50"/>
+        <v>42822</v>
+      </c>
+      <c r="T44" s="50" t="s">
+        <v>114</v>
+      </c>
       <c r="U44" s="51"/>
       <c r="V44" s="43">
         <f t="shared" si="3"/>
@@ -6606,7 +6651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C45" s="13"/>
       <c r="D45" s="12"/>
       <c r="E45" s="14"/>
@@ -6621,9 +6666,11 @@
       <c r="P45" s="59"/>
       <c r="Q45" s="39"/>
       <c r="S45" s="49">
-        <v>42824</v>
-      </c>
-      <c r="T45" s="50"/>
+        <v>42823</v>
+      </c>
+      <c r="T45" s="50" t="s">
+        <v>248</v>
+      </c>
       <c r="U45" s="51"/>
       <c r="V45" s="43">
         <f t="shared" si="3"/>
@@ -6678,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C46" s="13"/>
       <c r="D46" s="12"/>
       <c r="E46" s="14"/>
@@ -6693,10 +6740,12 @@
       <c r="P46" s="59"/>
       <c r="Q46" s="39"/>
       <c r="S46" s="49">
-        <v>42825</v>
-      </c>
-      <c r="T46" s="50"/>
-      <c r="U46" s="51"/>
+        <v>42824</v>
+      </c>
+      <c r="T46" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="U46" s="74"/>
       <c r="V46" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6750,7 +6799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C47" s="13"/>
       <c r="D47" s="12"/>
       <c r="E47" s="14"/>
@@ -6764,8 +6813,12 @@
       <c r="O47" s="59"/>
       <c r="P47" s="59"/>
       <c r="Q47" s="39"/>
-      <c r="S47" s="50"/>
-      <c r="T47" s="50"/>
+      <c r="S47" s="49">
+        <v>42825</v>
+      </c>
+      <c r="T47" s="50" t="s">
+        <v>83</v>
+      </c>
       <c r="U47" s="51"/>
       <c r="V47" s="43">
         <f t="shared" si="3"/>
@@ -6820,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C48" s="13"/>
       <c r="D48" s="12"/>
       <c r="E48" s="14"/>
@@ -8174,7 +8227,7 @@
       <c r="W67" s="52"/>
       <c r="X67" s="52"/>
       <c r="Z67" s="53">
-        <f t="shared" ref="Z67:Z130" si="9">SUM(AA67,AD67,AE67,AF67,AG67,AH67,AI67,AJ67,AK67,AL67,AM67,AN67)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD67">
@@ -8238,13 +8291,13 @@
       <c r="T68" s="50"/>
       <c r="U68" s="51"/>
       <c r="V68" s="43">
-        <f t="shared" ref="V68:V131" si="10">(SUM(W68,X68))-Z68</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W68" s="52"/>
       <c r="X68" s="52"/>
       <c r="Z68" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="Z68:Z131" si="9">SUM(AA68,AD68,AE68,AF68,AG68,AH68,AI68,AJ68,AK68,AL68,AM68,AN68)</f>
         <v>0</v>
       </c>
       <c r="AD68">
@@ -8286,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="AU68">
-        <f t="shared" ref="AU68:AU131" si="11">AT68*5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8308,7 +8361,7 @@
       <c r="T69" s="50"/>
       <c r="U69" s="51"/>
       <c r="V69" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="V69:V132" si="10">(SUM(W69,X69))-Z69</f>
         <v>0</v>
       </c>
       <c r="W69" s="52"/>
@@ -8356,7 +8409,7 @@
         <v>0</v>
       </c>
       <c r="AU69">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AU69:AU132" si="11">AT69*5</f>
         <v>0</v>
       </c>
     </row>
@@ -9468,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="AN85">
-        <f t="shared" ref="AN85:AN148" si="12">SUM(AO85,AV85,AU85)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AS85">
@@ -9538,11 +9591,11 @@
         <v>0</v>
       </c>
       <c r="AN86">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="AN86:AN149" si="12">SUM(AO86,AV86,AU86)</f>
         <v>0</v>
       </c>
       <c r="AS86">
-        <f t="shared" ref="AS86:AS149" si="13">(AP86*6)+(AQ86*8)+(AR86*5)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AU86">
@@ -9612,7 +9665,7 @@
         <v>0</v>
       </c>
       <c r="AS87">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="AS87:AS150" si="13">(AP87*6)+(AQ87*8)+(AR87*5)</f>
         <v>0</v>
       </c>
       <c r="AU87">
@@ -12654,7 +12707,7 @@
       <c r="W131" s="52"/>
       <c r="X131" s="52"/>
       <c r="Z131" s="53">
-        <f t="shared" ref="Z131:Z194" si="14">SUM(AA131,AD131,AE131,AF131,AG131,AH131,AI131,AJ131,AK131,AL131,AM131,AN131)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD131">
@@ -12718,13 +12771,13 @@
       <c r="T132" s="50"/>
       <c r="U132" s="51"/>
       <c r="V132" s="43">
-        <f t="shared" ref="V132:V195" si="15">(SUM(W132,X132))-Z132</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W132" s="52"/>
       <c r="X132" s="52"/>
       <c r="Z132" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="Z132:Z195" si="14">SUM(AA132,AD132,AE132,AF132,AG132,AH132,AI132,AJ132,AK132,AL132,AM132,AN132)</f>
         <v>0</v>
       </c>
       <c r="AD132">
@@ -12766,7 +12819,7 @@
         <v>0</v>
       </c>
       <c r="AU132">
-        <f t="shared" ref="AU132:AU195" si="16">AT132*5</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12788,7 +12841,7 @@
       <c r="T133" s="50"/>
       <c r="U133" s="51"/>
       <c r="V133" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="V133:V196" si="15">(SUM(W133,X133))-Z133</f>
         <v>0</v>
       </c>
       <c r="W133" s="52"/>
@@ -12836,7 +12889,7 @@
         <v>0</v>
       </c>
       <c r="AU133">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="AU133:AU196" si="16">AT133*5</f>
         <v>0</v>
       </c>
     </row>
@@ -13948,7 +14001,7 @@
         <v>0</v>
       </c>
       <c r="AN149">
-        <f t="shared" ref="AN149:AN212" si="17">SUM(AO149,AV149,AU149)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AS149">
@@ -14018,11 +14071,11 @@
         <v>0</v>
       </c>
       <c r="AN150">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="AN150:AN213" si="17">SUM(AO150,AV150,AU150)</f>
         <v>0</v>
       </c>
       <c r="AS150">
-        <f t="shared" ref="AS150:AS213" si="18">(AP150*6)+(AQ150*8)+(AR150*5)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AU150">
@@ -14092,7 +14145,7 @@
         <v>0</v>
       </c>
       <c r="AS151">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="AS151:AS214" si="18">(AP151*6)+(AQ151*8)+(AR151*5)</f>
         <v>0</v>
       </c>
       <c r="AU151">
@@ -17134,7 +17187,7 @@
       <c r="W195" s="52"/>
       <c r="X195" s="52"/>
       <c r="Z195" s="53">
-        <f t="shared" ref="Z195:Z258" si="19">SUM(AA195,AD195,AE195,AF195,AG195,AH195,AI195,AJ195,AK195,AL195,AM195,AN195)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD195">
@@ -17198,13 +17251,13 @@
       <c r="T196" s="50"/>
       <c r="U196" s="51"/>
       <c r="V196" s="43">
-        <f t="shared" ref="V196:V259" si="20">(SUM(W196,X196))-Z196</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W196" s="52"/>
       <c r="X196" s="52"/>
       <c r="Z196" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="Z196:Z259" si="19">SUM(AA196,AD196,AE196,AF196,AG196,AH196,AI196,AJ196,AK196,AL196,AM196,AN196)</f>
         <v>0</v>
       </c>
       <c r="AD196">
@@ -17246,7 +17299,7 @@
         <v>0</v>
       </c>
       <c r="AU196">
-        <f t="shared" ref="AU196:AU259" si="21">AT196*5</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -17268,7 +17321,7 @@
       <c r="T197" s="50"/>
       <c r="U197" s="51"/>
       <c r="V197" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="V197:V260" si="20">(SUM(W197,X197))-Z197</f>
         <v>0</v>
       </c>
       <c r="W197" s="52"/>
@@ -17316,7 +17369,7 @@
         <v>0</v>
       </c>
       <c r="AU197">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="AU197:AU260" si="21">AT197*5</f>
         <v>0</v>
       </c>
     </row>
@@ -18428,7 +18481,7 @@
         <v>0</v>
       </c>
       <c r="AN213">
-        <f t="shared" ref="AN213:AN276" si="22">SUM(AO213,AV213,AU213)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AS213">
@@ -18498,11 +18551,11 @@
         <v>0</v>
       </c>
       <c r="AN214">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="AN214:AN277" si="22">SUM(AO214,AV214,AU214)</f>
         <v>0</v>
       </c>
       <c r="AS214">
-        <f t="shared" ref="AS214:AS277" si="23">(AP214*6)+(AQ214*8)+(AR214*5)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AU214">
@@ -18572,7 +18625,7 @@
         <v>0</v>
       </c>
       <c r="AS215">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="AS215:AS278" si="23">(AP215*6)+(AQ215*8)+(AR215*5)</f>
         <v>0</v>
       </c>
       <c r="AU215">
@@ -21614,7 +21667,7 @@
       <c r="W259" s="52"/>
       <c r="X259" s="52"/>
       <c r="Z259" s="53">
-        <f t="shared" ref="Z259:Z322" si="24">SUM(AA259,AD259,AE259,AF259,AG259,AH259,AI259,AJ259,AK259,AL259,AM259,AN259)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AD259">
@@ -21678,13 +21731,13 @@
       <c r="T260" s="50"/>
       <c r="U260" s="51"/>
       <c r="V260" s="43">
-        <f t="shared" ref="V260:V323" si="25">(SUM(W260,X260))-Z260</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W260" s="52"/>
       <c r="X260" s="52"/>
       <c r="Z260" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="Z260:Z323" si="24">SUM(AA260,AD260,AE260,AF260,AG260,AH260,AI260,AJ260,AK260,AL260,AM260,AN260)</f>
         <v>0</v>
       </c>
       <c r="AD260">
@@ -21726,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="AU260">
-        <f t="shared" ref="AU260:AU323" si="26">AT260*5</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21748,7 +21801,7 @@
       <c r="T261" s="50"/>
       <c r="U261" s="51"/>
       <c r="V261" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="V261:V324" si="25">(SUM(W261,X261))-Z261</f>
         <v>0</v>
       </c>
       <c r="W261" s="52"/>
@@ -21796,7 +21849,7 @@
         <v>0</v>
       </c>
       <c r="AU261">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="AU261:AU324" si="26">AT261*5</f>
         <v>0</v>
       </c>
     </row>
@@ -22908,7 +22961,7 @@
         <v>0</v>
       </c>
       <c r="AN277">
-        <f t="shared" ref="AN277:AN340" si="27">SUM(AO277,AV277,AU277)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AS277">
@@ -22978,11 +23031,11 @@
         <v>0</v>
       </c>
       <c r="AN278">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="AN278:AN341" si="27">SUM(AO278,AV278,AU278)</f>
         <v>0</v>
       </c>
       <c r="AS278">
-        <f t="shared" ref="AS278:AS341" si="28">(AP278*6)+(AQ278*8)+(AR278*5)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AU278">
@@ -23052,7 +23105,7 @@
         <v>0</v>
       </c>
       <c r="AS279">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="AS279:AS342" si="28">(AP279*6)+(AQ279*8)+(AR279*5)</f>
         <v>0</v>
       </c>
       <c r="AU279">
@@ -23627,13 +23680,13 @@
       <c r="G288" s="59"/>
       <c r="H288" s="59"/>
       <c r="I288" s="59"/>
-      <c r="J288" s="26"/>
-      <c r="K288" s="14"/>
-      <c r="L288" s="22"/>
+      <c r="J288" s="24"/>
+      <c r="K288" s="23"/>
+      <c r="L288" s="21"/>
       <c r="N288" s="59"/>
       <c r="O288" s="59"/>
       <c r="P288" s="59"/>
-      <c r="Q288" s="37"/>
+      <c r="Q288" s="39"/>
       <c r="S288" s="50"/>
       <c r="T288" s="50"/>
       <c r="U288" s="51"/>
@@ -25723,6 +25776,7 @@
     <row r="318" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C318" s="13"/>
       <c r="D318" s="12"/>
+      <c r="E318" s="14"/>
       <c r="G318" s="59"/>
       <c r="H318" s="59"/>
       <c r="I318" s="59"/>
@@ -26088,7 +26142,7 @@
       <c r="W323" s="52"/>
       <c r="X323" s="52"/>
       <c r="Z323" s="53">
-        <f t="shared" ref="Z323:Z386" si="29">SUM(AA323,AD323,AE323,AF323,AG323,AH323,AI323,AJ323,AK323,AL323,AM323,AN323)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AD323">
@@ -26151,13 +26205,13 @@
       <c r="T324" s="50"/>
       <c r="U324" s="51"/>
       <c r="V324" s="43">
-        <f t="shared" ref="V324:V387" si="30">(SUM(W324,X324))-Z324</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W324" s="52"/>
       <c r="X324" s="52"/>
       <c r="Z324" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="Z324:Z387" si="29">SUM(AA324,AD324,AE324,AF324,AG324,AH324,AI324,AJ324,AK324,AL324,AM324,AN324)</f>
         <v>0</v>
       </c>
       <c r="AD324">
@@ -26199,7 +26253,7 @@
         <v>0</v>
       </c>
       <c r="AU324">
-        <f t="shared" ref="AU324:AU387" si="31">AT324*5</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -26220,7 +26274,7 @@
       <c r="T325" s="50"/>
       <c r="U325" s="51"/>
       <c r="V325" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="V325:V388" si="30">(SUM(W325,X325))-Z325</f>
         <v>0</v>
       </c>
       <c r="W325" s="52"/>
@@ -26268,7 +26322,7 @@
         <v>0</v>
       </c>
       <c r="AU325">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="AU325:AU388" si="31">AT325*5</f>
         <v>0</v>
       </c>
     </row>
@@ -27364,7 +27418,7 @@
         <v>0</v>
       </c>
       <c r="AN341">
-        <f t="shared" ref="AN341:AN404" si="32">SUM(AO341,AV341,AU341)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AS341">
@@ -27433,11 +27487,11 @@
         <v>0</v>
       </c>
       <c r="AN342">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="AN342:AN405" si="32">SUM(AO342,AV342,AU342)</f>
         <v>0</v>
       </c>
       <c r="AS342">
-        <f t="shared" ref="AS342:AS405" si="33">(AP342*6)+(AQ342*8)+(AR342*5)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AU342">
@@ -27506,7 +27560,7 @@
         <v>0</v>
       </c>
       <c r="AS343">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="AS343:AS406" si="33">(AP343*6)+(AQ343*8)+(AR343*5)</f>
         <v>0</v>
       </c>
       <c r="AU343">
@@ -28279,7 +28333,7 @@
       <c r="G355" s="59"/>
       <c r="H355" s="59"/>
       <c r="I355" s="59"/>
-      <c r="J355" s="25"/>
+      <c r="J355" s="26"/>
       <c r="K355" s="14"/>
       <c r="L355" s="22"/>
       <c r="N355" s="59"/>
@@ -29654,7 +29708,7 @@
       </c>
     </row>
     <row r="375" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="C375" s="11"/>
+      <c r="C375" s="13"/>
       <c r="D375" s="12"/>
       <c r="G375" s="59"/>
       <c r="H375" s="59"/>
@@ -29932,6 +29986,9 @@
     <row r="379" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C379" s="11"/>
       <c r="D379" s="12"/>
+      <c r="G379" s="59"/>
+      <c r="H379" s="59"/>
+      <c r="I379" s="59"/>
       <c r="J379" s="25"/>
       <c r="K379" s="14"/>
       <c r="L379" s="22"/>
@@ -30477,7 +30534,7 @@
       <c r="W387" s="52"/>
       <c r="X387" s="52"/>
       <c r="Z387" s="53">
-        <f t="shared" ref="Z387:Z450" si="34">SUM(AA387,AD387,AE387,AF387,AG387,AH387,AI387,AJ387,AK387,AL387,AM387,AN387)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AD387">
@@ -30537,13 +30594,13 @@
       <c r="T388" s="50"/>
       <c r="U388" s="51"/>
       <c r="V388" s="43">
-        <f t="shared" ref="V388:V451" si="35">(SUM(W388,X388))-Z388</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W388" s="52"/>
       <c r="X388" s="52"/>
       <c r="Z388" s="53">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="Z388:Z451" si="34">SUM(AA388,AD388,AE388,AF388,AG388,AH388,AI388,AJ388,AK388,AL388,AM388,AN388)</f>
         <v>0</v>
       </c>
       <c r="AD388">
@@ -30585,7 +30642,7 @@
         <v>0</v>
       </c>
       <c r="AU388">
-        <f t="shared" ref="AU388:AU451" si="36">AT388*5</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -30603,7 +30660,7 @@
       <c r="T389" s="50"/>
       <c r="U389" s="51"/>
       <c r="V389" s="43">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="V389:V452" si="35">(SUM(W389,X389))-Z389</f>
         <v>0</v>
       </c>
       <c r="W389" s="52"/>
@@ -30651,7 +30708,7 @@
         <v>0</v>
       </c>
       <c r="AU389">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="AU389:AU452" si="36">AT389*5</f>
         <v>0</v>
       </c>
     </row>
@@ -31517,6 +31574,7 @@
       <c r="C403" s="11"/>
       <c r="D403" s="12"/>
       <c r="J403" s="25"/>
+      <c r="K403" s="14"/>
       <c r="L403" s="22"/>
       <c r="N403" s="59"/>
       <c r="O403" s="59"/>
@@ -31696,7 +31754,7 @@
         <v>0</v>
       </c>
       <c r="AN405">
-        <f t="shared" ref="AN405:AN468" si="37">SUM(AO405,AV405,AU405)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AS405">
@@ -31761,11 +31819,11 @@
         <v>0</v>
       </c>
       <c r="AN406">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="AN406:AN469" si="37">SUM(AO406,AV406,AU406)</f>
         <v>0</v>
       </c>
       <c r="AS406">
-        <f t="shared" ref="AS406:AS469" si="38">(AP406*6)+(AQ406*8)+(AR406*5)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AU406">
@@ -31830,7 +31888,7 @@
         <v>0</v>
       </c>
       <c r="AS407">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="AS407:AS470" si="38">(AP407*6)+(AQ407*8)+(AR407*5)</f>
         <v>0</v>
       </c>
       <c r="AU407">
@@ -32752,6 +32810,7 @@
       <c r="C422" s="11"/>
       <c r="D422" s="12"/>
       <c r="J422" s="25"/>
+      <c r="L422" s="22"/>
       <c r="N422" s="59"/>
       <c r="O422" s="59"/>
       <c r="P422" s="59"/>
@@ -34159,6 +34218,7 @@
     <row r="444" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C444" s="11"/>
       <c r="D444" s="12"/>
+      <c r="J444" s="25"/>
       <c r="N444" s="59"/>
       <c r="O444" s="59"/>
       <c r="P444" s="59"/>
@@ -34603,6 +34663,7 @@
       <c r="N451" s="59"/>
       <c r="O451" s="59"/>
       <c r="P451" s="59"/>
+      <c r="Q451" s="37"/>
       <c r="S451" s="50"/>
       <c r="T451" s="50"/>
       <c r="U451" s="51"/>
@@ -34613,7 +34674,7 @@
       <c r="W451" s="52"/>
       <c r="X451" s="52"/>
       <c r="Z451" s="53">
-        <f t="shared" ref="Z451:Z514" si="39">SUM(AA451,AD451,AE451,AF451,AG451,AH451,AI451,AJ451,AK451,AL451,AM451,AN451)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AD451">
@@ -34669,13 +34730,13 @@
       <c r="T452" s="50"/>
       <c r="U452" s="51"/>
       <c r="V452" s="43">
-        <f t="shared" ref="V452:V515" si="40">(SUM(W452,X452))-Z452</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="W452" s="52"/>
       <c r="X452" s="52"/>
       <c r="Z452" s="53">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="Z452:Z515" si="39">SUM(AA452,AD452,AE452,AF452,AG452,AH452,AI452,AJ452,AK452,AL452,AM452,AN452)</f>
         <v>0</v>
       </c>
       <c r="AD452">
@@ -34717,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="AU452">
-        <f t="shared" ref="AU452:AU515" si="41">AT452*5</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -34731,7 +34792,7 @@
       <c r="T453" s="50"/>
       <c r="U453" s="51"/>
       <c r="V453" s="43">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="V453:V516" si="40">(SUM(W453,X453))-Z453</f>
         <v>0</v>
       </c>
       <c r="W453" s="52"/>
@@ -34779,7 +34840,7 @@
         <v>0</v>
       </c>
       <c r="AU453">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="AU453:AU516" si="41">AT453*5</f>
         <v>0</v>
       </c>
     </row>
@@ -35280,6 +35341,7 @@
       </c>
     </row>
     <row r="462" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="C462" s="11"/>
       <c r="D462" s="12"/>
       <c r="N462" s="59"/>
       <c r="O462" s="59"/>
@@ -35755,7 +35817,7 @@
         <v>0</v>
       </c>
       <c r="AN469">
-        <f t="shared" ref="AN469:AN532" si="42">SUM(AO469,AV469,AU469)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AS469">
@@ -35816,11 +35878,11 @@
         <v>0</v>
       </c>
       <c r="AN470">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="AN470:AN533" si="42">SUM(AO470,AV470,AU470)</f>
         <v>0</v>
       </c>
       <c r="AS470">
-        <f t="shared" ref="AS470:AS533" si="43">(AP470*6)+(AQ470*8)+(AR470*5)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AU470">
@@ -35881,7 +35943,7 @@
         <v>0</v>
       </c>
       <c r="AS471">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="AS471:AS534" si="43">(AP471*6)+(AQ471*8)+(AR471*5)</f>
         <v>0</v>
       </c>
       <c r="AU471">
@@ -36562,6 +36624,9 @@
     </row>
     <row r="483" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D483" s="12"/>
+      <c r="N483" s="59"/>
+      <c r="O483" s="59"/>
+      <c r="P483" s="59"/>
       <c r="S483" s="50"/>
       <c r="T483" s="50"/>
       <c r="U483" s="51"/>
@@ -38428,7 +38493,7 @@
       <c r="W515" s="52"/>
       <c r="X515" s="52"/>
       <c r="Z515" s="53">
-        <f t="shared" ref="Z515:Z578" si="44">SUM(AA515,AD515,AE515,AF515,AG515,AH515,AI515,AJ515,AK515,AL515,AM515,AN515)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AD515">
@@ -38475,17 +38540,18 @@
       </c>
     </row>
     <row r="516" spans="4:47" x14ac:dyDescent="0.25">
+      <c r="D516" s="12"/>
       <c r="S516" s="50"/>
       <c r="T516" s="50"/>
       <c r="U516" s="51"/>
       <c r="V516" s="43">
-        <f t="shared" ref="V516:V520" si="45">(SUM(W516,X516))-Z516</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W516" s="52"/>
       <c r="X516" s="52"/>
       <c r="Z516" s="53">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="Z516:Z579" si="44">SUM(AA516,AD516,AE516,AF516,AG516,AH516,AI516,AJ516,AK516,AL516,AM516,AN516)</f>
         <v>0</v>
       </c>
       <c r="AD516">
@@ -38527,7 +38593,7 @@
         <v>0</v>
       </c>
       <c r="AU516">
-        <f t="shared" ref="AU516:AU579" si="46">AT516*5</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -38536,7 +38602,7 @@
       <c r="T517" s="50"/>
       <c r="U517" s="51"/>
       <c r="V517" s="43">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="V517:V521" si="45">(SUM(W517,X517))-Z517</f>
         <v>0</v>
       </c>
       <c r="W517" s="52"/>
@@ -38584,7 +38650,7 @@
         <v>0</v>
       </c>
       <c r="AU517">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="AU517:AU580" si="46">AT517*5</f>
         <v>0</v>
       </c>
     </row>
@@ -38760,6 +38826,15 @@
       </c>
     </row>
     <row r="521" spans="4:47" x14ac:dyDescent="0.25">
+      <c r="S521" s="50"/>
+      <c r="T521" s="50"/>
+      <c r="U521" s="51"/>
+      <c r="V521" s="43">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="W521" s="52"/>
+      <c r="X521" s="52"/>
       <c r="Z521" s="53">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -39371,7 +39446,7 @@
         <v>0</v>
       </c>
       <c r="AN533">
-        <f t="shared" ref="AN533:AN596" si="47">SUM(AO533,AV533,AU533)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AS533">
@@ -39419,11 +39494,11 @@
         <v>0</v>
       </c>
       <c r="AN534">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="AN534:AN597" si="47">SUM(AO534,AV534,AU534)</f>
         <v>0</v>
       </c>
       <c r="AS534">
-        <f t="shared" ref="AS534:AS597" si="48">(AP534*6)+(AQ534*8)+(AR534*5)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AU534">
@@ -39471,7 +39546,7 @@
         <v>0</v>
       </c>
       <c r="AS535">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="AS535:AS598" si="48">(AP535*6)+(AQ535*8)+(AR535*5)</f>
         <v>0</v>
       </c>
       <c r="AU535">
@@ -41544,6 +41619,40 @@
       </c>
     </row>
     <row r="579" spans="26:47" x14ac:dyDescent="0.25">
+      <c r="Z579" s="53">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AD579">
+        <v>0</v>
+      </c>
+      <c r="AE579">
+        <v>0</v>
+      </c>
+      <c r="AF579">
+        <v>0</v>
+      </c>
+      <c r="AG579">
+        <v>0</v>
+      </c>
+      <c r="AH579">
+        <v>0</v>
+      </c>
+      <c r="AI579">
+        <v>0</v>
+      </c>
+      <c r="AJ579">
+        <v>0</v>
+      </c>
+      <c r="AK579">
+        <v>0</v>
+      </c>
+      <c r="AL579">
+        <v>0</v>
+      </c>
+      <c r="AM579">
+        <v>0</v>
+      </c>
       <c r="AN579">
         <f t="shared" si="47"/>
         <v>0</v>
@@ -41567,7 +41676,7 @@
         <v>0</v>
       </c>
       <c r="AU580">
-        <f t="shared" ref="AU580:AU593" si="49">AT580*5</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -41581,7 +41690,7 @@
         <v>0</v>
       </c>
       <c r="AU581">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="AU581:AU594" si="49">AT581*5</f>
         <v>0</v>
       </c>
     </row>
@@ -41762,6 +41871,10 @@
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
+      <c r="AU594">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="595" spans="40:47" x14ac:dyDescent="0.25">
       <c r="AN595">
@@ -41785,7 +41898,7 @@
     </row>
     <row r="597" spans="40:47" x14ac:dyDescent="0.25">
       <c r="AN597">
-        <f t="shared" ref="AN597:AN598" si="50">SUM(AO597,AV597,AU597)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AS597">
@@ -41795,17 +41908,21 @@
     </row>
     <row r="598" spans="40:47" x14ac:dyDescent="0.25">
       <c r="AN598">
+        <f t="shared" ref="AN598:AN599" si="50">SUM(AO598,AV598,AU598)</f>
+        <v>0</v>
+      </c>
+      <c r="AS598">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="40:47" x14ac:dyDescent="0.25">
+      <c r="AN599">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="AS598">
-        <f t="shared" ref="AS598:AS661" si="51">(AP598*6)+(AQ598*8)+(AR598*5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="599" spans="40:47" x14ac:dyDescent="0.25">
       <c r="AS599">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="AS599:AS662" si="51">(AP599*6)+(AQ599*8)+(AR599*5)</f>
         <v>0</v>
       </c>
     </row>
@@ -42183,13 +42300,13 @@
     </row>
     <row r="662" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS662">
-        <f t="shared" ref="AS662:AS725" si="52">(AP662*6)+(AQ662*8)+(AR662*5)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
     <row r="663" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS663">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="AS663:AS726" si="52">(AP663*6)+(AQ663*8)+(AR663*5)</f>
         <v>0</v>
       </c>
     </row>
@@ -42567,13 +42684,13 @@
     </row>
     <row r="726" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS726">
-        <f t="shared" ref="AS726:AS789" si="53">(AP726*6)+(AQ726*8)+(AR726*5)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
     <row r="727" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS727">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="AS727:AS790" si="53">(AP727*6)+(AQ727*8)+(AR727*5)</f>
         <v>0</v>
       </c>
     </row>
@@ -42951,13 +43068,13 @@
     </row>
     <row r="790" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS790">
-        <f t="shared" ref="AS790:AS853" si="54">(AP790*6)+(AQ790*8)+(AR790*5)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
     <row r="791" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS791">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="AS791:AS854" si="54">(AP791*6)+(AQ791*8)+(AR791*5)</f>
         <v>0</v>
       </c>
     </row>
@@ -43335,13 +43452,13 @@
     </row>
     <row r="854" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS854">
-        <f t="shared" ref="AS854:AS917" si="55">(AP854*6)+(AQ854*8)+(AR854*5)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
     <row r="855" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS855">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="AS855:AS918" si="55">(AP855*6)+(AQ855*8)+(AR855*5)</f>
         <v>0</v>
       </c>
     </row>
@@ -43719,13 +43836,13 @@
     </row>
     <row r="918" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS918">
-        <f t="shared" ref="AS918:AS964" si="56">(AP918*6)+(AQ918*8)+(AR918*5)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
     <row r="919" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS919">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="AS919:AS965" si="56">(AP919*6)+(AQ919*8)+(AR919*5)</f>
         <v>0</v>
       </c>
     </row>
@@ -43995,6 +44112,12 @@
     </row>
     <row r="964" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS964">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="965" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS965">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>

--- a/Finanzas/Febrero_2017.xlsx
+++ b/Finanzas/Febrero_2017.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="254">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -787,6 +787,18 @@
   <si>
     <t>Uber desde Casa de Manu</t>
   </si>
+  <si>
+    <t>Tramites Jaime</t>
+  </si>
+  <si>
+    <t>Comida China</t>
+  </si>
+  <si>
+    <t>Copias; Formato Permiso; Agua mineral</t>
+  </si>
+  <si>
+    <t>Formato</t>
+  </si>
 </sst>
 </file>
 
@@ -1114,7 +1126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1266,6 +1278,7 @@
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1560,10 +1573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE965"/>
+  <dimension ref="A1:BE964"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="U44" sqref="U44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,7 +1776,7 @@
         <v>7</v>
       </c>
       <c r="L3" s="27">
-        <f>(SUM(C2,(E11:E501),(K11:K501)))-(SUM((D11:D501),(C11:C501)))</f>
+        <f>(SUM(C2,(E11:E501),(K11:K500)))-(SUM((D11:D501),(C11:C501)))</f>
         <v>4913.3500000000004</v>
       </c>
       <c r="M3" s="5"/>
@@ -1786,7 +1799,7 @@
         <v>100</v>
       </c>
       <c r="Z3" s="53">
-        <f t="shared" ref="Z3:Z67" si="0">SUM(AA3,AD3,AE3,AF3,AG3,AH3,AI3,AJ3,AK3,AL3,AM3,AN3)</f>
+        <f t="shared" ref="Z3:Z66" si="0">SUM(AA3,AD3,AE3,AF3,AG3,AH3,AI3,AJ3,AK3,AL3,AM3,AN3)</f>
         <v>262.5</v>
       </c>
       <c r="AA3">
@@ -1879,8 +1892,8 @@
       <c r="M4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="5">
-        <f>SUM(L3,L9)</f>
+      <c r="N4" s="101">
+        <f>L3+L9</f>
         <v>29082.35</v>
       </c>
       <c r="S4" s="49">
@@ -1893,7 +1906,7 @@
         <v>105</v>
       </c>
       <c r="V4" s="43">
-        <f t="shared" ref="V4:V68" si="3">(SUM(W4,X4))-Z4</f>
+        <f t="shared" ref="V4:V67" si="3">(SUM(W4,X4))-Z4</f>
         <v>-70</v>
       </c>
       <c r="W4" s="52">
@@ -1967,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <f t="shared" ref="AU4:AU68" si="4">AT4*5</f>
+        <f t="shared" ref="AU4:AU67" si="4">AT4*5</f>
         <v>0</v>
       </c>
       <c r="AV4">
@@ -1978,8 +1991,8 @@
         <v>91</v>
       </c>
       <c r="AZ4" s="64">
-        <f>(SUM((AO3:AO521)))-(SUM((AS3:AS521)))</f>
-        <v>5</v>
+        <f>(SUM((AO3:AO520)))-(SUM((AS3:AS520)))</f>
+        <v>6</v>
       </c>
       <c r="BA4" s="64"/>
     </row>
@@ -2104,8 +2117,8 @@
         <v>9</v>
       </c>
       <c r="L6" s="54">
-        <f>(SUM((Q11:Q501),(V3:V521)))-(SUM(E11:E501))</f>
-        <v>202.5</v>
+        <f>(SUM((Q11:Q501),(V3:V520)))-(SUM(E11:E501))</f>
+        <v>155.5</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -2420,7 +2433,7 @@
         <v>25</v>
       </c>
       <c r="L9" s="15">
-        <f>SUM(L11:L501)</f>
+        <f>SUM(L11:L500)</f>
         <v>24169</v>
       </c>
       <c r="N9" s="35" t="s">
@@ -4065,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="AN21">
-        <f t="shared" ref="AN21:AN85" si="6">SUM(AO21,AV21,AU21)</f>
+        <f t="shared" ref="AN21:AN84" si="6">SUM(AO21,AV21,AU21)</f>
         <v>85.5</v>
       </c>
       <c r="AO21">
@@ -4204,7 +4217,7 @@
         <v>5</v>
       </c>
       <c r="AS22">
-        <f t="shared" ref="AS22:AS86" si="7">(AP22*6)+(AQ22*8)+(AR22*5)</f>
+        <f t="shared" ref="AS22:AS85" si="7">(AP22*6)+(AQ22*8)+(AR22*5)</f>
         <v>25</v>
       </c>
       <c r="AT22">
@@ -5005,7 +5018,7 @@
       </c>
       <c r="K29" s="23"/>
       <c r="L29" s="21">
-        <f t="shared" ref="L29:L34" si="8">J29-K29</f>
+        <f t="shared" ref="L29:L33" si="8">J29-K29</f>
         <v>10</v>
       </c>
       <c r="N29" s="59"/>
@@ -5491,25 +5504,117 @@
         <v>127.61</v>
       </c>
       <c r="E33" s="14"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="24"/>
+      <c r="G33" s="60">
+        <v>42802</v>
+      </c>
+      <c r="H33" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="I33" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="J33" s="24">
+        <v>200</v>
+      </c>
       <c r="K33" s="23"/>
-      <c r="L33" s="21"/>
+      <c r="L33" s="21">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
       <c r="N33" s="59"/>
       <c r="O33" s="59"/>
       <c r="P33" s="59"/>
       <c r="Q33" s="39"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="52"/>
+      <c r="S33" s="49">
+        <v>42812</v>
+      </c>
+      <c r="T33" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="U33" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="V33" s="43">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="W33" s="52">
+        <v>120</v>
+      </c>
       <c r="X33" s="52"/>
-      <c r="Z33" s="53"/>
-      <c r="AB33" s="40"/>
-      <c r="AT33" s="12"/>
+      <c r="Z33" s="53">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="AA33" s="91">
+        <v>62</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD33">
+        <v>12</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AO33">
+        <v>20</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>3</v>
+      </c>
+      <c r="AS33">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A34" s="34">
@@ -5523,59 +5628,45 @@
       <c r="E34" s="14">
         <v>500</v>
       </c>
-      <c r="G34" s="60">
-        <v>42802</v>
-      </c>
-      <c r="H34" s="59" t="s">
-        <v>237</v>
-      </c>
-      <c r="I34" s="59" t="s">
-        <v>239</v>
-      </c>
-      <c r="J34" s="24">
-        <v>200</v>
-      </c>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="24"/>
       <c r="K34" s="23"/>
-      <c r="L34" s="21">
-        <f t="shared" si="8"/>
-        <v>200</v>
-      </c>
+      <c r="L34" s="21"/>
       <c r="N34" s="59"/>
       <c r="O34" s="59"/>
       <c r="P34" s="59"/>
       <c r="Q34" s="39"/>
       <c r="S34" s="49">
-        <v>42812</v>
+        <v>42813</v>
       </c>
       <c r="T34" s="50" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="U34" s="51" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="V34" s="43">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="W34" s="52">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="X34" s="52"/>
       <c r="Z34" s="53">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="AA34" s="91">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
       </c>
       <c r="AB34" t="s">
-        <v>223</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c r="AD34">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AE34">
         <v>0</v>
@@ -5606,10 +5697,10 @@
       </c>
       <c r="AN34">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AO34">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP34">
         <v>0</v>
@@ -5618,11 +5709,11 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS34">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AT34">
         <v>0</v>
@@ -5658,25 +5749,25 @@
       <c r="P35" s="59"/>
       <c r="Q35" s="39"/>
       <c r="S35" s="49">
-        <v>42813</v>
+        <v>0</v>
       </c>
       <c r="T35" s="50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U35" s="51" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="V35" s="43">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="W35" s="52">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X35" s="52"/>
       <c r="Z35" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA35">
         <v>0</v>
@@ -5684,8 +5775,11 @@
       <c r="AB35" t="s">
         <v>144</v>
       </c>
+      <c r="AC35" t="s">
+        <v>218</v>
+      </c>
       <c r="AD35">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE35">
         <v>0</v>
@@ -5716,7 +5810,7 @@
       </c>
       <c r="AN35">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO35">
         <v>0</v>
@@ -5735,11 +5829,11 @@
         <v>0</v>
       </c>
       <c r="AT35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU35">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV35">
         <v>0</v>
@@ -5760,40 +5854,42 @@
       <c r="P36" s="59"/>
       <c r="Q36" s="39"/>
       <c r="S36" s="49">
-        <v>0</v>
+        <v>42815</v>
       </c>
       <c r="T36" s="50" t="s">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="U36" s="51" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="V36" s="43">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>-122.5</v>
       </c>
       <c r="W36" s="52">
-        <v>100</v>
-      </c>
-      <c r="X36" s="52"/>
+        <v>75</v>
+      </c>
+      <c r="X36" s="52">
+        <v>80</v>
+      </c>
       <c r="Z36" s="53">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>277.5</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB36" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="AC36" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AD36">
-        <v>11</v>
-      </c>
-      <c r="AE36">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AE36" s="19">
+        <v>150</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -5821,33 +5917,33 @@
       </c>
       <c r="AN36">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>55.5</v>
       </c>
       <c r="AO36">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AP36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>0</v>
       </c>
       <c r="AR36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AT36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU36">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AV36">
-        <v>0</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="37" spans="1:48" x14ac:dyDescent="0.25">
@@ -5865,42 +5961,45 @@
       <c r="P37" s="59"/>
       <c r="Q37" s="39"/>
       <c r="S37" s="49">
-        <v>42815</v>
+        <v>42816</v>
       </c>
       <c r="T37" s="50" t="s">
-        <v>216</v>
+        <v>121</v>
       </c>
       <c r="U37" s="51" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="V37" s="43">
         <f t="shared" si="3"/>
-        <v>-122.5</v>
+        <v>80.5</v>
       </c>
       <c r="W37" s="52">
+        <v>105</v>
+      </c>
+      <c r="X37" s="52">
         <v>75</v>
       </c>
-      <c r="X37" s="52">
-        <v>80</v>
+      <c r="Y37" t="s">
+        <v>228</v>
       </c>
       <c r="Z37" s="53">
         <f t="shared" si="0"/>
-        <v>277.5</v>
+        <v>99.5</v>
       </c>
       <c r="AA37">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB37" t="s">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c r="AC37" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AD37">
-        <v>12</v>
-      </c>
-      <c r="AE37" s="19">
-        <v>150</v>
+        <v>20</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -5928,13 +6027,13 @@
       </c>
       <c r="AN37">
         <f t="shared" si="6"/>
-        <v>55.5</v>
+        <v>9.5</v>
       </c>
       <c r="AO37">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ37">
         <v>0</v>
@@ -5944,7 +6043,7 @@
       </c>
       <c r="AS37">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="AT37">
         <v>0</v>
@@ -5954,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="AV37">
-        <v>15.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="38" spans="1:48" x14ac:dyDescent="0.25">
@@ -5972,42 +6071,42 @@
       <c r="P38" s="59"/>
       <c r="Q38" s="39"/>
       <c r="S38" s="49">
-        <v>42816</v>
+        <v>42817</v>
       </c>
       <c r="T38" s="50" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="U38" s="51" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="V38" s="43">
         <f t="shared" si="3"/>
-        <v>80.5</v>
+        <v>65</v>
       </c>
       <c r="W38" s="52">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="X38" s="52">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="Y38" t="s">
-        <v>228</v>
+        <v>152</v>
       </c>
       <c r="Z38" s="53">
         <f t="shared" si="0"/>
-        <v>99.5</v>
+        <v>50</v>
       </c>
       <c r="AA38">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AB38" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
       <c r="AC38" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="AD38">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AE38">
         <v>0</v>
@@ -6038,23 +6137,23 @@
       </c>
       <c r="AN38">
         <f t="shared" si="6"/>
-        <v>9.5</v>
+        <v>40</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AP38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ38">
         <v>0</v>
       </c>
       <c r="AR38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS38">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="AT38">
         <v>0</v>
@@ -6064,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="AV38">
-        <v>9.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:48" x14ac:dyDescent="0.25">
@@ -6082,45 +6181,45 @@
       <c r="P39" s="59"/>
       <c r="Q39" s="39"/>
       <c r="S39" s="49">
-        <v>42817</v>
+        <v>42818</v>
       </c>
       <c r="T39" s="50" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="U39" s="51" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="V39" s="43">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>-126</v>
       </c>
       <c r="W39" s="52">
         <v>75</v>
       </c>
       <c r="X39" s="52">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="Y39" t="s">
-        <v>152</v>
+        <v>234</v>
       </c>
       <c r="Z39" s="53">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>328</v>
       </c>
       <c r="AA39">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AB39" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AC39" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AD39">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -6148,23 +6247,23 @@
       </c>
       <c r="AN39">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AO39">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AP39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AQ39">
         <v>0</v>
       </c>
       <c r="AR39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS39">
         <f t="shared" si="7"/>
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="AT39">
         <v>0</v>
@@ -6174,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="AV39">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:48" x14ac:dyDescent="0.25">
@@ -6192,45 +6291,40 @@
       <c r="P40" s="59"/>
       <c r="Q40" s="39"/>
       <c r="S40" s="49">
-        <v>42818</v>
+        <v>42819</v>
       </c>
       <c r="T40" s="50" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="U40" s="51" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="V40" s="43">
         <f t="shared" si="3"/>
-        <v>-126</v>
+        <v>25</v>
       </c>
       <c r="W40" s="52">
-        <v>75</v>
-      </c>
-      <c r="X40" s="52">
-        <v>127</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>234</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="X40" s="52"/>
       <c r="Z40" s="53">
         <f t="shared" si="0"/>
-        <v>328</v>
+        <v>95</v>
       </c>
       <c r="AA40">
-        <v>260</v>
+        <v>25</v>
       </c>
       <c r="AB40" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="AC40" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AD40">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AE40">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -6258,23 +6352,23 @@
       </c>
       <c r="AN40">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AO40">
         <v>20</v>
       </c>
       <c r="AP40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS40">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AT40">
         <v>0</v>
@@ -6284,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="AV40">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:48" x14ac:dyDescent="0.25">
@@ -6302,37 +6396,36 @@
       <c r="P41" s="59"/>
       <c r="Q41" s="39"/>
       <c r="S41" s="49">
-        <v>42819</v>
+        <v>42820</v>
       </c>
       <c r="T41" s="50" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="U41" s="51" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="V41" s="43">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>-10</v>
       </c>
       <c r="W41" s="52">
-        <v>120</v>
-      </c>
-      <c r="X41" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="X41" s="52">
+        <v>0</v>
+      </c>
       <c r="Z41" s="53">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="AA41">
-        <v>25</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="AC41" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AD41">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AE41">
         <v>0</v>
@@ -6363,23 +6456,23 @@
       </c>
       <c r="AN41">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AO41">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR41">
         <v>0</v>
       </c>
       <c r="AS41">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AT41">
         <v>0</v>
@@ -6407,36 +6500,31 @@
       <c r="P42" s="59"/>
       <c r="Q42" s="39"/>
       <c r="S42" s="49">
-        <v>42820</v>
+        <v>42821</v>
       </c>
       <c r="T42" s="50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U42" s="51" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="V42" s="43">
         <f t="shared" si="3"/>
-        <v>-10</v>
+        <v>96.5</v>
       </c>
       <c r="W42" s="52">
-        <v>0</v>
-      </c>
-      <c r="X42" s="52">
-        <v>0</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="X42" s="52"/>
       <c r="Z42" s="53">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AA42">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="AC42" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="AD42">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE42">
         <v>0</v>
@@ -6467,13 +6555,13 @@
       </c>
       <c r="AN42">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="AO42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
         <v>0</v>
@@ -6483,7 +6571,7 @@
       </c>
       <c r="AS42">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AT42">
         <v>0</v>
@@ -6493,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="AV42">
-        <v>0</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="43" spans="1:48" x14ac:dyDescent="0.25">
@@ -6511,34 +6599,43 @@
       <c r="P43" s="59"/>
       <c r="Q43" s="39"/>
       <c r="S43" s="49">
-        <v>42821</v>
+        <v>42822</v>
       </c>
       <c r="T43" s="50" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="U43" s="51" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="V43" s="43">
         <f t="shared" si="3"/>
-        <v>114.5</v>
+        <v>-29</v>
       </c>
       <c r="W43" s="52">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="X43" s="52"/>
       <c r="Z43" s="53">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>104</v>
+      </c>
+      <c r="AA43">
+        <v>60</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>252</v>
       </c>
       <c r="AD43">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF43">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG43">
         <v>0</v>
@@ -6563,10 +6660,25 @@
       </c>
       <c r="AN43">
         <f t="shared" si="6"/>
-        <v>10.5</v>
+        <v>25</v>
+      </c>
+      <c r="AO43">
+        <v>20</v>
+      </c>
+      <c r="AP43">
+        <v>2</v>
+      </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <v>1</v>
       </c>
       <c r="AS43">
         <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="AT43">
         <v>0</v>
       </c>
       <c r="AU43">
@@ -6574,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="AV43">
-        <v>10.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:48" x14ac:dyDescent="0.25">
@@ -6592,10 +6704,10 @@
       <c r="P44" s="59"/>
       <c r="Q44" s="39"/>
       <c r="S44" s="49">
-        <v>42822</v>
+        <v>42823</v>
       </c>
       <c r="T44" s="50" t="s">
-        <v>114</v>
+        <v>248</v>
       </c>
       <c r="U44" s="51"/>
       <c r="V44" s="43">
@@ -6666,12 +6778,12 @@
       <c r="P45" s="59"/>
       <c r="Q45" s="39"/>
       <c r="S45" s="49">
-        <v>42823</v>
+        <v>42824</v>
       </c>
       <c r="T45" s="50" t="s">
-        <v>248</v>
-      </c>
-      <c r="U45" s="51"/>
+        <v>63</v>
+      </c>
+      <c r="U45" s="74"/>
       <c r="V45" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6740,12 +6852,12 @@
       <c r="P46" s="59"/>
       <c r="Q46" s="39"/>
       <c r="S46" s="49">
-        <v>42824</v>
+        <v>42825</v>
       </c>
       <c r="T46" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="U46" s="74"/>
+        <v>83</v>
+      </c>
+      <c r="U46" s="51"/>
       <c r="V46" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6813,12 +6925,8 @@
       <c r="O47" s="59"/>
       <c r="P47" s="59"/>
       <c r="Q47" s="39"/>
-      <c r="S47" s="49">
-        <v>42825</v>
-      </c>
-      <c r="T47" s="50" t="s">
-        <v>83</v>
-      </c>
+      <c r="S47" s="50"/>
+      <c r="T47" s="50"/>
       <c r="U47" s="51"/>
       <c r="V47" s="43">
         <f t="shared" si="3"/>
@@ -8227,7 +8335,7 @@
       <c r="W67" s="52"/>
       <c r="X67" s="52"/>
       <c r="Z67" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Z67:Z130" si="9">SUM(AA67,AD67,AE67,AF67,AG67,AH67,AI67,AJ67,AK67,AL67,AM67,AN67)</f>
         <v>0</v>
       </c>
       <c r="AD67">
@@ -8291,13 +8399,13 @@
       <c r="T68" s="50"/>
       <c r="U68" s="51"/>
       <c r="V68" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="V68:V131" si="10">(SUM(W68,X68))-Z68</f>
         <v>0</v>
       </c>
       <c r="W68" s="52"/>
       <c r="X68" s="52"/>
       <c r="Z68" s="53">
-        <f t="shared" ref="Z68:Z131" si="9">SUM(AA68,AD68,AE68,AF68,AG68,AH68,AI68,AJ68,AK68,AL68,AM68,AN68)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD68">
@@ -8339,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="AU68">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="AU68:AU131" si="11">AT68*5</f>
         <v>0</v>
       </c>
     </row>
@@ -8361,7 +8469,7 @@
       <c r="T69" s="50"/>
       <c r="U69" s="51"/>
       <c r="V69" s="43">
-        <f t="shared" ref="V69:V132" si="10">(SUM(W69,X69))-Z69</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W69" s="52"/>
@@ -8409,7 +8517,7 @@
         <v>0</v>
       </c>
       <c r="AU69">
-        <f t="shared" ref="AU69:AU132" si="11">AT69*5</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -9521,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AN85">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AN85:AN148" si="12">SUM(AO85,AV85,AU85)</f>
         <v>0</v>
       </c>
       <c r="AS85">
@@ -9591,11 +9699,11 @@
         <v>0</v>
       </c>
       <c r="AN86">
-        <f t="shared" ref="AN86:AN149" si="12">SUM(AO86,AV86,AU86)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AS86">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AS86:AS149" si="13">(AP86*6)+(AQ86*8)+(AR86*5)</f>
         <v>0</v>
       </c>
       <c r="AU86">
@@ -9665,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="AS87">
-        <f t="shared" ref="AS87:AS150" si="13">(AP87*6)+(AQ87*8)+(AR87*5)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AU87">
@@ -12707,7 +12815,7 @@
       <c r="W131" s="52"/>
       <c r="X131" s="52"/>
       <c r="Z131" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="Z131:Z194" si="14">SUM(AA131,AD131,AE131,AF131,AG131,AH131,AI131,AJ131,AK131,AL131,AM131,AN131)</f>
         <v>0</v>
       </c>
       <c r="AD131">
@@ -12771,13 +12879,13 @@
       <c r="T132" s="50"/>
       <c r="U132" s="51"/>
       <c r="V132" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="V132:V195" si="15">(SUM(W132,X132))-Z132</f>
         <v>0</v>
       </c>
       <c r="W132" s="52"/>
       <c r="X132" s="52"/>
       <c r="Z132" s="53">
-        <f t="shared" ref="Z132:Z195" si="14">SUM(AA132,AD132,AE132,AF132,AG132,AH132,AI132,AJ132,AK132,AL132,AM132,AN132)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD132">
@@ -12819,7 +12927,7 @@
         <v>0</v>
       </c>
       <c r="AU132">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AU132:AU195" si="16">AT132*5</f>
         <v>0</v>
       </c>
     </row>
@@ -12841,7 +12949,7 @@
       <c r="T133" s="50"/>
       <c r="U133" s="51"/>
       <c r="V133" s="43">
-        <f t="shared" ref="V133:V196" si="15">(SUM(W133,X133))-Z133</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W133" s="52"/>
@@ -12889,7 +12997,7 @@
         <v>0</v>
       </c>
       <c r="AU133">
-        <f t="shared" ref="AU133:AU196" si="16">AT133*5</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14001,7 +14109,7 @@
         <v>0</v>
       </c>
       <c r="AN149">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="AN149:AN212" si="17">SUM(AO149,AV149,AU149)</f>
         <v>0</v>
       </c>
       <c r="AS149">
@@ -14071,11 +14179,11 @@
         <v>0</v>
       </c>
       <c r="AN150">
-        <f t="shared" ref="AN150:AN213" si="17">SUM(AO150,AV150,AU150)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AS150">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="AS150:AS213" si="18">(AP150*6)+(AQ150*8)+(AR150*5)</f>
         <v>0</v>
       </c>
       <c r="AU150">
@@ -14145,7 +14253,7 @@
         <v>0</v>
       </c>
       <c r="AS151">
-        <f t="shared" ref="AS151:AS214" si="18">(AP151*6)+(AQ151*8)+(AR151*5)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AU151">
@@ -17187,7 +17295,7 @@
       <c r="W195" s="52"/>
       <c r="X195" s="52"/>
       <c r="Z195" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="Z195:Z258" si="19">SUM(AA195,AD195,AE195,AF195,AG195,AH195,AI195,AJ195,AK195,AL195,AM195,AN195)</f>
         <v>0</v>
       </c>
       <c r="AD195">
@@ -17251,13 +17359,13 @@
       <c r="T196" s="50"/>
       <c r="U196" s="51"/>
       <c r="V196" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="V196:V259" si="20">(SUM(W196,X196))-Z196</f>
         <v>0</v>
       </c>
       <c r="W196" s="52"/>
       <c r="X196" s="52"/>
       <c r="Z196" s="53">
-        <f t="shared" ref="Z196:Z259" si="19">SUM(AA196,AD196,AE196,AF196,AG196,AH196,AI196,AJ196,AK196,AL196,AM196,AN196)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AD196">
@@ -17299,7 +17407,7 @@
         <v>0</v>
       </c>
       <c r="AU196">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="AU196:AU259" si="21">AT196*5</f>
         <v>0</v>
       </c>
     </row>
@@ -17321,7 +17429,7 @@
       <c r="T197" s="50"/>
       <c r="U197" s="51"/>
       <c r="V197" s="43">
-        <f t="shared" ref="V197:V260" si="20">(SUM(W197,X197))-Z197</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W197" s="52"/>
@@ -17369,7 +17477,7 @@
         <v>0</v>
       </c>
       <c r="AU197">
-        <f t="shared" ref="AU197:AU260" si="21">AT197*5</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18481,7 +18589,7 @@
         <v>0</v>
       </c>
       <c r="AN213">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="AN213:AN276" si="22">SUM(AO213,AV213,AU213)</f>
         <v>0</v>
       </c>
       <c r="AS213">
@@ -18551,11 +18659,11 @@
         <v>0</v>
       </c>
       <c r="AN214">
-        <f t="shared" ref="AN214:AN277" si="22">SUM(AO214,AV214,AU214)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AS214">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="AS214:AS277" si="23">(AP214*6)+(AQ214*8)+(AR214*5)</f>
         <v>0</v>
       </c>
       <c r="AU214">
@@ -18625,7 +18733,7 @@
         <v>0</v>
       </c>
       <c r="AS215">
-        <f t="shared" ref="AS215:AS278" si="23">(AP215*6)+(AQ215*8)+(AR215*5)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AU215">
@@ -21667,7 +21775,7 @@
       <c r="W259" s="52"/>
       <c r="X259" s="52"/>
       <c r="Z259" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="Z259:Z322" si="24">SUM(AA259,AD259,AE259,AF259,AG259,AH259,AI259,AJ259,AK259,AL259,AM259,AN259)</f>
         <v>0</v>
       </c>
       <c r="AD259">
@@ -21731,13 +21839,13 @@
       <c r="T260" s="50"/>
       <c r="U260" s="51"/>
       <c r="V260" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="V260:V323" si="25">(SUM(W260,X260))-Z260</f>
         <v>0</v>
       </c>
       <c r="W260" s="52"/>
       <c r="X260" s="52"/>
       <c r="Z260" s="53">
-        <f t="shared" ref="Z260:Z323" si="24">SUM(AA260,AD260,AE260,AF260,AG260,AH260,AI260,AJ260,AK260,AL260,AM260,AN260)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AD260">
@@ -21779,7 +21887,7 @@
         <v>0</v>
       </c>
       <c r="AU260">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="AU260:AU323" si="26">AT260*5</f>
         <v>0</v>
       </c>
     </row>
@@ -21801,7 +21909,7 @@
       <c r="T261" s="50"/>
       <c r="U261" s="51"/>
       <c r="V261" s="43">
-        <f t="shared" ref="V261:V324" si="25">(SUM(W261,X261))-Z261</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W261" s="52"/>
@@ -21849,7 +21957,7 @@
         <v>0</v>
       </c>
       <c r="AU261">
-        <f t="shared" ref="AU261:AU324" si="26">AT261*5</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -22961,7 +23069,7 @@
         <v>0</v>
       </c>
       <c r="AN277">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="AN277:AN340" si="27">SUM(AO277,AV277,AU277)</f>
         <v>0</v>
       </c>
       <c r="AS277">
@@ -23031,11 +23139,11 @@
         <v>0</v>
       </c>
       <c r="AN278">
-        <f t="shared" ref="AN278:AN341" si="27">SUM(AO278,AV278,AU278)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AS278">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="AS278:AS341" si="28">(AP278*6)+(AQ278*8)+(AR278*5)</f>
         <v>0</v>
       </c>
       <c r="AU278">
@@ -23105,7 +23213,7 @@
         <v>0</v>
       </c>
       <c r="AS279">
-        <f t="shared" ref="AS279:AS342" si="28">(AP279*6)+(AQ279*8)+(AR279*5)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AU279">
@@ -23680,9 +23788,9 @@
       <c r="G288" s="59"/>
       <c r="H288" s="59"/>
       <c r="I288" s="59"/>
-      <c r="J288" s="24"/>
-      <c r="K288" s="23"/>
-      <c r="L288" s="21"/>
+      <c r="J288" s="26"/>
+      <c r="K288" s="14"/>
+      <c r="L288" s="22"/>
       <c r="N288" s="59"/>
       <c r="O288" s="59"/>
       <c r="P288" s="59"/>
@@ -26142,7 +26250,7 @@
       <c r="W323" s="52"/>
       <c r="X323" s="52"/>
       <c r="Z323" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="Z323:Z386" si="29">SUM(AA323,AD323,AE323,AF323,AG323,AH323,AI323,AJ323,AK323,AL323,AM323,AN323)</f>
         <v>0</v>
       </c>
       <c r="AD323">
@@ -26205,13 +26313,13 @@
       <c r="T324" s="50"/>
       <c r="U324" s="51"/>
       <c r="V324" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="V324:V387" si="30">(SUM(W324,X324))-Z324</f>
         <v>0</v>
       </c>
       <c r="W324" s="52"/>
       <c r="X324" s="52"/>
       <c r="Z324" s="53">
-        <f t="shared" ref="Z324:Z387" si="29">SUM(AA324,AD324,AE324,AF324,AG324,AH324,AI324,AJ324,AK324,AL324,AM324,AN324)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AD324">
@@ -26253,7 +26361,7 @@
         <v>0</v>
       </c>
       <c r="AU324">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="AU324:AU387" si="31">AT324*5</f>
         <v>0</v>
       </c>
     </row>
@@ -26274,7 +26382,7 @@
       <c r="T325" s="50"/>
       <c r="U325" s="51"/>
       <c r="V325" s="43">
-        <f t="shared" ref="V325:V388" si="30">(SUM(W325,X325))-Z325</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W325" s="52"/>
@@ -26322,7 +26430,7 @@
         <v>0</v>
       </c>
       <c r="AU325">
-        <f t="shared" ref="AU325:AU388" si="31">AT325*5</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -27418,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="AN341">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="AN341:AN404" si="32">SUM(AO341,AV341,AU341)</f>
         <v>0</v>
       </c>
       <c r="AS341">
@@ -27487,11 +27595,11 @@
         <v>0</v>
       </c>
       <c r="AN342">
-        <f t="shared" ref="AN342:AN405" si="32">SUM(AO342,AV342,AU342)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AS342">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="AS342:AS405" si="33">(AP342*6)+(AQ342*8)+(AR342*5)</f>
         <v>0</v>
       </c>
       <c r="AU342">
@@ -27560,7 +27668,7 @@
         <v>0</v>
       </c>
       <c r="AS343">
-        <f t="shared" ref="AS343:AS406" si="33">(AP343*6)+(AQ343*8)+(AR343*5)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AU343">
@@ -28333,7 +28441,7 @@
       <c r="G355" s="59"/>
       <c r="H355" s="59"/>
       <c r="I355" s="59"/>
-      <c r="J355" s="26"/>
+      <c r="J355" s="25"/>
       <c r="K355" s="14"/>
       <c r="L355" s="22"/>
       <c r="N355" s="59"/>
@@ -29986,9 +30094,6 @@
     <row r="379" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C379" s="11"/>
       <c r="D379" s="12"/>
-      <c r="G379" s="59"/>
-      <c r="H379" s="59"/>
-      <c r="I379" s="59"/>
       <c r="J379" s="25"/>
       <c r="K379" s="14"/>
       <c r="L379" s="22"/>
@@ -30534,7 +30639,7 @@
       <c r="W387" s="52"/>
       <c r="X387" s="52"/>
       <c r="Z387" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="Z387:Z450" si="34">SUM(AA387,AD387,AE387,AF387,AG387,AH387,AI387,AJ387,AK387,AL387,AM387,AN387)</f>
         <v>0</v>
       </c>
       <c r="AD387">
@@ -30594,13 +30699,13 @@
       <c r="T388" s="50"/>
       <c r="U388" s="51"/>
       <c r="V388" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="V388:V451" si="35">(SUM(W388,X388))-Z388</f>
         <v>0</v>
       </c>
       <c r="W388" s="52"/>
       <c r="X388" s="52"/>
       <c r="Z388" s="53">
-        <f t="shared" ref="Z388:Z451" si="34">SUM(AA388,AD388,AE388,AF388,AG388,AH388,AI388,AJ388,AK388,AL388,AM388,AN388)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AD388">
@@ -30642,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="AU388">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="AU388:AU451" si="36">AT388*5</f>
         <v>0</v>
       </c>
     </row>
@@ -30660,7 +30765,7 @@
       <c r="T389" s="50"/>
       <c r="U389" s="51"/>
       <c r="V389" s="43">
-        <f t="shared" ref="V389:V452" si="35">(SUM(W389,X389))-Z389</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="W389" s="52"/>
@@ -30708,7 +30813,7 @@
         <v>0</v>
       </c>
       <c r="AU389">
-        <f t="shared" ref="AU389:AU452" si="36">AT389*5</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -31574,7 +31679,6 @@
       <c r="C403" s="11"/>
       <c r="D403" s="12"/>
       <c r="J403" s="25"/>
-      <c r="K403" s="14"/>
       <c r="L403" s="22"/>
       <c r="N403" s="59"/>
       <c r="O403" s="59"/>
@@ -31754,7 +31858,7 @@
         <v>0</v>
       </c>
       <c r="AN405">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="AN405:AN468" si="37">SUM(AO405,AV405,AU405)</f>
         <v>0</v>
       </c>
       <c r="AS405">
@@ -31819,11 +31923,11 @@
         <v>0</v>
       </c>
       <c r="AN406">
-        <f t="shared" ref="AN406:AN469" si="37">SUM(AO406,AV406,AU406)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AS406">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="AS406:AS469" si="38">(AP406*6)+(AQ406*8)+(AR406*5)</f>
         <v>0</v>
       </c>
       <c r="AU406">
@@ -31888,7 +31992,7 @@
         <v>0</v>
       </c>
       <c r="AS407">
-        <f t="shared" ref="AS407:AS470" si="38">(AP407*6)+(AQ407*8)+(AR407*5)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AU407">
@@ -32810,7 +32914,6 @@
       <c r="C422" s="11"/>
       <c r="D422" s="12"/>
       <c r="J422" s="25"/>
-      <c r="L422" s="22"/>
       <c r="N422" s="59"/>
       <c r="O422" s="59"/>
       <c r="P422" s="59"/>
@@ -34218,7 +34321,6 @@
     <row r="444" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C444" s="11"/>
       <c r="D444" s="12"/>
-      <c r="J444" s="25"/>
       <c r="N444" s="59"/>
       <c r="O444" s="59"/>
       <c r="P444" s="59"/>
@@ -34674,7 +34776,7 @@
       <c r="W451" s="52"/>
       <c r="X451" s="52"/>
       <c r="Z451" s="53">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="Z451:Z514" si="39">SUM(AA451,AD451,AE451,AF451,AG451,AH451,AI451,AJ451,AK451,AL451,AM451,AN451)</f>
         <v>0</v>
       </c>
       <c r="AD451">
@@ -34730,13 +34832,13 @@
       <c r="T452" s="50"/>
       <c r="U452" s="51"/>
       <c r="V452" s="43">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="V452:V515" si="40">(SUM(W452,X452))-Z452</f>
         <v>0</v>
       </c>
       <c r="W452" s="52"/>
       <c r="X452" s="52"/>
       <c r="Z452" s="53">
-        <f t="shared" ref="Z452:Z515" si="39">SUM(AA452,AD452,AE452,AF452,AG452,AH452,AI452,AJ452,AK452,AL452,AM452,AN452)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AD452">
@@ -34778,7 +34880,7 @@
         <v>0</v>
       </c>
       <c r="AU452">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="AU452:AU515" si="41">AT452*5</f>
         <v>0</v>
       </c>
     </row>
@@ -34792,7 +34894,7 @@
       <c r="T453" s="50"/>
       <c r="U453" s="51"/>
       <c r="V453" s="43">
-        <f t="shared" ref="V453:V516" si="40">(SUM(W453,X453))-Z453</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W453" s="52"/>
@@ -34840,7 +34942,7 @@
         <v>0</v>
       </c>
       <c r="AU453">
-        <f t="shared" ref="AU453:AU516" si="41">AT453*5</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -35817,7 +35919,7 @@
         <v>0</v>
       </c>
       <c r="AN469">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="AN469:AN532" si="42">SUM(AO469,AV469,AU469)</f>
         <v>0</v>
       </c>
       <c r="AS469">
@@ -35878,11 +35980,11 @@
         <v>0</v>
       </c>
       <c r="AN470">
-        <f t="shared" ref="AN470:AN533" si="42">SUM(AO470,AV470,AU470)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AS470">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="AS470:AS533" si="43">(AP470*6)+(AQ470*8)+(AR470*5)</f>
         <v>0</v>
       </c>
       <c r="AU470">
@@ -35943,7 +36045,7 @@
         <v>0</v>
       </c>
       <c r="AS471">
-        <f t="shared" ref="AS471:AS534" si="43">(AP471*6)+(AQ471*8)+(AR471*5)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AU471">
@@ -38493,7 +38595,7 @@
       <c r="W515" s="52"/>
       <c r="X515" s="52"/>
       <c r="Z515" s="53">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="Z515:Z578" si="44">SUM(AA515,AD515,AE515,AF515,AG515,AH515,AI515,AJ515,AK515,AL515,AM515,AN515)</f>
         <v>0</v>
       </c>
       <c r="AD515">
@@ -38545,13 +38647,13 @@
       <c r="T516" s="50"/>
       <c r="U516" s="51"/>
       <c r="V516" s="43">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="V516:V520" si="45">(SUM(W516,X516))-Z516</f>
         <v>0</v>
       </c>
       <c r="W516" s="52"/>
       <c r="X516" s="52"/>
       <c r="Z516" s="53">
-        <f t="shared" ref="Z516:Z579" si="44">SUM(AA516,AD516,AE516,AF516,AG516,AH516,AI516,AJ516,AK516,AL516,AM516,AN516)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AD516">
@@ -38593,7 +38695,7 @@
         <v>0</v>
       </c>
       <c r="AU516">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="AU516:AU579" si="46">AT516*5</f>
         <v>0</v>
       </c>
     </row>
@@ -38602,7 +38704,7 @@
       <c r="T517" s="50"/>
       <c r="U517" s="51"/>
       <c r="V517" s="43">
-        <f t="shared" ref="V517:V521" si="45">(SUM(W517,X517))-Z517</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W517" s="52"/>
@@ -38650,7 +38752,7 @@
         <v>0</v>
       </c>
       <c r="AU517">
-        <f t="shared" ref="AU517:AU580" si="46">AT517*5</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -38826,15 +38928,6 @@
       </c>
     </row>
     <row r="521" spans="4:47" x14ac:dyDescent="0.25">
-      <c r="S521" s="50"/>
-      <c r="T521" s="50"/>
-      <c r="U521" s="51"/>
-      <c r="V521" s="43">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="W521" s="52"/>
-      <c r="X521" s="52"/>
       <c r="Z521" s="53">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -39446,7 +39539,7 @@
         <v>0</v>
       </c>
       <c r="AN533">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="AN533:AN596" si="47">SUM(AO533,AV533,AU533)</f>
         <v>0</v>
       </c>
       <c r="AS533">
@@ -39494,11 +39587,11 @@
         <v>0</v>
       </c>
       <c r="AN534">
-        <f t="shared" ref="AN534:AN597" si="47">SUM(AO534,AV534,AU534)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AS534">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="AS534:AS597" si="48">(AP534*6)+(AQ534*8)+(AR534*5)</f>
         <v>0</v>
       </c>
       <c r="AU534">
@@ -39546,7 +39639,7 @@
         <v>0</v>
       </c>
       <c r="AS535">
-        <f t="shared" ref="AS535:AS598" si="48">(AP535*6)+(AQ535*8)+(AR535*5)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AU535">
@@ -41619,40 +41712,6 @@
       </c>
     </row>
     <row r="579" spans="26:47" x14ac:dyDescent="0.25">
-      <c r="Z579" s="53">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AD579">
-        <v>0</v>
-      </c>
-      <c r="AE579">
-        <v>0</v>
-      </c>
-      <c r="AF579">
-        <v>0</v>
-      </c>
-      <c r="AG579">
-        <v>0</v>
-      </c>
-      <c r="AH579">
-        <v>0</v>
-      </c>
-      <c r="AI579">
-        <v>0</v>
-      </c>
-      <c r="AJ579">
-        <v>0</v>
-      </c>
-      <c r="AK579">
-        <v>0</v>
-      </c>
-      <c r="AL579">
-        <v>0</v>
-      </c>
-      <c r="AM579">
-        <v>0</v>
-      </c>
       <c r="AN579">
         <f t="shared" si="47"/>
         <v>0</v>
@@ -41676,7 +41735,7 @@
         <v>0</v>
       </c>
       <c r="AU580">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="AU580:AU593" si="49">AT580*5</f>
         <v>0</v>
       </c>
     </row>
@@ -41690,7 +41749,7 @@
         <v>0</v>
       </c>
       <c r="AU581">
-        <f t="shared" ref="AU581:AU594" si="49">AT581*5</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -41871,10 +41930,6 @@
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AU594">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="595" spans="40:47" x14ac:dyDescent="0.25">
       <c r="AN595">
@@ -41898,7 +41953,7 @@
     </row>
     <row r="597" spans="40:47" x14ac:dyDescent="0.25">
       <c r="AN597">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="AN597:AN598" si="50">SUM(AO597,AV597,AU597)</f>
         <v>0</v>
       </c>
       <c r="AS597">
@@ -41908,21 +41963,17 @@
     </row>
     <row r="598" spans="40:47" x14ac:dyDescent="0.25">
       <c r="AN598">
-        <f t="shared" ref="AN598:AN599" si="50">SUM(AO598,AV598,AU598)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AS598">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="AS598:AS661" si="51">(AP598*6)+(AQ598*8)+(AR598*5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="599" spans="40:47" x14ac:dyDescent="0.25">
-      <c r="AN599">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
       <c r="AS599">
-        <f t="shared" ref="AS599:AS662" si="51">(AP599*6)+(AQ599*8)+(AR599*5)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -42300,13 +42351,13 @@
     </row>
     <row r="662" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS662">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="AS662:AS725" si="52">(AP662*6)+(AQ662*8)+(AR662*5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="663" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS663">
-        <f t="shared" ref="AS663:AS726" si="52">(AP663*6)+(AQ663*8)+(AR663*5)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -42684,13 +42735,13 @@
     </row>
     <row r="726" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS726">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="AS726:AS789" si="53">(AP726*6)+(AQ726*8)+(AR726*5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="727" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS727">
-        <f t="shared" ref="AS727:AS790" si="53">(AP727*6)+(AQ727*8)+(AR727*5)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -43068,13 +43119,13 @@
     </row>
     <row r="790" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS790">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="AS790:AS853" si="54">(AP790*6)+(AQ790*8)+(AR790*5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="791" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS791">
-        <f t="shared" ref="AS791:AS854" si="54">(AP791*6)+(AQ791*8)+(AR791*5)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
@@ -43452,13 +43503,13 @@
     </row>
     <row r="854" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS854">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="AS854:AS917" si="55">(AP854*6)+(AQ854*8)+(AR854*5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="855" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS855">
-        <f t="shared" ref="AS855:AS918" si="55">(AP855*6)+(AQ855*8)+(AR855*5)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
@@ -43836,13 +43887,13 @@
     </row>
     <row r="918" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS918">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="AS918:AS964" si="56">(AP918*6)+(AQ918*8)+(AR918*5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="919" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS919">
-        <f t="shared" ref="AS919:AS965" si="56">(AP919*6)+(AQ919*8)+(AR919*5)</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
     </row>
@@ -44112,12 +44163,6 @@
     </row>
     <row r="964" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS964">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="965" spans="45:45" x14ac:dyDescent="0.25">
-      <c r="AS965">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>

--- a/Finanzas/Febrero_2017.xlsx
+++ b/Finanzas/Febrero_2017.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="267">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -799,6 +799,45 @@
   <si>
     <t>Formato</t>
   </si>
+  <si>
+    <t>Pleito Basura</t>
+  </si>
+  <si>
+    <t>Sra Lety</t>
+  </si>
+  <si>
+    <t>Ingles (27-30 mar)</t>
+  </si>
+  <si>
+    <t>Para Copias</t>
+  </si>
+  <si>
+    <t>No Camila</t>
+  </si>
+  <si>
+    <t>Uber Enana</t>
+  </si>
+  <si>
+    <t>Café con Javs</t>
+  </si>
+  <si>
+    <t>Clase Bayes</t>
+  </si>
+  <si>
+    <t>Tortas Filosofía</t>
+  </si>
+  <si>
+    <t>Agua mineral;Twist; Krespy Kreme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maíz </t>
+  </si>
+  <si>
+    <t>Crepas (Jaime)</t>
+  </si>
+  <si>
+    <t>Deposito Papá Uber Enana</t>
+  </si>
 </sst>
 </file>
 
@@ -1126,7 +1165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1247,7 +1286,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1279,6 +1317,9 @@
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1576,7 +1617,7 @@
   <dimension ref="A1:BE964"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U44" sqref="U44"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,7 +1644,7 @@
       <c r="C1" s="56">
         <v>42782</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="81" t="s">
         <v>146</v>
       </c>
       <c r="P1" s="78"/>
@@ -1648,9 +1689,9 @@
       <c r="C2" s="58">
         <v>9702</v>
       </c>
-      <c r="D2" s="86">
+      <c r="D2" s="85">
         <f>L3-C2</f>
-        <v>-4788.6499999999996</v>
+        <v>-5184.9299999999994</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>2</v>
@@ -1777,7 +1818,7 @@
       </c>
       <c r="L3" s="27">
         <f>(SUM(C2,(E11:E501),(K11:K500)))-(SUM((D11:D501),(C11:C501)))</f>
-        <v>4913.3500000000004</v>
+        <v>4517.0700000000006</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -1892,9 +1933,9 @@
       <c r="M4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="101">
+      <c r="N4" s="100">
         <f>L3+L9</f>
-        <v>29082.35</v>
+        <v>28686.07</v>
       </c>
       <c r="S4" s="49">
         <v>42783</v>
@@ -1992,7 +2033,7 @@
       </c>
       <c r="AZ4" s="64">
         <f>(SUM((AO3:AO520)))-(SUM((AS3:AS520)))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="64"/>
     </row>
@@ -2118,7 +2159,7 @@
       </c>
       <c r="L6" s="54">
         <f>(SUM((Q11:Q501),(V3:V520)))-(SUM(E11:E501))</f>
-        <v>155.5</v>
+        <v>-153</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -3057,7 +3098,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AT13" s="81">
+      <c r="AT13" s="80">
         <v>0</v>
       </c>
       <c r="AU13">
@@ -3208,11 +3249,11 @@
         <v>120</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="80">
+      <c r="D15" s="101">
         <v>165.23</v>
       </c>
       <c r="E15" s="14"/>
-      <c r="F15" s="92" t="s">
+      <c r="F15" s="91" t="s">
         <v>244</v>
       </c>
       <c r="G15" s="59"/>
@@ -3348,7 +3389,7 @@
         <v>132</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="80">
+      <c r="D16" s="101">
         <v>169.93</v>
       </c>
       <c r="E16" s="14"/>
@@ -3403,7 +3444,7 @@
       <c r="Y16" t="s">
         <v>156</v>
       </c>
-      <c r="Z16" s="84">
+      <c r="Z16" s="83">
         <f t="shared" si="0"/>
         <v>125.5</v>
       </c>
@@ -3507,9 +3548,15 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
+      <c r="N17" s="60">
+        <v>42824</v>
+      </c>
+      <c r="O17" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="P17" s="59" t="s">
+        <v>256</v>
+      </c>
       <c r="Q17" s="39"/>
       <c r="S17" s="49">
         <v>42796</v>
@@ -3647,7 +3694,7 @@
       <c r="U18" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="V18" s="85">
+      <c r="V18" s="84">
         <f t="shared" si="3"/>
         <v>-15.5</v>
       </c>
@@ -3994,7 +4041,7 @@
       <c r="B21" t="s">
         <v>150</v>
       </c>
-      <c r="C21" s="87"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="12">
         <v>17.22</v>
       </c>
@@ -4159,7 +4206,7 @@
       <c r="W22" s="52">
         <v>75</v>
       </c>
-      <c r="X22" s="88"/>
+      <c r="X22" s="87"/>
       <c r="Z22" s="53">
         <f t="shared" si="0"/>
         <v>60.5</v>
@@ -4492,11 +4539,11 @@
         <v>188</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="93">
+      <c r="D25" s="92">
         <v>142.35</v>
       </c>
       <c r="E25" s="14"/>
-      <c r="G25" s="89" t="s">
+      <c r="G25" s="88" t="s">
         <v>30</v>
       </c>
       <c r="H25" s="59" t="s">
@@ -4553,7 +4600,7 @@
       <c r="AD25">
         <v>10</v>
       </c>
-      <c r="AE25" s="91">
+      <c r="AE25" s="90">
         <v>12</v>
       </c>
       <c r="AF25">
@@ -4690,7 +4737,7 @@
       <c r="AF26">
         <v>100</v>
       </c>
-      <c r="AG26" s="91">
+      <c r="AG26" s="90">
         <v>20</v>
       </c>
       <c r="AH26">
@@ -5010,7 +5057,7 @@
       <c r="H29" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="I29" s="83" t="s">
+      <c r="I29" s="82" t="s">
         <v>154</v>
       </c>
       <c r="J29" s="24">
@@ -5133,22 +5180,22 @@
         <v>201</v>
       </c>
       <c r="E30" s="14"/>
-      <c r="G30" s="60">
+      <c r="G30" s="96">
         <v>42795</v>
       </c>
-      <c r="H30" s="59" t="s">
+      <c r="H30" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="I30" s="59" t="s">
+      <c r="I30" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="97">
         <v>20</v>
       </c>
-      <c r="K30" s="75" t="s">
+      <c r="K30" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="L30" s="21">
+      <c r="L30" s="99">
         <v>0</v>
       </c>
       <c r="N30" s="59"/>
@@ -5164,7 +5211,7 @@
       <c r="U30" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="V30" s="85">
+      <c r="V30" s="84">
         <f t="shared" si="3"/>
         <v>-25.5</v>
       </c>
@@ -5247,7 +5294,7 @@
       </c>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A31" s="90">
+      <c r="A31" s="89">
         <v>42805</v>
       </c>
       <c r="B31" t="s">
@@ -5258,7 +5305,7 @@
         <v>52.79</v>
       </c>
       <c r="E31" s="14"/>
-      <c r="G31" s="97">
+      <c r="G31" s="96">
         <v>42816</v>
       </c>
       <c r="H31" s="64" t="s">
@@ -5267,13 +5314,13 @@
       <c r="I31" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="J31" s="98">
+      <c r="J31" s="97">
         <v>150</v>
       </c>
-      <c r="K31" s="99" t="s">
+      <c r="K31" s="98" t="s">
         <v>246</v>
       </c>
-      <c r="L31" s="100">
+      <c r="L31" s="99">
         <v>0</v>
       </c>
       <c r="N31" s="59"/>
@@ -5313,7 +5360,7 @@
       <c r="AD31">
         <v>60</v>
       </c>
-      <c r="AE31" s="91">
+      <c r="AE31" s="90">
         <v>128</v>
       </c>
       <c r="AF31">
@@ -5344,7 +5391,7 @@
         <f t="shared" si="6"/>
         <v>34.5</v>
       </c>
-      <c r="AO31" s="91">
+      <c r="AO31" s="90">
         <v>20</v>
       </c>
       <c r="AP31">
@@ -5492,7 +5539,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
         <v>42812</v>
       </c>
@@ -5546,7 +5593,7 @@
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="AA33" s="91">
+      <c r="AA33" s="90">
         <v>62</v>
       </c>
       <c r="AB33" t="s">
@@ -5616,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34" s="34">
         <v>42821</v>
       </c>
@@ -5726,18 +5773,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A35" s="96">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A35" s="95">
         <v>42821</v>
       </c>
-      <c r="B35" s="94" t="s">
+      <c r="B35" s="93" t="s">
         <v>245</v>
       </c>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94">
+      <c r="C35" s="93"/>
+      <c r="D35" s="93">
         <v>-642</v>
       </c>
-      <c r="E35" s="95"/>
+      <c r="E35" s="94"/>
       <c r="G35" s="59"/>
       <c r="H35" s="59"/>
       <c r="I35" s="59"/>
@@ -5839,9 +5886,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A36" s="34">
+        <v>42823</v>
+      </c>
       <c r="C36" s="13"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="12">
+        <v>156.22</v>
+      </c>
       <c r="E36" s="14"/>
       <c r="G36" s="59"/>
       <c r="H36" s="59"/>
@@ -5946,9 +5998,17 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A37" s="34">
+        <v>42823</v>
+      </c>
+      <c r="B37" t="s">
+        <v>259</v>
+      </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="12"/>
+      <c r="D37" s="12">
+        <v>219.16</v>
+      </c>
       <c r="E37" s="14"/>
       <c r="G37" s="59"/>
       <c r="H37" s="59"/>
@@ -6056,9 +6116,17 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="C38" s="13"/>
-      <c r="D38" s="12"/>
+    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A38" s="34">
+        <v>42824</v>
+      </c>
+      <c r="B38" t="s">
+        <v>260</v>
+      </c>
+      <c r="C38" s="86"/>
+      <c r="D38" s="12">
+        <v>53</v>
+      </c>
       <c r="E38" s="14"/>
       <c r="G38" s="59"/>
       <c r="H38" s="59"/>
@@ -6166,9 +6234,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A39" s="34">
+        <v>42825</v>
+      </c>
+      <c r="B39" t="s">
+        <v>194</v>
+      </c>
       <c r="C39" s="13"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="12">
+        <v>217.9</v>
+      </c>
       <c r="E39" s="14"/>
       <c r="G39" s="59"/>
       <c r="H39" s="59"/>
@@ -6276,10 +6352,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A40" s="34">
+        <v>42825</v>
+      </c>
+      <c r="B40" t="s">
+        <v>266</v>
+      </c>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="14"/>
+      <c r="E40" s="14">
+        <v>250</v>
+      </c>
       <c r="G40" s="59"/>
       <c r="H40" s="59"/>
       <c r="I40" s="59"/>
@@ -6381,7 +6465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
       <c r="E41" s="14"/>
@@ -6485,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
       <c r="E42" s="14"/>
@@ -6584,7 +6668,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
       <c r="E43" s="14"/>
@@ -6609,7 +6693,7 @@
       </c>
       <c r="V43" s="43">
         <f t="shared" si="3"/>
-        <v>-29</v>
+        <v>-38.5</v>
       </c>
       <c r="W43" s="52">
         <v>75</v>
@@ -6617,7 +6701,7 @@
       <c r="X43" s="52"/>
       <c r="Z43" s="53">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>113.5</v>
       </c>
       <c r="AA43">
         <v>60</v>
@@ -6660,7 +6744,7 @@
       </c>
       <c r="AN43">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>34.5</v>
       </c>
       <c r="AO43">
         <v>20</v>
@@ -6686,10 +6770,10 @@
         <v>0</v>
       </c>
       <c r="AV43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
       <c r="E44" s="14"/>
@@ -6709,19 +6793,37 @@
       <c r="T44" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="U44" s="51"/>
+      <c r="U44" s="51" t="s">
+        <v>254</v>
+      </c>
       <c r="V44" s="43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W44" s="52"/>
-      <c r="X44" s="52"/>
+        <v>-21.5</v>
+      </c>
+      <c r="W44" s="52">
+        <v>80</v>
+      </c>
+      <c r="X44" s="52">
+        <v>10</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>257</v>
+      </c>
       <c r="Z44" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>111.5</v>
+      </c>
+      <c r="AA44">
+        <v>69</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>219</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE44">
         <v>0</v>
@@ -6752,18 +6854,36 @@
       </c>
       <c r="AN44">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>35.5</v>
+      </c>
+      <c r="AO44" s="12">
+        <v>20</v>
+      </c>
+      <c r="AP44">
+        <v>2</v>
+      </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <v>2</v>
       </c>
       <c r="AS44">
         <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="AT44">
         <v>0</v>
       </c>
       <c r="AU44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV44">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C45" s="13"/>
       <c r="D45" s="12"/>
       <c r="E45" s="14"/>
@@ -6783,25 +6903,38 @@
       <c r="T45" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="U45" s="74"/>
+      <c r="U45" s="103" t="s">
+        <v>258</v>
+      </c>
       <c r="V45" s="43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W45" s="52"/>
+        <v>-112.5</v>
+      </c>
+      <c r="W45" s="52">
+        <v>75</v>
+      </c>
       <c r="X45" s="52"/>
       <c r="Z45" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>187.5</v>
+      </c>
+      <c r="AA45">
+        <v>95</v>
+      </c>
+      <c r="AB45" s="78" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>263</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE45">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF45">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AG45">
         <v>0</v>
@@ -6826,18 +6959,36 @@
       </c>
       <c r="AN45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>26.5</v>
+      </c>
+      <c r="AO45" s="12">
+        <v>12</v>
+      </c>
+      <c r="AP45" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ45">
+        <v>0</v>
+      </c>
+      <c r="AR45">
+        <v>2</v>
       </c>
       <c r="AS45">
         <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="AT45">
         <v>0</v>
       </c>
       <c r="AU45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV45">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C46" s="13"/>
       <c r="D46" s="12"/>
       <c r="E46" s="14"/>
@@ -6857,19 +7008,34 @@
       <c r="T46" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="U46" s="51"/>
+      <c r="U46" s="51" t="s">
+        <v>261</v>
+      </c>
       <c r="V46" s="43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W46" s="52"/>
-      <c r="X46" s="52"/>
+        <v>85</v>
+      </c>
+      <c r="W46" s="52">
+        <v>75</v>
+      </c>
+      <c r="X46" s="52">
+        <v>20</v>
+      </c>
       <c r="Z46" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>264</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE46">
         <v>0</v>
@@ -6910,8 +7076,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW46" s="40"/>
+    </row>
+    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C47" s="13"/>
       <c r="D47" s="12"/>
       <c r="E47" s="14"/>
@@ -6981,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C48" s="13"/>
       <c r="D48" s="12"/>
       <c r="E48" s="14"/>
